--- a/fishing_prev_close/DOTUSDT.xlsx
+++ b/fishing_prev_close/DOTUSDT.xlsx
@@ -401,4002 +401,4002 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44350.8541666551</v>
+        <v>44350.87499998842</v>
       </c>
       <c r="B2" t="n">
-        <v>27.939</v>
+        <v>27.564</v>
       </c>
       <c r="C2" t="n">
-        <v>28.15</v>
+        <v>27.8</v>
       </c>
       <c r="D2" t="n">
-        <v>27.291</v>
+        <v>27.325</v>
       </c>
       <c r="E2" t="n">
-        <v>27.565</v>
+        <v>27.37</v>
       </c>
       <c r="F2" t="n">
-        <v>1173703.7</v>
+        <v>787345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44350.87499998842</v>
+        <v>44350.89583332176</v>
       </c>
       <c r="B3" t="n">
-        <v>27.564</v>
+        <v>27.369</v>
       </c>
       <c r="C3" t="n">
-        <v>27.8</v>
+        <v>27.449</v>
       </c>
       <c r="D3" t="n">
-        <v>27.325</v>
+        <v>26.786</v>
       </c>
       <c r="E3" t="n">
-        <v>27.37</v>
+        <v>27.195</v>
       </c>
       <c r="F3" t="n">
-        <v>787345</v>
+        <v>1353481.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44350.89583332176</v>
+        <v>44350.9166666551</v>
       </c>
       <c r="B4" t="n">
-        <v>27.369</v>
+        <v>27.188</v>
       </c>
       <c r="C4" t="n">
-        <v>27.449</v>
+        <v>27.562</v>
       </c>
       <c r="D4" t="n">
-        <v>26.786</v>
+        <v>27.179</v>
       </c>
       <c r="E4" t="n">
-        <v>27.195</v>
+        <v>27.55</v>
       </c>
       <c r="F4" t="n">
-        <v>1353481.6</v>
+        <v>811311.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44350.9166666551</v>
+        <v>44350.93749998842</v>
       </c>
       <c r="B5" t="n">
-        <v>27.188</v>
+        <v>27.551</v>
       </c>
       <c r="C5" t="n">
-        <v>27.562</v>
+        <v>27.812</v>
       </c>
       <c r="D5" t="n">
-        <v>27.179</v>
+        <v>27.251</v>
       </c>
       <c r="E5" t="n">
-        <v>27.55</v>
+        <v>27.319</v>
       </c>
       <c r="F5" t="n">
-        <v>811311.7</v>
+        <v>1035153.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44350.93749998842</v>
+        <v>44350.95833332176</v>
       </c>
       <c r="B6" t="n">
-        <v>27.551</v>
+        <v>27.322</v>
       </c>
       <c r="C6" t="n">
-        <v>27.812</v>
+        <v>27.433</v>
       </c>
       <c r="D6" t="n">
-        <v>27.251</v>
+        <v>26.74</v>
       </c>
       <c r="E6" t="n">
-        <v>27.319</v>
+        <v>26.956</v>
       </c>
       <c r="F6" t="n">
-        <v>1035153.3</v>
+        <v>1303759.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44350.95833332176</v>
+        <v>44350.9791666551</v>
       </c>
       <c r="B7" t="n">
-        <v>27.322</v>
+        <v>26.955</v>
       </c>
       <c r="C7" t="n">
-        <v>27.433</v>
+        <v>27.272</v>
       </c>
       <c r="D7" t="n">
-        <v>26.74</v>
+        <v>26.82</v>
       </c>
       <c r="E7" t="n">
-        <v>26.956</v>
+        <v>26.923</v>
       </c>
       <c r="F7" t="n">
-        <v>1303759.9</v>
+        <v>584081.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44350.9791666551</v>
+        <v>44350.99999998842</v>
       </c>
       <c r="B8" t="n">
-        <v>26.955</v>
+        <v>26.921</v>
       </c>
       <c r="C8" t="n">
-        <v>27.272</v>
+        <v>27.126</v>
       </c>
       <c r="D8" t="n">
         <v>26.82</v>
       </c>
       <c r="E8" t="n">
-        <v>26.923</v>
+        <v>27.122</v>
       </c>
       <c r="F8" t="n">
-        <v>584081.9</v>
+        <v>429926.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44350.99999998842</v>
+        <v>44351.02083332176</v>
       </c>
       <c r="B9" t="n">
-        <v>26.921</v>
+        <v>27.119</v>
       </c>
       <c r="C9" t="n">
-        <v>27.126</v>
+        <v>27.27</v>
       </c>
       <c r="D9" t="n">
-        <v>26.82</v>
+        <v>26.879</v>
       </c>
       <c r="E9" t="n">
-        <v>27.122</v>
+        <v>26.998</v>
       </c>
       <c r="F9" t="n">
-        <v>429926.4</v>
+        <v>507928.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44351.02083332176</v>
+        <v>44351.0416666551</v>
       </c>
       <c r="B10" t="n">
-        <v>27.119</v>
+        <v>26.996</v>
       </c>
       <c r="C10" t="n">
-        <v>27.27</v>
+        <v>27.195</v>
       </c>
       <c r="D10" t="n">
-        <v>26.879</v>
+        <v>26.862</v>
       </c>
       <c r="E10" t="n">
-        <v>26.998</v>
+        <v>26.95</v>
       </c>
       <c r="F10" t="n">
-        <v>507928.7</v>
+        <v>499449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44351.0416666551</v>
+        <v>44351.06249998842</v>
       </c>
       <c r="B11" t="n">
-        <v>26.996</v>
+        <v>26.951</v>
       </c>
       <c r="C11" t="n">
-        <v>27.195</v>
+        <v>27.682</v>
       </c>
       <c r="D11" t="n">
-        <v>26.862</v>
+        <v>26.82</v>
       </c>
       <c r="E11" t="n">
-        <v>26.95</v>
+        <v>27.507</v>
       </c>
       <c r="F11" t="n">
-        <v>499449</v>
+        <v>973730.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44351.06249998842</v>
+        <v>44351.08333332176</v>
       </c>
       <c r="B12" t="n">
-        <v>26.951</v>
+        <v>27.507</v>
       </c>
       <c r="C12" t="n">
-        <v>27.682</v>
+        <v>27.944</v>
       </c>
       <c r="D12" t="n">
-        <v>26.82</v>
+        <v>27.467</v>
       </c>
       <c r="E12" t="n">
-        <v>27.507</v>
+        <v>27.704</v>
       </c>
       <c r="F12" t="n">
-        <v>973730.3</v>
+        <v>905580.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44351.08333332176</v>
+        <v>44351.1041666551</v>
       </c>
       <c r="B13" t="n">
-        <v>27.507</v>
+        <v>27.713</v>
       </c>
       <c r="C13" t="n">
-        <v>27.944</v>
+        <v>27.75</v>
       </c>
       <c r="D13" t="n">
-        <v>27.467</v>
+        <v>27.352</v>
       </c>
       <c r="E13" t="n">
-        <v>27.704</v>
+        <v>27.528</v>
       </c>
       <c r="F13" t="n">
-        <v>905580.3</v>
+        <v>567218.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44351.1041666551</v>
+        <v>44351.12499998842</v>
       </c>
       <c r="B14" t="n">
-        <v>27.713</v>
+        <v>27.528</v>
       </c>
       <c r="C14" t="n">
-        <v>27.75</v>
+        <v>27.528</v>
       </c>
       <c r="D14" t="n">
-        <v>27.352</v>
+        <v>27.156</v>
       </c>
       <c r="E14" t="n">
-        <v>27.528</v>
+        <v>27.303</v>
       </c>
       <c r="F14" t="n">
-        <v>567218.6</v>
+        <v>583593.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44351.12499998842</v>
+        <v>44351.14583332176</v>
       </c>
       <c r="B15" t="n">
-        <v>27.528</v>
+        <v>27.308</v>
       </c>
       <c r="C15" t="n">
-        <v>27.528</v>
+        <v>27.415</v>
       </c>
       <c r="D15" t="n">
-        <v>27.156</v>
+        <v>27.152</v>
       </c>
       <c r="E15" t="n">
-        <v>27.303</v>
+        <v>27.155</v>
       </c>
       <c r="F15" t="n">
-        <v>583593.4</v>
+        <v>269712.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44351.14583332176</v>
+        <v>44351.1666666551</v>
       </c>
       <c r="B16" t="n">
-        <v>27.308</v>
+        <v>27.161</v>
       </c>
       <c r="C16" t="n">
-        <v>27.415</v>
+        <v>27.198</v>
       </c>
       <c r="D16" t="n">
-        <v>27.152</v>
+        <v>27.004</v>
       </c>
       <c r="E16" t="n">
-        <v>27.155</v>
+        <v>27.118</v>
       </c>
       <c r="F16" t="n">
-        <v>269712.3</v>
+        <v>379242.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44351.1666666551</v>
+        <v>44351.18749998842</v>
       </c>
       <c r="B17" t="n">
-        <v>27.161</v>
+        <v>27.111</v>
       </c>
       <c r="C17" t="n">
-        <v>27.198</v>
+        <v>27.242</v>
       </c>
       <c r="D17" t="n">
-        <v>27.004</v>
+        <v>26.926</v>
       </c>
       <c r="E17" t="n">
-        <v>27.118</v>
+        <v>26.966</v>
       </c>
       <c r="F17" t="n">
-        <v>379242.9</v>
+        <v>444929.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44351.18749998842</v>
+        <v>44351.20833332176</v>
       </c>
       <c r="B18" t="n">
-        <v>27.111</v>
+        <v>26.965</v>
       </c>
       <c r="C18" t="n">
-        <v>27.242</v>
+        <v>26.968</v>
       </c>
       <c r="D18" t="n">
-        <v>26.926</v>
+        <v>26.491</v>
       </c>
       <c r="E18" t="n">
-        <v>26.966</v>
+        <v>26.577</v>
       </c>
       <c r="F18" t="n">
-        <v>444929.3</v>
+        <v>698590.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44351.20833332176</v>
+        <v>44351.2291666551</v>
       </c>
       <c r="B19" t="n">
-        <v>26.965</v>
+        <v>26.581</v>
       </c>
       <c r="C19" t="n">
-        <v>26.968</v>
+        <v>26.792</v>
       </c>
       <c r="D19" t="n">
-        <v>26.491</v>
+        <v>26.332</v>
       </c>
       <c r="E19" t="n">
-        <v>26.577</v>
+        <v>26.741</v>
       </c>
       <c r="F19" t="n">
-        <v>698590.7</v>
+        <v>682640.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44351.2291666551</v>
+        <v>44351.24999998842</v>
       </c>
       <c r="B20" t="n">
-        <v>26.581</v>
+        <v>26.736</v>
       </c>
       <c r="C20" t="n">
-        <v>26.792</v>
+        <v>27.064</v>
       </c>
       <c r="D20" t="n">
-        <v>26.332</v>
+        <v>26.521</v>
       </c>
       <c r="E20" t="n">
-        <v>26.741</v>
+        <v>26.963</v>
       </c>
       <c r="F20" t="n">
-        <v>682640.9</v>
+        <v>577288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44351.24999998842</v>
+        <v>44351.27083332176</v>
       </c>
       <c r="B21" t="n">
-        <v>26.736</v>
+        <v>26.964</v>
       </c>
       <c r="C21" t="n">
-        <v>27.064</v>
+        <v>27.183</v>
       </c>
       <c r="D21" t="n">
-        <v>26.521</v>
+        <v>26.871</v>
       </c>
       <c r="E21" t="n">
-        <v>26.963</v>
+        <v>26.907</v>
       </c>
       <c r="F21" t="n">
-        <v>577288</v>
+        <v>441633</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44351.27083332176</v>
+        <v>44351.2916666551</v>
       </c>
       <c r="B22" t="n">
-        <v>26.964</v>
+        <v>26.907</v>
       </c>
       <c r="C22" t="n">
-        <v>27.183</v>
+        <v>27.016</v>
       </c>
       <c r="D22" t="n">
-        <v>26.871</v>
+        <v>26.745</v>
       </c>
       <c r="E22" t="n">
-        <v>26.907</v>
+        <v>26.786</v>
       </c>
       <c r="F22" t="n">
-        <v>441633</v>
+        <v>228360.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44351.2916666551</v>
+        <v>44351.31249998842</v>
       </c>
       <c r="B23" t="n">
-        <v>26.907</v>
+        <v>26.788</v>
       </c>
       <c r="C23" t="n">
-        <v>27.016</v>
+        <v>27.323</v>
       </c>
       <c r="D23" t="n">
-        <v>26.745</v>
+        <v>26.569</v>
       </c>
       <c r="E23" t="n">
-        <v>26.786</v>
+        <v>27.32</v>
       </c>
       <c r="F23" t="n">
-        <v>228360.3</v>
+        <v>708455.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44351.31249998842</v>
+        <v>44351.33333332176</v>
       </c>
       <c r="B24" t="n">
-        <v>26.788</v>
+        <v>27.314</v>
       </c>
       <c r="C24" t="n">
-        <v>27.323</v>
+        <v>27.366</v>
       </c>
       <c r="D24" t="n">
-        <v>26.569</v>
+        <v>27.101</v>
       </c>
       <c r="E24" t="n">
-        <v>27.32</v>
+        <v>27.214</v>
       </c>
       <c r="F24" t="n">
-        <v>708455.2</v>
+        <v>383743.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44351.33333332176</v>
+        <v>44351.3541666551</v>
       </c>
       <c r="B25" t="n">
-        <v>27.314</v>
+        <v>27.214</v>
       </c>
       <c r="C25" t="n">
-        <v>27.366</v>
+        <v>27.227</v>
       </c>
       <c r="D25" t="n">
-        <v>27.101</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>27.214</v>
+        <v>27.077</v>
       </c>
       <c r="F25" t="n">
-        <v>383743.3</v>
+        <v>430274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44351.3541666551</v>
+        <v>44351.37499998842</v>
       </c>
       <c r="B26" t="n">
-        <v>27.214</v>
+        <v>27.075</v>
       </c>
       <c r="C26" t="n">
-        <v>27.227</v>
+        <v>27.206</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>26.922</v>
       </c>
       <c r="E26" t="n">
-        <v>27.077</v>
+        <v>26.987</v>
       </c>
       <c r="F26" t="n">
-        <v>430274</v>
+        <v>394169.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44351.37499998842</v>
+        <v>44351.39583332176</v>
       </c>
       <c r="B27" t="n">
-        <v>27.075</v>
+        <v>26.988</v>
       </c>
       <c r="C27" t="n">
-        <v>27.206</v>
+        <v>27.003</v>
       </c>
       <c r="D27" t="n">
-        <v>26.922</v>
+        <v>26.408</v>
       </c>
       <c r="E27" t="n">
-        <v>26.987</v>
+        <v>26.48</v>
       </c>
       <c r="F27" t="n">
-        <v>394169.9</v>
+        <v>672366.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44351.39583332176</v>
+        <v>44351.4166666551</v>
       </c>
       <c r="B28" t="n">
-        <v>26.988</v>
+        <v>26.483</v>
       </c>
       <c r="C28" t="n">
-        <v>27.003</v>
+        <v>26.49</v>
       </c>
       <c r="D28" t="n">
-        <v>26.408</v>
+        <v>26.07</v>
       </c>
       <c r="E28" t="n">
-        <v>26.48</v>
+        <v>26.241</v>
       </c>
       <c r="F28" t="n">
-        <v>672366.5</v>
+        <v>669183.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44351.4166666551</v>
+        <v>44351.43749998842</v>
       </c>
       <c r="B29" t="n">
-        <v>26.483</v>
+        <v>26.246</v>
       </c>
       <c r="C29" t="n">
-        <v>26.49</v>
+        <v>26.246</v>
       </c>
       <c r="D29" t="n">
-        <v>26.07</v>
+        <v>24.776</v>
       </c>
       <c r="E29" t="n">
-        <v>26.241</v>
+        <v>25.445</v>
       </c>
       <c r="F29" t="n">
-        <v>669183.7</v>
+        <v>2581602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44351.43749998842</v>
+        <v>44351.45833332176</v>
       </c>
       <c r="B30" t="n">
-        <v>26.246</v>
+        <v>25.45</v>
       </c>
       <c r="C30" t="n">
-        <v>26.246</v>
+        <v>25.661</v>
       </c>
       <c r="D30" t="n">
-        <v>24.776</v>
+        <v>25.134</v>
       </c>
       <c r="E30" t="n">
-        <v>25.445</v>
+        <v>25.369</v>
       </c>
       <c r="F30" t="n">
-        <v>2581602</v>
+        <v>932444.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44351.45833332176</v>
+        <v>44351.4791666551</v>
       </c>
       <c r="B31" t="n">
-        <v>25.45</v>
+        <v>25.368</v>
       </c>
       <c r="C31" t="n">
-        <v>25.661</v>
+        <v>25.368</v>
       </c>
       <c r="D31" t="n">
-        <v>25.134</v>
+        <v>24.54</v>
       </c>
       <c r="E31" t="n">
-        <v>25.369</v>
+        <v>24.992</v>
       </c>
       <c r="F31" t="n">
-        <v>932444.1</v>
+        <v>1215951.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44351.4791666551</v>
+        <v>44351.49999998842</v>
       </c>
       <c r="B32" t="n">
-        <v>25.368</v>
+        <v>24.989</v>
       </c>
       <c r="C32" t="n">
-        <v>25.368</v>
+        <v>25.425</v>
       </c>
       <c r="D32" t="n">
-        <v>24.54</v>
+        <v>24.95</v>
       </c>
       <c r="E32" t="n">
-        <v>24.992</v>
+        <v>25.289</v>
       </c>
       <c r="F32" t="n">
-        <v>1215951.2</v>
+        <v>758938.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44351.49999998842</v>
+        <v>44351.52083332176</v>
       </c>
       <c r="B33" t="n">
-        <v>24.989</v>
+        <v>25.289</v>
       </c>
       <c r="C33" t="n">
-        <v>25.425</v>
+        <v>25.65</v>
       </c>
       <c r="D33" t="n">
-        <v>24.95</v>
+        <v>25.023</v>
       </c>
       <c r="E33" t="n">
-        <v>25.289</v>
+        <v>25.614</v>
       </c>
       <c r="F33" t="n">
-        <v>758938.5</v>
+        <v>720372.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44351.52083332176</v>
+        <v>44351.5416666551</v>
       </c>
       <c r="B34" t="n">
-        <v>25.289</v>
+        <v>25.624</v>
       </c>
       <c r="C34" t="n">
-        <v>25.65</v>
+        <v>25.898</v>
       </c>
       <c r="D34" t="n">
-        <v>25.023</v>
+        <v>25.5</v>
       </c>
       <c r="E34" t="n">
-        <v>25.614</v>
+        <v>25.761</v>
       </c>
       <c r="F34" t="n">
-        <v>720372.2</v>
+        <v>813917.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44351.5416666551</v>
+        <v>44351.56249998842</v>
       </c>
       <c r="B35" t="n">
-        <v>25.624</v>
+        <v>25.759</v>
       </c>
       <c r="C35" t="n">
-        <v>25.898</v>
+        <v>25.782</v>
       </c>
       <c r="D35" t="n">
-        <v>25.5</v>
+        <v>25.165</v>
       </c>
       <c r="E35" t="n">
-        <v>25.761</v>
+        <v>25.325</v>
       </c>
       <c r="F35" t="n">
-        <v>813917.4</v>
+        <v>649661.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44351.56249998842</v>
+        <v>44351.58333332176</v>
       </c>
       <c r="B36" t="n">
-        <v>25.759</v>
+        <v>25.323</v>
       </c>
       <c r="C36" t="n">
-        <v>25.782</v>
+        <v>25.431</v>
       </c>
       <c r="D36" t="n">
-        <v>25.165</v>
+        <v>24.957</v>
       </c>
       <c r="E36" t="n">
-        <v>25.325</v>
+        <v>25.022</v>
       </c>
       <c r="F36" t="n">
-        <v>649661.8</v>
+        <v>706328.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44351.58333332176</v>
+        <v>44351.6041666551</v>
       </c>
       <c r="B37" t="n">
-        <v>25.323</v>
+        <v>25.019</v>
       </c>
       <c r="C37" t="n">
-        <v>25.431</v>
+        <v>25.299</v>
       </c>
       <c r="D37" t="n">
-        <v>24.957</v>
+        <v>24.683</v>
       </c>
       <c r="E37" t="n">
-        <v>25.022</v>
+        <v>24.987</v>
       </c>
       <c r="F37" t="n">
-        <v>706328.2</v>
+        <v>1001725.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44351.6041666551</v>
+        <v>44351.62499998842</v>
       </c>
       <c r="B38" t="n">
-        <v>25.019</v>
+        <v>24.974</v>
       </c>
       <c r="C38" t="n">
-        <v>25.299</v>
+        <v>25.122</v>
       </c>
       <c r="D38" t="n">
-        <v>24.683</v>
+        <v>24.482</v>
       </c>
       <c r="E38" t="n">
-        <v>24.987</v>
+        <v>24.654</v>
       </c>
       <c r="F38" t="n">
-        <v>1001725.4</v>
+        <v>1216488.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44351.62499998842</v>
+        <v>44351.64583332176</v>
       </c>
       <c r="B39" t="n">
-        <v>24.974</v>
+        <v>24.653</v>
       </c>
       <c r="C39" t="n">
-        <v>25.122</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>24.482</v>
+        <v>24.557</v>
       </c>
       <c r="E39" t="n">
-        <v>24.654</v>
+        <v>24.648</v>
       </c>
       <c r="F39" t="n">
-        <v>1216488.9</v>
+        <v>797032.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44351.64583332176</v>
+        <v>44351.6666666551</v>
       </c>
       <c r="B40" t="n">
-        <v>24.653</v>
+        <v>24.648</v>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>24.791</v>
       </c>
       <c r="D40" t="n">
-        <v>24.557</v>
+        <v>24.022</v>
       </c>
       <c r="E40" t="n">
-        <v>24.648</v>
+        <v>24.409</v>
       </c>
       <c r="F40" t="n">
-        <v>797032.9</v>
+        <v>1092505.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44351.6666666551</v>
+        <v>44351.68749998842</v>
       </c>
       <c r="B41" t="n">
-        <v>24.648</v>
+        <v>24.414</v>
       </c>
       <c r="C41" t="n">
-        <v>24.791</v>
+        <v>24.431</v>
       </c>
       <c r="D41" t="n">
-        <v>24.022</v>
+        <v>23.764</v>
       </c>
       <c r="E41" t="n">
-        <v>24.409</v>
+        <v>24.128</v>
       </c>
       <c r="F41" t="n">
-        <v>1092505.5</v>
+        <v>1239451.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44351.68749998842</v>
+        <v>44351.70833332176</v>
       </c>
       <c r="B42" t="n">
-        <v>24.414</v>
+        <v>24.128</v>
       </c>
       <c r="C42" t="n">
-        <v>24.431</v>
+        <v>24.69</v>
       </c>
       <c r="D42" t="n">
-        <v>23.764</v>
+        <v>24.071</v>
       </c>
       <c r="E42" t="n">
-        <v>24.128</v>
+        <v>24.389</v>
       </c>
       <c r="F42" t="n">
-        <v>1239451.3</v>
+        <v>1000451.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44351.70833332176</v>
+        <v>44351.7291666551</v>
       </c>
       <c r="B43" t="n">
-        <v>24.128</v>
+        <v>24.397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.69</v>
+        <v>24.692</v>
       </c>
       <c r="D43" t="n">
-        <v>24.071</v>
+        <v>23.924</v>
       </c>
       <c r="E43" t="n">
-        <v>24.389</v>
+        <v>24.688</v>
       </c>
       <c r="F43" t="n">
-        <v>1000451.8</v>
+        <v>856355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44351.7291666551</v>
+        <v>44351.74999998842</v>
       </c>
       <c r="B44" t="n">
-        <v>24.397</v>
+        <v>24.684</v>
       </c>
       <c r="C44" t="n">
-        <v>24.692</v>
+        <v>24.786</v>
       </c>
       <c r="D44" t="n">
-        <v>23.924</v>
+        <v>24.347</v>
       </c>
       <c r="E44" t="n">
-        <v>24.688</v>
+        <v>24.388</v>
       </c>
       <c r="F44" t="n">
-        <v>856355</v>
+        <v>496071.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44351.74999998842</v>
+        <v>44351.77083332176</v>
       </c>
       <c r="B45" t="n">
-        <v>24.684</v>
+        <v>24.383</v>
       </c>
       <c r="C45" t="n">
-        <v>24.786</v>
+        <v>24.634</v>
       </c>
       <c r="D45" t="n">
-        <v>24.347</v>
+        <v>24.1</v>
       </c>
       <c r="E45" t="n">
-        <v>24.388</v>
+        <v>24.461</v>
       </c>
       <c r="F45" t="n">
-        <v>496071.4</v>
+        <v>609351.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44351.77083332176</v>
+        <v>44351.7916666551</v>
       </c>
       <c r="B46" t="n">
-        <v>24.383</v>
+        <v>24.462</v>
       </c>
       <c r="C46" t="n">
-        <v>24.634</v>
+        <v>24.838</v>
       </c>
       <c r="D46" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E46" t="n">
-        <v>24.461</v>
+        <v>24.838</v>
       </c>
       <c r="F46" t="n">
-        <v>609351.1</v>
+        <v>744288.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44351.7916666551</v>
+        <v>44351.81249998842</v>
       </c>
       <c r="B47" t="n">
-        <v>24.462</v>
+        <v>24.832</v>
       </c>
       <c r="C47" t="n">
-        <v>24.838</v>
+        <v>25.085</v>
       </c>
       <c r="D47" t="n">
-        <v>24.3</v>
+        <v>24.537</v>
       </c>
       <c r="E47" t="n">
-        <v>24.838</v>
+        <v>24.573</v>
       </c>
       <c r="F47" t="n">
-        <v>744288.8</v>
+        <v>669167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44351.81249998842</v>
+        <v>44351.83333332176</v>
       </c>
       <c r="B48" t="n">
-        <v>24.832</v>
+        <v>24.572</v>
       </c>
       <c r="C48" t="n">
-        <v>25.085</v>
+        <v>24.725</v>
       </c>
       <c r="D48" t="n">
-        <v>24.537</v>
+        <v>24.318</v>
       </c>
       <c r="E48" t="n">
-        <v>24.573</v>
+        <v>24.346</v>
       </c>
       <c r="F48" t="n">
-        <v>669167</v>
+        <v>644574</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44351.83333332176</v>
+        <v>44351.8541666551</v>
       </c>
       <c r="B49" t="n">
-        <v>24.572</v>
+        <v>24.343</v>
       </c>
       <c r="C49" t="n">
-        <v>24.725</v>
+        <v>24.619</v>
       </c>
       <c r="D49" t="n">
-        <v>24.318</v>
+        <v>24.23</v>
       </c>
       <c r="E49" t="n">
-        <v>24.346</v>
+        <v>24.299</v>
       </c>
       <c r="F49" t="n">
-        <v>644574</v>
+        <v>515315</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44351.8541666551</v>
+        <v>44351.87499998842</v>
       </c>
       <c r="B50" t="n">
-        <v>24.343</v>
+        <v>24.299</v>
       </c>
       <c r="C50" t="n">
-        <v>24.619</v>
+        <v>24.299</v>
       </c>
       <c r="D50" t="n">
-        <v>24.23</v>
+        <v>23.985</v>
       </c>
       <c r="E50" t="n">
-        <v>24.299</v>
+        <v>24.274</v>
       </c>
       <c r="F50" t="n">
-        <v>515315</v>
+        <v>692966.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44351.87499998842</v>
+        <v>44351.89583332176</v>
       </c>
       <c r="B51" t="n">
-        <v>24.299</v>
+        <v>24.282</v>
       </c>
       <c r="C51" t="n">
-        <v>24.299</v>
+        <v>24.282</v>
       </c>
       <c r="D51" t="n">
-        <v>23.985</v>
+        <v>23.6</v>
       </c>
       <c r="E51" t="n">
-        <v>24.274</v>
+        <v>23.895</v>
       </c>
       <c r="F51" t="n">
-        <v>692966.4</v>
+        <v>1206904.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44351.89583332176</v>
+        <v>44351.9166666551</v>
       </c>
       <c r="B52" t="n">
-        <v>24.282</v>
+        <v>23.896</v>
       </c>
       <c r="C52" t="n">
-        <v>24.282</v>
+        <v>24.896</v>
       </c>
       <c r="D52" t="n">
-        <v>23.6</v>
+        <v>23.883</v>
       </c>
       <c r="E52" t="n">
-        <v>23.895</v>
+        <v>24.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1206904.8</v>
+        <v>1288211.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44351.9166666551</v>
+        <v>44351.93749998842</v>
       </c>
       <c r="B53" t="n">
-        <v>23.896</v>
+        <v>24.7</v>
       </c>
       <c r="C53" t="n">
-        <v>24.896</v>
+        <v>24.766</v>
       </c>
       <c r="D53" t="n">
-        <v>23.883</v>
+        <v>24.4</v>
       </c>
       <c r="E53" t="n">
-        <v>24.7</v>
+        <v>24.628</v>
       </c>
       <c r="F53" t="n">
-        <v>1288211.9</v>
+        <v>534870.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44351.93749998842</v>
+        <v>44351.95833332176</v>
       </c>
       <c r="B54" t="n">
-        <v>24.7</v>
+        <v>24.624</v>
       </c>
       <c r="C54" t="n">
-        <v>24.766</v>
+        <v>24.735</v>
       </c>
       <c r="D54" t="n">
-        <v>24.4</v>
+        <v>24.323</v>
       </c>
       <c r="E54" t="n">
-        <v>24.628</v>
+        <v>24.379</v>
       </c>
       <c r="F54" t="n">
-        <v>534870.4</v>
+        <v>433494.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44351.95833332176</v>
+        <v>44351.9791666551</v>
       </c>
       <c r="B55" t="n">
-        <v>24.624</v>
+        <v>24.378</v>
       </c>
       <c r="C55" t="n">
-        <v>24.735</v>
+        <v>24.548</v>
       </c>
       <c r="D55" t="n">
-        <v>24.323</v>
+        <v>23.967</v>
       </c>
       <c r="E55" t="n">
-        <v>24.379</v>
+        <v>24.1</v>
       </c>
       <c r="F55" t="n">
-        <v>433494.1</v>
+        <v>707461.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44351.9791666551</v>
+        <v>44351.99999998842</v>
       </c>
       <c r="B56" t="n">
-        <v>24.378</v>
+        <v>24.102</v>
       </c>
       <c r="C56" t="n">
-        <v>24.548</v>
+        <v>24.493</v>
       </c>
       <c r="D56" t="n">
-        <v>23.967</v>
+        <v>23.913</v>
       </c>
       <c r="E56" t="n">
-        <v>24.1</v>
+        <v>24.343</v>
       </c>
       <c r="F56" t="n">
-        <v>707461.7</v>
+        <v>815780</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44351.99999998842</v>
+        <v>44352.02083332176</v>
       </c>
       <c r="B57" t="n">
-        <v>24.102</v>
+        <v>24.347</v>
       </c>
       <c r="C57" t="n">
-        <v>24.493</v>
+        <v>24.726</v>
       </c>
       <c r="D57" t="n">
-        <v>23.913</v>
+        <v>24.347</v>
       </c>
       <c r="E57" t="n">
-        <v>24.343</v>
+        <v>24.71</v>
       </c>
       <c r="F57" t="n">
-        <v>815780</v>
+        <v>482660</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44352.02083332176</v>
+        <v>44352.0416666551</v>
       </c>
       <c r="B58" t="n">
-        <v>24.347</v>
+        <v>24.711</v>
       </c>
       <c r="C58" t="n">
-        <v>24.726</v>
+        <v>24.836</v>
       </c>
       <c r="D58" t="n">
-        <v>24.347</v>
+        <v>24.54</v>
       </c>
       <c r="E58" t="n">
-        <v>24.71</v>
+        <v>24.721</v>
       </c>
       <c r="F58" t="n">
-        <v>482660</v>
+        <v>625414</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44352.0416666551</v>
+        <v>44352.06249998842</v>
       </c>
       <c r="B59" t="n">
-        <v>24.711</v>
+        <v>24.721</v>
       </c>
       <c r="C59" t="n">
-        <v>24.836</v>
+        <v>25.155</v>
       </c>
       <c r="D59" t="n">
-        <v>24.54</v>
+        <v>24.597</v>
       </c>
       <c r="E59" t="n">
-        <v>24.721</v>
+        <v>24.851</v>
       </c>
       <c r="F59" t="n">
-        <v>625414</v>
+        <v>983211.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44352.06249998842</v>
+        <v>44352.08333332176</v>
       </c>
       <c r="B60" t="n">
-        <v>24.721</v>
+        <v>24.85</v>
       </c>
       <c r="C60" t="n">
-        <v>25.155</v>
+        <v>24.869</v>
       </c>
       <c r="D60" t="n">
-        <v>24.597</v>
+        <v>24.503</v>
       </c>
       <c r="E60" t="n">
-        <v>24.851</v>
+        <v>24.718</v>
       </c>
       <c r="F60" t="n">
-        <v>983211.4</v>
+        <v>501742.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44352.08333332176</v>
+        <v>44352.1041666551</v>
       </c>
       <c r="B61" t="n">
-        <v>24.85</v>
+        <v>24.717</v>
       </c>
       <c r="C61" t="n">
-        <v>24.869</v>
+        <v>25.16</v>
       </c>
       <c r="D61" t="n">
-        <v>24.503</v>
+        <v>24.637</v>
       </c>
       <c r="E61" t="n">
-        <v>24.718</v>
+        <v>25.088</v>
       </c>
       <c r="F61" t="n">
-        <v>501742.8</v>
+        <v>388973.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44352.1041666551</v>
+        <v>44352.12499998842</v>
       </c>
       <c r="B62" t="n">
-        <v>24.717</v>
+        <v>25.087</v>
       </c>
       <c r="C62" t="n">
-        <v>25.16</v>
+        <v>25.232</v>
       </c>
       <c r="D62" t="n">
-        <v>24.637</v>
+        <v>25.027</v>
       </c>
       <c r="E62" t="n">
-        <v>25.088</v>
+        <v>25.041</v>
       </c>
       <c r="F62" t="n">
-        <v>388973.2</v>
+        <v>365476.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44352.12499998842</v>
+        <v>44352.14583332176</v>
       </c>
       <c r="B63" t="n">
-        <v>25.087</v>
+        <v>25.042</v>
       </c>
       <c r="C63" t="n">
-        <v>25.232</v>
+        <v>25.255</v>
       </c>
       <c r="D63" t="n">
-        <v>25.027</v>
+        <v>24.945</v>
       </c>
       <c r="E63" t="n">
-        <v>25.041</v>
+        <v>25.164</v>
       </c>
       <c r="F63" t="n">
-        <v>365476.7</v>
+        <v>382664.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44352.14583332176</v>
+        <v>44352.1666666551</v>
       </c>
       <c r="B64" t="n">
-        <v>25.042</v>
+        <v>25.168</v>
       </c>
       <c r="C64" t="n">
-        <v>25.255</v>
+        <v>25.486</v>
       </c>
       <c r="D64" t="n">
-        <v>24.945</v>
+        <v>25.05</v>
       </c>
       <c r="E64" t="n">
-        <v>25.164</v>
+        <v>25.3</v>
       </c>
       <c r="F64" t="n">
-        <v>382664.7</v>
+        <v>429445.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44352.1666666551</v>
+        <v>44352.18749998842</v>
       </c>
       <c r="B65" t="n">
-        <v>25.168</v>
+        <v>25.3</v>
       </c>
       <c r="C65" t="n">
-        <v>25.486</v>
+        <v>25.593</v>
       </c>
       <c r="D65" t="n">
-        <v>25.05</v>
+        <v>25.183</v>
       </c>
       <c r="E65" t="n">
-        <v>25.3</v>
+        <v>25.287</v>
       </c>
       <c r="F65" t="n">
-        <v>429445.6</v>
+        <v>656348.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44352.18749998842</v>
+        <v>44352.20833332176</v>
       </c>
       <c r="B66" t="n">
-        <v>25.3</v>
+        <v>25.292</v>
       </c>
       <c r="C66" t="n">
-        <v>25.593</v>
+        <v>25.354</v>
       </c>
       <c r="D66" t="n">
-        <v>25.183</v>
+        <v>24.77</v>
       </c>
       <c r="E66" t="n">
-        <v>25.287</v>
+        <v>24.993</v>
       </c>
       <c r="F66" t="n">
-        <v>656348.9</v>
+        <v>505788.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44352.20833332176</v>
+        <v>44352.2291666551</v>
       </c>
       <c r="B67" t="n">
-        <v>25.292</v>
+        <v>24.993</v>
       </c>
       <c r="C67" t="n">
+        <v>25.356</v>
+      </c>
+      <c r="D67" t="n">
+        <v>24.993</v>
+      </c>
+      <c r="E67" t="n">
         <v>25.354</v>
       </c>
-      <c r="D67" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="E67" t="n">
-        <v>24.993</v>
-      </c>
       <c r="F67" t="n">
-        <v>505788.8</v>
+        <v>300556.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44352.2291666551</v>
+        <v>44352.24999998842</v>
       </c>
       <c r="B68" t="n">
-        <v>24.993</v>
+        <v>25.352</v>
       </c>
       <c r="C68" t="n">
-        <v>25.356</v>
+        <v>25.454</v>
       </c>
       <c r="D68" t="n">
-        <v>24.993</v>
+        <v>25.065</v>
       </c>
       <c r="E68" t="n">
-        <v>25.354</v>
+        <v>25.259</v>
       </c>
       <c r="F68" t="n">
-        <v>300556.4</v>
+        <v>323060.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44352.24999998842</v>
+        <v>44352.27083332176</v>
       </c>
       <c r="B69" t="n">
-        <v>25.352</v>
+        <v>25.26</v>
       </c>
       <c r="C69" t="n">
-        <v>25.454</v>
+        <v>25.506</v>
       </c>
       <c r="D69" t="n">
-        <v>25.065</v>
+        <v>25.259</v>
       </c>
       <c r="E69" t="n">
-        <v>25.259</v>
+        <v>25.414</v>
       </c>
       <c r="F69" t="n">
-        <v>323060.9</v>
+        <v>295295</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44352.27083332176</v>
+        <v>44352.2916666551</v>
       </c>
       <c r="B70" t="n">
-        <v>25.26</v>
+        <v>25.413</v>
       </c>
       <c r="C70" t="n">
-        <v>25.506</v>
+        <v>25.47</v>
       </c>
       <c r="D70" t="n">
-        <v>25.259</v>
+        <v>25.185</v>
       </c>
       <c r="E70" t="n">
-        <v>25.414</v>
+        <v>25.323</v>
       </c>
       <c r="F70" t="n">
-        <v>295295</v>
+        <v>303849</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44352.2916666551</v>
+        <v>44352.31249998842</v>
       </c>
       <c r="B71" t="n">
-        <v>25.413</v>
+        <v>25.322</v>
       </c>
       <c r="C71" t="n">
-        <v>25.47</v>
+        <v>25.495</v>
       </c>
       <c r="D71" t="n">
-        <v>25.185</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>25.323</v>
+        <v>25.07</v>
       </c>
       <c r="F71" t="n">
-        <v>303849</v>
+        <v>354114.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44352.31249998842</v>
+        <v>44352.33333332176</v>
       </c>
       <c r="B72" t="n">
-        <v>25.322</v>
+        <v>25.069</v>
       </c>
       <c r="C72" t="n">
-        <v>25.495</v>
+        <v>25.443</v>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>25.069</v>
       </c>
       <c r="E72" t="n">
-        <v>25.07</v>
+        <v>25.231</v>
       </c>
       <c r="F72" t="n">
-        <v>354114.1</v>
+        <v>304575.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44352.33333332176</v>
+        <v>44352.3541666551</v>
       </c>
       <c r="B73" t="n">
-        <v>25.069</v>
+        <v>25.229</v>
       </c>
       <c r="C73" t="n">
-        <v>25.443</v>
+        <v>25.426</v>
       </c>
       <c r="D73" t="n">
-        <v>25.069</v>
+        <v>24.522</v>
       </c>
       <c r="E73" t="n">
-        <v>25.231</v>
+        <v>24.92</v>
       </c>
       <c r="F73" t="n">
-        <v>304575.8</v>
+        <v>772823.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44352.3541666551</v>
+        <v>44352.37499998842</v>
       </c>
       <c r="B74" t="n">
-        <v>25.229</v>
+        <v>24.92</v>
       </c>
       <c r="C74" t="n">
-        <v>25.426</v>
+        <v>25.279</v>
       </c>
       <c r="D74" t="n">
-        <v>24.522</v>
+        <v>24.838</v>
       </c>
       <c r="E74" t="n">
-        <v>24.92</v>
+        <v>24.967</v>
       </c>
       <c r="F74" t="n">
-        <v>772823.6</v>
+        <v>364789.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44352.37499998842</v>
+        <v>44352.39583332176</v>
       </c>
       <c r="B75" t="n">
-        <v>24.92</v>
+        <v>24.973</v>
       </c>
       <c r="C75" t="n">
-        <v>25.279</v>
+        <v>25.606</v>
       </c>
       <c r="D75" t="n">
-        <v>24.838</v>
+        <v>24.747</v>
       </c>
       <c r="E75" t="n">
-        <v>24.967</v>
+        <v>25.539</v>
       </c>
       <c r="F75" t="n">
-        <v>364789.7</v>
+        <v>624359.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44352.39583332176</v>
+        <v>44352.4166666551</v>
       </c>
       <c r="B76" t="n">
-        <v>24.973</v>
+        <v>25.535</v>
       </c>
       <c r="C76" t="n">
-        <v>25.606</v>
+        <v>25.983</v>
       </c>
       <c r="D76" t="n">
-        <v>24.747</v>
+        <v>25.452</v>
       </c>
       <c r="E76" t="n">
-        <v>25.539</v>
+        <v>25.848</v>
       </c>
       <c r="F76" t="n">
-        <v>624359.2</v>
+        <v>585306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44352.4166666551</v>
+        <v>44352.43749998842</v>
       </c>
       <c r="B77" t="n">
-        <v>25.535</v>
+        <v>25.841</v>
       </c>
       <c r="C77" t="n">
-        <v>25.983</v>
+        <v>26.042</v>
       </c>
       <c r="D77" t="n">
-        <v>25.452</v>
+        <v>25.625</v>
       </c>
       <c r="E77" t="n">
-        <v>25.848</v>
+        <v>25.636</v>
       </c>
       <c r="F77" t="n">
-        <v>585306</v>
+        <v>501393.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44352.43749998842</v>
+        <v>44352.45833332176</v>
       </c>
       <c r="B78" t="n">
-        <v>25.841</v>
+        <v>25.635</v>
       </c>
       <c r="C78" t="n">
-        <v>26.042</v>
+        <v>26.079</v>
       </c>
       <c r="D78" t="n">
-        <v>25.625</v>
+        <v>25.635</v>
       </c>
       <c r="E78" t="n">
-        <v>25.636</v>
+        <v>25.938</v>
       </c>
       <c r="F78" t="n">
-        <v>501393.5</v>
+        <v>557030.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44352.45833332176</v>
+        <v>44352.4791666551</v>
       </c>
       <c r="B79" t="n">
-        <v>25.635</v>
+        <v>25.936</v>
       </c>
       <c r="C79" t="n">
-        <v>26.079</v>
+        <v>26.074</v>
       </c>
       <c r="D79" t="n">
-        <v>25.635</v>
+        <v>25.731</v>
       </c>
       <c r="E79" t="n">
-        <v>25.938</v>
+        <v>25.745</v>
       </c>
       <c r="F79" t="n">
-        <v>557030.9</v>
+        <v>575252.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44352.4791666551</v>
+        <v>44352.49999998842</v>
       </c>
       <c r="B80" t="n">
-        <v>25.936</v>
+        <v>25.745</v>
       </c>
       <c r="C80" t="n">
-        <v>26.074</v>
+        <v>25.964</v>
       </c>
       <c r="D80" t="n">
-        <v>25.731</v>
+        <v>25.603</v>
       </c>
       <c r="E80" t="n">
-        <v>25.745</v>
+        <v>25.775</v>
       </c>
       <c r="F80" t="n">
-        <v>575252.4</v>
+        <v>449281.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44352.49999998842</v>
+        <v>44352.52083332176</v>
       </c>
       <c r="B81" t="n">
-        <v>25.745</v>
+        <v>25.768</v>
       </c>
       <c r="C81" t="n">
-        <v>25.964</v>
+        <v>26.019</v>
       </c>
       <c r="D81" t="n">
-        <v>25.603</v>
+        <v>25.764</v>
       </c>
       <c r="E81" t="n">
-        <v>25.775</v>
+        <v>25.859</v>
       </c>
       <c r="F81" t="n">
-        <v>449281.9</v>
+        <v>265810.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44352.52083332176</v>
+        <v>44352.5416666551</v>
       </c>
       <c r="B82" t="n">
-        <v>25.768</v>
+        <v>25.859</v>
       </c>
       <c r="C82" t="n">
-        <v>26.019</v>
+        <v>25.94</v>
       </c>
       <c r="D82" t="n">
-        <v>25.764</v>
+        <v>25.525</v>
       </c>
       <c r="E82" t="n">
-        <v>25.859</v>
+        <v>25.575</v>
       </c>
       <c r="F82" t="n">
-        <v>265810.1</v>
+        <v>295467.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44352.5416666551</v>
+        <v>44352.56249998842</v>
       </c>
       <c r="B83" t="n">
-        <v>25.859</v>
+        <v>25.576</v>
       </c>
       <c r="C83" t="n">
-        <v>25.94</v>
+        <v>25.839</v>
       </c>
       <c r="D83" t="n">
-        <v>25.525</v>
+        <v>25.575</v>
       </c>
       <c r="E83" t="n">
-        <v>25.575</v>
+        <v>25.788</v>
       </c>
       <c r="F83" t="n">
-        <v>295467.8</v>
+        <v>289133.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44352.56249998842</v>
+        <v>44352.58333332176</v>
       </c>
       <c r="B84" t="n">
-        <v>25.576</v>
+        <v>25.787</v>
       </c>
       <c r="C84" t="n">
-        <v>25.839</v>
+        <v>25.986</v>
       </c>
       <c r="D84" t="n">
-        <v>25.575</v>
+        <v>25.745</v>
       </c>
       <c r="E84" t="n">
-        <v>25.788</v>
+        <v>25.978</v>
       </c>
       <c r="F84" t="n">
-        <v>289133.9</v>
+        <v>334777.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44352.58333332176</v>
+        <v>44352.6041666551</v>
       </c>
       <c r="B85" t="n">
-        <v>25.787</v>
+        <v>25.97</v>
       </c>
       <c r="C85" t="n">
-        <v>25.986</v>
+        <v>25.987</v>
       </c>
       <c r="D85" t="n">
-        <v>25.745</v>
+        <v>25.712</v>
       </c>
       <c r="E85" t="n">
-        <v>25.978</v>
+        <v>25.766</v>
       </c>
       <c r="F85" t="n">
-        <v>334777.9</v>
+        <v>230939.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44352.6041666551</v>
+        <v>44352.62499998842</v>
       </c>
       <c r="B86" t="n">
-        <v>25.97</v>
+        <v>25.769</v>
       </c>
       <c r="C86" t="n">
-        <v>25.987</v>
+        <v>25.93</v>
       </c>
       <c r="D86" t="n">
-        <v>25.712</v>
+        <v>25.652</v>
       </c>
       <c r="E86" t="n">
-        <v>25.766</v>
+        <v>25.85</v>
       </c>
       <c r="F86" t="n">
-        <v>230939.5</v>
+        <v>216271.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44352.62499998842</v>
+        <v>44352.64583332176</v>
       </c>
       <c r="B87" t="n">
-        <v>25.769</v>
+        <v>25.85</v>
       </c>
       <c r="C87" t="n">
-        <v>25.93</v>
+        <v>26.009</v>
       </c>
       <c r="D87" t="n">
-        <v>25.652</v>
+        <v>25.808</v>
       </c>
       <c r="E87" t="n">
-        <v>25.85</v>
+        <v>25.879</v>
       </c>
       <c r="F87" t="n">
-        <v>216271.3</v>
+        <v>303157.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44352.64583332176</v>
+        <v>44352.6666666551</v>
       </c>
       <c r="B88" t="n">
-        <v>25.85</v>
+        <v>25.879</v>
       </c>
       <c r="C88" t="n">
-        <v>26.009</v>
+        <v>25.97</v>
       </c>
       <c r="D88" t="n">
-        <v>25.808</v>
+        <v>25.74</v>
       </c>
       <c r="E88" t="n">
-        <v>25.879</v>
+        <v>25.913</v>
       </c>
       <c r="F88" t="n">
-        <v>303157.5</v>
+        <v>267621.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44352.6666666551</v>
+        <v>44352.68749998842</v>
       </c>
       <c r="B89" t="n">
-        <v>25.879</v>
+        <v>25.917</v>
       </c>
       <c r="C89" t="n">
-        <v>25.97</v>
+        <v>26.374</v>
       </c>
       <c r="D89" t="n">
-        <v>25.74</v>
+        <v>25.885</v>
       </c>
       <c r="E89" t="n">
-        <v>25.913</v>
+        <v>26.186</v>
       </c>
       <c r="F89" t="n">
-        <v>267621.6</v>
+        <v>751564.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44352.68749998842</v>
+        <v>44352.70833332176</v>
       </c>
       <c r="B90" t="n">
-        <v>25.917</v>
+        <v>26.186</v>
       </c>
       <c r="C90" t="n">
-        <v>26.374</v>
+        <v>26.274</v>
       </c>
       <c r="D90" t="n">
-        <v>25.885</v>
+        <v>25.91</v>
       </c>
       <c r="E90" t="n">
-        <v>26.186</v>
+        <v>25.978</v>
       </c>
       <c r="F90" t="n">
-        <v>751564.3</v>
+        <v>446334.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44352.70833332176</v>
+        <v>44352.7291666551</v>
       </c>
       <c r="B91" t="n">
-        <v>26.186</v>
+        <v>25.973</v>
       </c>
       <c r="C91" t="n">
-        <v>26.274</v>
+        <v>26.18</v>
       </c>
       <c r="D91" t="n">
-        <v>25.91</v>
+        <v>25.799</v>
       </c>
       <c r="E91" t="n">
-        <v>25.978</v>
+        <v>26.098</v>
       </c>
       <c r="F91" t="n">
-        <v>446334.6</v>
+        <v>348213.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44352.7291666551</v>
+        <v>44352.74999998842</v>
       </c>
       <c r="B92" t="n">
-        <v>25.973</v>
+        <v>26.096</v>
       </c>
       <c r="C92" t="n">
-        <v>26.18</v>
+        <v>26.22</v>
       </c>
       <c r="D92" t="n">
-        <v>25.799</v>
+        <v>25.974</v>
       </c>
       <c r="E92" t="n">
-        <v>26.098</v>
+        <v>26.083</v>
       </c>
       <c r="F92" t="n">
-        <v>348213.9</v>
+        <v>242271.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44352.74999998842</v>
+        <v>44352.77083332176</v>
       </c>
       <c r="B93" t="n">
-        <v>26.096</v>
+        <v>26.084</v>
       </c>
       <c r="C93" t="n">
-        <v>26.22</v>
+        <v>26.162</v>
       </c>
       <c r="D93" t="n">
-        <v>25.974</v>
+        <v>25.876</v>
       </c>
       <c r="E93" t="n">
-        <v>26.083</v>
+        <v>25.912</v>
       </c>
       <c r="F93" t="n">
-        <v>242271.5</v>
+        <v>286027.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44352.77083332176</v>
+        <v>44352.7916666551</v>
       </c>
       <c r="B94" t="n">
-        <v>26.084</v>
+        <v>25.914</v>
       </c>
       <c r="C94" t="n">
-        <v>26.162</v>
+        <v>25.94</v>
       </c>
       <c r="D94" t="n">
-        <v>25.876</v>
+        <v>24.078</v>
       </c>
       <c r="E94" t="n">
-        <v>25.912</v>
+        <v>24.708</v>
       </c>
       <c r="F94" t="n">
-        <v>286027.5</v>
+        <v>1778497.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44352.7916666551</v>
+        <v>44352.81249998842</v>
       </c>
       <c r="B95" t="n">
-        <v>25.914</v>
+        <v>24.702</v>
       </c>
       <c r="C95" t="n">
-        <v>25.94</v>
+        <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>24.078</v>
+        <v>24.408</v>
       </c>
       <c r="E95" t="n">
-        <v>24.708</v>
+        <v>24.85</v>
       </c>
       <c r="F95" t="n">
-        <v>1778497.7</v>
+        <v>1086862.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44352.81249998842</v>
+        <v>44352.83333332176</v>
       </c>
       <c r="B96" t="n">
-        <v>24.702</v>
+        <v>24.849</v>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>24.882</v>
       </c>
       <c r="D96" t="n">
-        <v>24.408</v>
+        <v>24.455</v>
       </c>
       <c r="E96" t="n">
-        <v>24.85</v>
+        <v>24.656</v>
       </c>
       <c r="F96" t="n">
-        <v>1086862.8</v>
+        <v>545762.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44352.83333332176</v>
+        <v>44352.8541666551</v>
       </c>
       <c r="B97" t="n">
-        <v>24.849</v>
+        <v>24.657</v>
       </c>
       <c r="C97" t="n">
-        <v>24.882</v>
+        <v>24.732</v>
       </c>
       <c r="D97" t="n">
-        <v>24.455</v>
+        <v>24.06</v>
       </c>
       <c r="E97" t="n">
-        <v>24.656</v>
+        <v>24.112</v>
       </c>
       <c r="F97" t="n">
-        <v>545762.7</v>
+        <v>678731.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44352.8541666551</v>
+        <v>44352.87499998842</v>
       </c>
       <c r="B98" t="n">
-        <v>24.657</v>
+        <v>24.112</v>
       </c>
       <c r="C98" t="n">
-        <v>24.732</v>
+        <v>24.368</v>
       </c>
       <c r="D98" t="n">
-        <v>24.06</v>
+        <v>23.761</v>
       </c>
       <c r="E98" t="n">
-        <v>24.112</v>
+        <v>24.081</v>
       </c>
       <c r="F98" t="n">
-        <v>678731.3</v>
+        <v>835679.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44352.87499998842</v>
+        <v>44352.89583332176</v>
       </c>
       <c r="B99" t="n">
-        <v>24.112</v>
+        <v>24.081</v>
       </c>
       <c r="C99" t="n">
-        <v>24.368</v>
+        <v>24.3</v>
       </c>
       <c r="D99" t="n">
-        <v>23.761</v>
+        <v>23.51</v>
       </c>
       <c r="E99" t="n">
-        <v>24.081</v>
+        <v>24.269</v>
       </c>
       <c r="F99" t="n">
-        <v>835679.9</v>
+        <v>1007664.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44352.89583332176</v>
+        <v>44352.9166666551</v>
       </c>
       <c r="B100" t="n">
-        <v>24.081</v>
+        <v>24.267</v>
       </c>
       <c r="C100" t="n">
-        <v>24.3</v>
+        <v>24.575</v>
       </c>
       <c r="D100" t="n">
-        <v>23.51</v>
+        <v>24.092</v>
       </c>
       <c r="E100" t="n">
-        <v>24.269</v>
+        <v>24.341</v>
       </c>
       <c r="F100" t="n">
-        <v>1007664.9</v>
+        <v>583319.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44352.9166666551</v>
+        <v>44352.93749998842</v>
       </c>
       <c r="B101" t="n">
-        <v>24.267</v>
+        <v>24.339</v>
       </c>
       <c r="C101" t="n">
-        <v>24.575</v>
+        <v>24.39</v>
       </c>
       <c r="D101" t="n">
-        <v>24.092</v>
+        <v>24.064</v>
       </c>
       <c r="E101" t="n">
-        <v>24.341</v>
+        <v>24.343</v>
       </c>
       <c r="F101" t="n">
-        <v>583319.5</v>
+        <v>436527.7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44352.93749998842</v>
+        <v>44352.95833332176</v>
       </c>
       <c r="B102" t="n">
-        <v>24.339</v>
+        <v>24.345</v>
       </c>
       <c r="C102" t="n">
-        <v>24.39</v>
+        <v>24.346</v>
       </c>
       <c r="D102" t="n">
-        <v>24.064</v>
+        <v>23.923</v>
       </c>
       <c r="E102" t="n">
-        <v>24.343</v>
+        <v>24.006</v>
       </c>
       <c r="F102" t="n">
-        <v>436527.7</v>
+        <v>453666.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44352.95833332176</v>
+        <v>44352.9791666551</v>
       </c>
       <c r="B103" t="n">
-        <v>24.345</v>
+        <v>24.005</v>
       </c>
       <c r="C103" t="n">
-        <v>24.346</v>
+        <v>24.407</v>
       </c>
       <c r="D103" t="n">
-        <v>23.923</v>
+        <v>23.854</v>
       </c>
       <c r="E103" t="n">
-        <v>24.006</v>
+        <v>24.229</v>
       </c>
       <c r="F103" t="n">
-        <v>453666.4</v>
+        <v>517899.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44352.9791666551</v>
+        <v>44352.99999998842</v>
       </c>
       <c r="B104" t="n">
-        <v>24.005</v>
+        <v>24.229</v>
       </c>
       <c r="C104" t="n">
-        <v>24.407</v>
+        <v>24.283</v>
       </c>
       <c r="D104" t="n">
-        <v>23.854</v>
+        <v>23.752</v>
       </c>
       <c r="E104" t="n">
-        <v>24.229</v>
+        <v>23.795</v>
       </c>
       <c r="F104" t="n">
-        <v>517899.4</v>
+        <v>534105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44352.99999998842</v>
+        <v>44353.02083332176</v>
       </c>
       <c r="B105" t="n">
-        <v>24.229</v>
+        <v>23.794</v>
       </c>
       <c r="C105" t="n">
-        <v>24.283</v>
+        <v>24.085</v>
       </c>
       <c r="D105" t="n">
-        <v>23.752</v>
+        <v>23.65</v>
       </c>
       <c r="E105" t="n">
-        <v>23.795</v>
+        <v>24.061</v>
       </c>
       <c r="F105" t="n">
-        <v>534105</v>
+        <v>448453</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44353.02083332176</v>
+        <v>44353.0416666551</v>
       </c>
       <c r="B106" t="n">
-        <v>23.794</v>
+        <v>24.064</v>
       </c>
       <c r="C106" t="n">
-        <v>24.085</v>
+        <v>24.369</v>
       </c>
       <c r="D106" t="n">
-        <v>23.65</v>
+        <v>23.933</v>
       </c>
       <c r="E106" t="n">
-        <v>24.061</v>
+        <v>24.323</v>
       </c>
       <c r="F106" t="n">
-        <v>448453</v>
+        <v>460220.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44353.0416666551</v>
+        <v>44353.06249998842</v>
       </c>
       <c r="B107" t="n">
-        <v>24.064</v>
+        <v>24.315</v>
       </c>
       <c r="C107" t="n">
-        <v>24.369</v>
+        <v>24.318</v>
       </c>
       <c r="D107" t="n">
-        <v>23.933</v>
+        <v>24.003</v>
       </c>
       <c r="E107" t="n">
-        <v>24.323</v>
+        <v>24.107</v>
       </c>
       <c r="F107" t="n">
-        <v>460220.2</v>
+        <v>390071.9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44353.06249998842</v>
+        <v>44353.08333332176</v>
       </c>
       <c r="B108" t="n">
-        <v>24.315</v>
+        <v>24.109</v>
       </c>
       <c r="C108" t="n">
-        <v>24.318</v>
+        <v>24.253</v>
       </c>
       <c r="D108" t="n">
-        <v>24.003</v>
+        <v>23.981</v>
       </c>
       <c r="E108" t="n">
-        <v>24.107</v>
+        <v>24.041</v>
       </c>
       <c r="F108" t="n">
-        <v>390071.9</v>
+        <v>238841.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44353.08333332176</v>
+        <v>44353.1041666551</v>
       </c>
       <c r="B109" t="n">
-        <v>24.109</v>
+        <v>24.042</v>
       </c>
       <c r="C109" t="n">
-        <v>24.253</v>
+        <v>24.336</v>
       </c>
       <c r="D109" t="n">
-        <v>23.981</v>
+        <v>23.9</v>
       </c>
       <c r="E109" t="n">
-        <v>24.041</v>
+        <v>24.181</v>
       </c>
       <c r="F109" t="n">
-        <v>238841.3</v>
+        <v>356896.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44353.1041666551</v>
+        <v>44353.12499998842</v>
       </c>
       <c r="B110" t="n">
-        <v>24.042</v>
+        <v>24.181</v>
       </c>
       <c r="C110" t="n">
-        <v>24.336</v>
+        <v>24.215</v>
       </c>
       <c r="D110" t="n">
-        <v>23.9</v>
+        <v>23.735</v>
       </c>
       <c r="E110" t="n">
-        <v>24.181</v>
+        <v>23.813</v>
       </c>
       <c r="F110" t="n">
-        <v>356896.9</v>
+        <v>330820.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44353.12499998842</v>
+        <v>44353.14583332176</v>
       </c>
       <c r="B111" t="n">
-        <v>24.181</v>
+        <v>23.815</v>
       </c>
       <c r="C111" t="n">
-        <v>24.215</v>
+        <v>24.087</v>
       </c>
       <c r="D111" t="n">
-        <v>23.735</v>
+        <v>23.747</v>
       </c>
       <c r="E111" t="n">
-        <v>23.813</v>
+        <v>24.054</v>
       </c>
       <c r="F111" t="n">
-        <v>330820.3</v>
+        <v>347883.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44353.14583332176</v>
+        <v>44353.1666666551</v>
       </c>
       <c r="B112" t="n">
-        <v>23.815</v>
+        <v>24.055</v>
       </c>
       <c r="C112" t="n">
-        <v>24.087</v>
+        <v>24.132</v>
       </c>
       <c r="D112" t="n">
-        <v>23.747</v>
+        <v>23.926</v>
       </c>
       <c r="E112" t="n">
-        <v>24.054</v>
+        <v>23.959</v>
       </c>
       <c r="F112" t="n">
-        <v>347883.2</v>
+        <v>210517.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44353.1666666551</v>
+        <v>44353.18749998842</v>
       </c>
       <c r="B113" t="n">
-        <v>24.055</v>
+        <v>23.961</v>
       </c>
       <c r="C113" t="n">
-        <v>24.132</v>
+        <v>24.127</v>
       </c>
       <c r="D113" t="n">
-        <v>23.926</v>
+        <v>23.853</v>
       </c>
       <c r="E113" t="n">
-        <v>23.959</v>
+        <v>24.076</v>
       </c>
       <c r="F113" t="n">
-        <v>210517.5</v>
+        <v>277560.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44353.18749998842</v>
+        <v>44353.20833332176</v>
       </c>
       <c r="B114" t="n">
-        <v>23.961</v>
+        <v>24.076</v>
       </c>
       <c r="C114" t="n">
-        <v>24.127</v>
+        <v>24.08</v>
       </c>
       <c r="D114" t="n">
-        <v>23.853</v>
+        <v>23.624</v>
       </c>
       <c r="E114" t="n">
-        <v>24.076</v>
+        <v>23.738</v>
       </c>
       <c r="F114" t="n">
-        <v>277560.8</v>
+        <v>291179</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44353.20833332176</v>
+        <v>44353.2291666551</v>
       </c>
       <c r="B115" t="n">
-        <v>24.076</v>
+        <v>23.737</v>
       </c>
       <c r="C115" t="n">
-        <v>24.08</v>
+        <v>24.119</v>
       </c>
       <c r="D115" t="n">
-        <v>23.624</v>
+        <v>23.655</v>
       </c>
       <c r="E115" t="n">
-        <v>23.738</v>
+        <v>23.929</v>
       </c>
       <c r="F115" t="n">
-        <v>291179</v>
+        <v>309183</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44353.2291666551</v>
+        <v>44353.24999998842</v>
       </c>
       <c r="B116" t="n">
-        <v>23.737</v>
+        <v>23.925</v>
       </c>
       <c r="C116" t="n">
-        <v>24.119</v>
+        <v>24.144</v>
       </c>
       <c r="D116" t="n">
-        <v>23.655</v>
+        <v>23.738</v>
       </c>
       <c r="E116" t="n">
-        <v>23.929</v>
+        <v>23.951</v>
       </c>
       <c r="F116" t="n">
-        <v>309183</v>
+        <v>391886.8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44353.24999998842</v>
+        <v>44353.27083332176</v>
       </c>
       <c r="B117" t="n">
-        <v>23.925</v>
+        <v>23.948</v>
       </c>
       <c r="C117" t="n">
-        <v>24.144</v>
+        <v>23.948</v>
       </c>
       <c r="D117" t="n">
-        <v>23.738</v>
+        <v>23.144</v>
       </c>
       <c r="E117" t="n">
-        <v>23.951</v>
+        <v>23.208</v>
       </c>
       <c r="F117" t="n">
-        <v>391886.8</v>
+        <v>622261</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44353.27083332176</v>
+        <v>44353.2916666551</v>
       </c>
       <c r="B118" t="n">
-        <v>23.948</v>
+        <v>23.208</v>
       </c>
       <c r="C118" t="n">
-        <v>23.948</v>
+        <v>23.397</v>
       </c>
       <c r="D118" t="n">
-        <v>23.144</v>
+        <v>22.9</v>
       </c>
       <c r="E118" t="n">
-        <v>23.208</v>
+        <v>23.135</v>
       </c>
       <c r="F118" t="n">
-        <v>622261</v>
+        <v>699157.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44353.2916666551</v>
+        <v>44353.31249998842</v>
       </c>
       <c r="B119" t="n">
-        <v>23.208</v>
+        <v>23.14</v>
       </c>
       <c r="C119" t="n">
-        <v>23.397</v>
+        <v>23.51</v>
       </c>
       <c r="D119" t="n">
-        <v>22.9</v>
+        <v>23.073</v>
       </c>
       <c r="E119" t="n">
-        <v>23.135</v>
+        <v>23.399</v>
       </c>
       <c r="F119" t="n">
-        <v>699157.3</v>
+        <v>403215.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44353.31249998842</v>
+        <v>44353.33333332176</v>
       </c>
       <c r="B120" t="n">
-        <v>23.14</v>
+        <v>23.398</v>
       </c>
       <c r="C120" t="n">
-        <v>23.51</v>
+        <v>23.542</v>
       </c>
       <c r="D120" t="n">
-        <v>23.073</v>
+        <v>23.218</v>
       </c>
       <c r="E120" t="n">
-        <v>23.399</v>
+        <v>23.363</v>
       </c>
       <c r="F120" t="n">
-        <v>403215.2</v>
+        <v>400767</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44353.33333332176</v>
+        <v>44353.3541666551</v>
       </c>
       <c r="B121" t="n">
-        <v>23.398</v>
+        <v>23.362</v>
       </c>
       <c r="C121" t="n">
-        <v>23.542</v>
+        <v>23.802</v>
       </c>
       <c r="D121" t="n">
-        <v>23.218</v>
+        <v>23.35</v>
       </c>
       <c r="E121" t="n">
-        <v>23.363</v>
+        <v>23.595</v>
       </c>
       <c r="F121" t="n">
-        <v>400767</v>
+        <v>370715.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44353.3541666551</v>
+        <v>44353.37499998842</v>
       </c>
       <c r="B122" t="n">
-        <v>23.362</v>
+        <v>23.594</v>
       </c>
       <c r="C122" t="n">
-        <v>23.802</v>
+        <v>23.858</v>
       </c>
       <c r="D122" t="n">
-        <v>23.35</v>
+        <v>23.501</v>
       </c>
       <c r="E122" t="n">
-        <v>23.595</v>
+        <v>23.746</v>
       </c>
       <c r="F122" t="n">
-        <v>370715.2</v>
+        <v>262228.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44353.37499998842</v>
+        <v>44353.39583332176</v>
       </c>
       <c r="B123" t="n">
+        <v>23.747</v>
+      </c>
+      <c r="C123" t="n">
+        <v>23.862</v>
+      </c>
+      <c r="D123" t="n">
         <v>23.594</v>
       </c>
-      <c r="C123" t="n">
-        <v>23.858</v>
-      </c>
-      <c r="D123" t="n">
-        <v>23.501</v>
-      </c>
       <c r="E123" t="n">
-        <v>23.746</v>
+        <v>23.842</v>
       </c>
       <c r="F123" t="n">
-        <v>262228.7</v>
+        <v>332470.6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44353.39583332176</v>
+        <v>44353.4166666551</v>
       </c>
       <c r="B124" t="n">
-        <v>23.747</v>
+        <v>23.843</v>
       </c>
       <c r="C124" t="n">
-        <v>23.862</v>
+        <v>23.926</v>
       </c>
       <c r="D124" t="n">
-        <v>23.594</v>
+        <v>23.699</v>
       </c>
       <c r="E124" t="n">
-        <v>23.842</v>
+        <v>23.765</v>
       </c>
       <c r="F124" t="n">
-        <v>332470.6</v>
+        <v>226630.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44353.4166666551</v>
+        <v>44353.43749998842</v>
       </c>
       <c r="B125" t="n">
-        <v>23.843</v>
+        <v>23.766</v>
       </c>
       <c r="C125" t="n">
-        <v>23.926</v>
+        <v>24.283</v>
       </c>
       <c r="D125" t="n">
-        <v>23.699</v>
+        <v>23.766</v>
       </c>
       <c r="E125" t="n">
-        <v>23.765</v>
+        <v>24.189</v>
       </c>
       <c r="F125" t="n">
-        <v>226630.1</v>
+        <v>319528.6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44353.43749998842</v>
+        <v>44353.45833332176</v>
       </c>
       <c r="B126" t="n">
-        <v>23.766</v>
+        <v>24.187</v>
       </c>
       <c r="C126" t="n">
-        <v>24.283</v>
+        <v>24.336</v>
       </c>
       <c r="D126" t="n">
-        <v>23.766</v>
+        <v>24.1</v>
       </c>
       <c r="E126" t="n">
-        <v>24.189</v>
+        <v>24.294</v>
       </c>
       <c r="F126" t="n">
-        <v>319528.6</v>
+        <v>292376.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44353.45833332176</v>
+        <v>44353.4791666551</v>
       </c>
       <c r="B127" t="n">
-        <v>24.187</v>
+        <v>24.292</v>
       </c>
       <c r="C127" t="n">
-        <v>24.336</v>
+        <v>24.302</v>
       </c>
       <c r="D127" t="n">
-        <v>24.1</v>
+        <v>24.005</v>
       </c>
       <c r="E127" t="n">
-        <v>24.294</v>
+        <v>24.035</v>
       </c>
       <c r="F127" t="n">
-        <v>292376.8</v>
+        <v>289677.7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44353.4791666551</v>
+        <v>44353.49999998842</v>
       </c>
       <c r="B128" t="n">
-        <v>24.292</v>
+        <v>24.04</v>
       </c>
       <c r="C128" t="n">
-        <v>24.302</v>
+        <v>24.166</v>
       </c>
       <c r="D128" t="n">
-        <v>24.005</v>
+        <v>24.024</v>
       </c>
       <c r="E128" t="n">
-        <v>24.035</v>
+        <v>24.031</v>
       </c>
       <c r="F128" t="n">
-        <v>289677.7</v>
+        <v>178905.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44353.49999998842</v>
+        <v>44353.52083332176</v>
       </c>
       <c r="B129" t="n">
-        <v>24.04</v>
+        <v>24.031</v>
       </c>
       <c r="C129" t="n">
         <v>24.166</v>
       </c>
       <c r="D129" t="n">
-        <v>24.024</v>
+        <v>23.848</v>
       </c>
       <c r="E129" t="n">
-        <v>24.031</v>
+        <v>23.909</v>
       </c>
       <c r="F129" t="n">
-        <v>178905.9</v>
+        <v>246189.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44353.52083332176</v>
+        <v>44353.5416666551</v>
       </c>
       <c r="B130" t="n">
-        <v>24.031</v>
+        <v>23.907</v>
       </c>
       <c r="C130" t="n">
-        <v>24.166</v>
+        <v>23.97</v>
       </c>
       <c r="D130" t="n">
-        <v>23.848</v>
+        <v>23.762</v>
       </c>
       <c r="E130" t="n">
-        <v>23.909</v>
+        <v>23.924</v>
       </c>
       <c r="F130" t="n">
-        <v>246189.1</v>
+        <v>253914.6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44353.5416666551</v>
+        <v>44353.56249998842</v>
       </c>
       <c r="B131" t="n">
-        <v>23.907</v>
+        <v>23.924</v>
       </c>
       <c r="C131" t="n">
-        <v>23.97</v>
+        <v>24.16</v>
       </c>
       <c r="D131" t="n">
-        <v>23.762</v>
+        <v>23.924</v>
       </c>
       <c r="E131" t="n">
-        <v>23.924</v>
+        <v>24.114</v>
       </c>
       <c r="F131" t="n">
-        <v>253914.6</v>
+        <v>214821.6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44353.56249998842</v>
+        <v>44353.58333332176</v>
       </c>
       <c r="B132" t="n">
-        <v>23.924</v>
+        <v>24.116</v>
       </c>
       <c r="C132" t="n">
-        <v>24.16</v>
+        <v>24.28</v>
       </c>
       <c r="D132" t="n">
-        <v>23.924</v>
+        <v>24.116</v>
       </c>
       <c r="E132" t="n">
-        <v>24.114</v>
+        <v>24.146</v>
       </c>
       <c r="F132" t="n">
-        <v>214821.6</v>
+        <v>201400.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44353.58333332176</v>
+        <v>44353.6041666551</v>
       </c>
       <c r="B133" t="n">
-        <v>24.116</v>
+        <v>24.152</v>
       </c>
       <c r="C133" t="n">
-        <v>24.28</v>
+        <v>24.214</v>
       </c>
       <c r="D133" t="n">
-        <v>24.116</v>
+        <v>23.956</v>
       </c>
       <c r="E133" t="n">
-        <v>24.146</v>
+        <v>24.108</v>
       </c>
       <c r="F133" t="n">
-        <v>201400.9</v>
+        <v>176400.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44353.6041666551</v>
+        <v>44353.62499998842</v>
       </c>
       <c r="B134" t="n">
-        <v>24.152</v>
+        <v>24.109</v>
       </c>
       <c r="C134" t="n">
-        <v>24.214</v>
+        <v>24.172</v>
       </c>
       <c r="D134" t="n">
-        <v>23.956</v>
+        <v>24.038</v>
       </c>
       <c r="E134" t="n">
-        <v>24.108</v>
+        <v>24.159</v>
       </c>
       <c r="F134" t="n">
-        <v>176400.8</v>
+        <v>208591.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44353.62499998842</v>
+        <v>44353.64583332176</v>
       </c>
       <c r="B135" t="n">
-        <v>24.109</v>
+        <v>24.159</v>
       </c>
       <c r="C135" t="n">
-        <v>24.172</v>
+        <v>24.321</v>
       </c>
       <c r="D135" t="n">
-        <v>24.038</v>
+        <v>23.786</v>
       </c>
       <c r="E135" t="n">
-        <v>24.159</v>
+        <v>23.858</v>
       </c>
       <c r="F135" t="n">
-        <v>208591.7</v>
+        <v>403228.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44353.64583332176</v>
+        <v>44353.6666666551</v>
       </c>
       <c r="B136" t="n">
-        <v>24.159</v>
+        <v>23.859</v>
       </c>
       <c r="C136" t="n">
-        <v>24.321</v>
+        <v>24.084</v>
       </c>
       <c r="D136" t="n">
-        <v>23.786</v>
+        <v>23.789</v>
       </c>
       <c r="E136" t="n">
-        <v>23.858</v>
+        <v>23.94</v>
       </c>
       <c r="F136" t="n">
-        <v>403228.2</v>
+        <v>290277.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44353.6666666551</v>
+        <v>44353.68749998842</v>
       </c>
       <c r="B137" t="n">
-        <v>23.859</v>
+        <v>23.939</v>
       </c>
       <c r="C137" t="n">
-        <v>24.084</v>
+        <v>24.075</v>
       </c>
       <c r="D137" t="n">
-        <v>23.789</v>
+        <v>23.934</v>
       </c>
       <c r="E137" t="n">
-        <v>23.94</v>
+        <v>24.007</v>
       </c>
       <c r="F137" t="n">
-        <v>290277.8</v>
+        <v>189855.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44353.68749998842</v>
+        <v>44353.70833332176</v>
       </c>
       <c r="B138" t="n">
-        <v>23.939</v>
+        <v>24.004</v>
       </c>
       <c r="C138" t="n">
-        <v>24.075</v>
+        <v>24.238</v>
       </c>
       <c r="D138" t="n">
-        <v>23.934</v>
+        <v>24.004</v>
       </c>
       <c r="E138" t="n">
-        <v>24.007</v>
+        <v>24.177</v>
       </c>
       <c r="F138" t="n">
-        <v>189855.7</v>
+        <v>266821.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44353.70833332176</v>
+        <v>44353.7291666551</v>
       </c>
       <c r="B139" t="n">
-        <v>24.004</v>
+        <v>24.177</v>
       </c>
       <c r="C139" t="n">
-        <v>24.238</v>
+        <v>24.336</v>
       </c>
       <c r="D139" t="n">
-        <v>24.004</v>
+        <v>24.123</v>
       </c>
       <c r="E139" t="n">
         <v>24.177</v>
       </c>
       <c r="F139" t="n">
-        <v>266821.4</v>
+        <v>384448.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44353.7291666551</v>
+        <v>44353.74999998842</v>
       </c>
       <c r="B140" t="n">
-        <v>24.177</v>
+        <v>24.178</v>
       </c>
       <c r="C140" t="n">
-        <v>24.336</v>
+        <v>24.312</v>
       </c>
       <c r="D140" t="n">
-        <v>24.123</v>
+        <v>24.027</v>
       </c>
       <c r="E140" t="n">
-        <v>24.177</v>
+        <v>24.278</v>
       </c>
       <c r="F140" t="n">
-        <v>384448.9</v>
+        <v>250577.4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44353.74999998842</v>
+        <v>44353.77083332176</v>
       </c>
       <c r="B141" t="n">
-        <v>24.178</v>
+        <v>24.278</v>
       </c>
       <c r="C141" t="n">
-        <v>24.312</v>
+        <v>24.45</v>
       </c>
       <c r="D141" t="n">
-        <v>24.027</v>
+        <v>24.17</v>
       </c>
       <c r="E141" t="n">
-        <v>24.278</v>
+        <v>24.3</v>
       </c>
       <c r="F141" t="n">
-        <v>250577.4</v>
+        <v>307646</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44353.77083332176</v>
+        <v>44353.7916666551</v>
       </c>
       <c r="B142" t="n">
-        <v>24.278</v>
+        <v>24.294</v>
       </c>
       <c r="C142" t="n">
-        <v>24.45</v>
+        <v>24.413</v>
       </c>
       <c r="D142" t="n">
-        <v>24.17</v>
+        <v>24.23</v>
       </c>
       <c r="E142" t="n">
-        <v>24.3</v>
+        <v>24.28</v>
       </c>
       <c r="F142" t="n">
-        <v>307646</v>
+        <v>203546.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44353.7916666551</v>
+        <v>44353.81249998842</v>
       </c>
       <c r="B143" t="n">
-        <v>24.294</v>
+        <v>24.281</v>
       </c>
       <c r="C143" t="n">
-        <v>24.413</v>
+        <v>24.348</v>
       </c>
       <c r="D143" t="n">
-        <v>24.23</v>
+        <v>24.071</v>
       </c>
       <c r="E143" t="n">
-        <v>24.28</v>
+        <v>24.1</v>
       </c>
       <c r="F143" t="n">
-        <v>203546.7</v>
+        <v>292474.7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44353.81249998842</v>
+        <v>44353.83333332176</v>
       </c>
       <c r="B144" t="n">
-        <v>24.281</v>
+        <v>24.101</v>
       </c>
       <c r="C144" t="n">
-        <v>24.348</v>
+        <v>24.155</v>
       </c>
       <c r="D144" t="n">
-        <v>24.071</v>
+        <v>23.922</v>
       </c>
       <c r="E144" t="n">
-        <v>24.1</v>
+        <v>24.135</v>
       </c>
       <c r="F144" t="n">
-        <v>292474.7</v>
+        <v>257802.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44353.83333332176</v>
+        <v>44353.8541666551</v>
       </c>
       <c r="B145" t="n">
-        <v>24.101</v>
+        <v>24.135</v>
       </c>
       <c r="C145" t="n">
-        <v>24.155</v>
+        <v>24.261</v>
       </c>
       <c r="D145" t="n">
-        <v>23.922</v>
+        <v>23.9</v>
       </c>
       <c r="E145" t="n">
-        <v>24.135</v>
+        <v>24.02</v>
       </c>
       <c r="F145" t="n">
-        <v>257802.9</v>
+        <v>312176.7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44353.8541666551</v>
+        <v>44353.87499998842</v>
       </c>
       <c r="B146" t="n">
-        <v>24.135</v>
+        <v>24.019</v>
       </c>
       <c r="C146" t="n">
-        <v>24.261</v>
+        <v>24.118</v>
       </c>
       <c r="D146" t="n">
-        <v>23.9</v>
+        <v>23.93</v>
       </c>
       <c r="E146" t="n">
-        <v>24.02</v>
+        <v>23.952</v>
       </c>
       <c r="F146" t="n">
-        <v>312176.7</v>
+        <v>171679.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44353.87499998842</v>
+        <v>44353.89583332176</v>
       </c>
       <c r="B147" t="n">
-        <v>24.019</v>
+        <v>23.952</v>
       </c>
       <c r="C147" t="n">
-        <v>24.118</v>
+        <v>24.177</v>
       </c>
       <c r="D147" t="n">
-        <v>23.93</v>
+        <v>23.902</v>
       </c>
       <c r="E147" t="n">
-        <v>23.952</v>
+        <v>24.145</v>
       </c>
       <c r="F147" t="n">
-        <v>171679.1</v>
+        <v>227735.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44353.89583332176</v>
+        <v>44353.9166666551</v>
       </c>
       <c r="B148" t="n">
-        <v>23.952</v>
+        <v>24.146</v>
       </c>
       <c r="C148" t="n">
-        <v>24.177</v>
+        <v>24.153</v>
       </c>
       <c r="D148" t="n">
-        <v>23.902</v>
+        <v>23.927</v>
       </c>
       <c r="E148" t="n">
-        <v>24.145</v>
+        <v>23.985</v>
       </c>
       <c r="F148" t="n">
-        <v>227735.4</v>
+        <v>238673.3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44353.9166666551</v>
+        <v>44353.93749998842</v>
       </c>
       <c r="B149" t="n">
-        <v>24.146</v>
+        <v>23.985</v>
       </c>
       <c r="C149" t="n">
-        <v>24.153</v>
+        <v>24.13</v>
       </c>
       <c r="D149" t="n">
-        <v>23.927</v>
+        <v>23.7</v>
       </c>
       <c r="E149" t="n">
-        <v>23.985</v>
+        <v>23.804</v>
       </c>
       <c r="F149" t="n">
-        <v>238673.3</v>
+        <v>404867.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44353.93749998842</v>
+        <v>44353.95833332176</v>
       </c>
       <c r="B150" t="n">
-        <v>23.985</v>
+        <v>23.807</v>
       </c>
       <c r="C150" t="n">
-        <v>24.13</v>
+        <v>23.917</v>
       </c>
       <c r="D150" t="n">
-        <v>23.7</v>
+        <v>23.607</v>
       </c>
       <c r="E150" t="n">
-        <v>23.804</v>
+        <v>23.699</v>
       </c>
       <c r="F150" t="n">
-        <v>404867.9</v>
+        <v>360338.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44353.95833332176</v>
+        <v>44353.9791666551</v>
       </c>
       <c r="B151" t="n">
-        <v>23.807</v>
+        <v>23.706</v>
       </c>
       <c r="C151" t="n">
-        <v>23.917</v>
+        <v>23.84</v>
       </c>
       <c r="D151" t="n">
-        <v>23.607</v>
+        <v>23.539</v>
       </c>
       <c r="E151" t="n">
-        <v>23.699</v>
+        <v>23.832</v>
       </c>
       <c r="F151" t="n">
-        <v>360338.2</v>
+        <v>332725.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44353.9791666551</v>
+        <v>44353.99999998842</v>
       </c>
       <c r="B152" t="n">
-        <v>23.706</v>
+        <v>23.826</v>
       </c>
       <c r="C152" t="n">
-        <v>23.84</v>
+        <v>24.122</v>
       </c>
       <c r="D152" t="n">
-        <v>23.539</v>
+        <v>23.744</v>
       </c>
       <c r="E152" t="n">
-        <v>23.832</v>
+        <v>24.057</v>
       </c>
       <c r="F152" t="n">
-        <v>332725.7</v>
+        <v>375119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44353.99999998842</v>
+        <v>44354.02083332176</v>
       </c>
       <c r="B153" t="n">
-        <v>23.826</v>
+        <v>24.053</v>
       </c>
       <c r="C153" t="n">
-        <v>24.122</v>
+        <v>24.3</v>
       </c>
       <c r="D153" t="n">
-        <v>23.744</v>
+        <v>23.967</v>
       </c>
       <c r="E153" t="n">
-        <v>24.057</v>
+        <v>24.25</v>
       </c>
       <c r="F153" t="n">
-        <v>375119</v>
+        <v>465820.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44354.02083332176</v>
+        <v>44354.0416666551</v>
       </c>
       <c r="B154" t="n">
-        <v>24.053</v>
+        <v>24.251</v>
       </c>
       <c r="C154" t="n">
-        <v>24.3</v>
+        <v>24.28</v>
       </c>
       <c r="D154" t="n">
-        <v>23.967</v>
+        <v>24.078</v>
       </c>
       <c r="E154" t="n">
-        <v>24.25</v>
+        <v>24.182</v>
       </c>
       <c r="F154" t="n">
-        <v>465820.2</v>
+        <v>228643.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44354.0416666551</v>
+        <v>44354.06249998842</v>
       </c>
       <c r="B155" t="n">
-        <v>24.251</v>
+        <v>24.183</v>
       </c>
       <c r="C155" t="n">
-        <v>24.28</v>
+        <v>24.343</v>
       </c>
       <c r="D155" t="n">
-        <v>24.078</v>
+        <v>24.136</v>
       </c>
       <c r="E155" t="n">
-        <v>24.182</v>
+        <v>24.196</v>
       </c>
       <c r="F155" t="n">
-        <v>228643.1</v>
+        <v>278729.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44354.06249998842</v>
+        <v>44354.08333332176</v>
       </c>
       <c r="B156" t="n">
-        <v>24.183</v>
+        <v>24.196</v>
       </c>
       <c r="C156" t="n">
-        <v>24.343</v>
+        <v>24.294</v>
       </c>
       <c r="D156" t="n">
-        <v>24.136</v>
+        <v>24.174</v>
       </c>
       <c r="E156" t="n">
-        <v>24.196</v>
+        <v>24.265</v>
       </c>
       <c r="F156" t="n">
-        <v>278729.2</v>
+        <v>132498.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44354.08333332176</v>
+        <v>44354.1041666551</v>
       </c>
       <c r="B157" t="n">
-        <v>24.196</v>
+        <v>24.262</v>
       </c>
       <c r="C157" t="n">
-        <v>24.294</v>
+        <v>24.4</v>
       </c>
       <c r="D157" t="n">
-        <v>24.174</v>
+        <v>24.2</v>
       </c>
       <c r="E157" t="n">
-        <v>24.265</v>
+        <v>24.255</v>
       </c>
       <c r="F157" t="n">
-        <v>132498.6</v>
+        <v>312359.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44354.1041666551</v>
+        <v>44354.12499998842</v>
       </c>
       <c r="B158" t="n">
-        <v>24.262</v>
+        <v>24.253</v>
       </c>
       <c r="C158" t="n">
-        <v>24.4</v>
+        <v>24.313</v>
       </c>
       <c r="D158" t="n">
-        <v>24.2</v>
+        <v>24.024</v>
       </c>
       <c r="E158" t="n">
-        <v>24.255</v>
+        <v>24.062</v>
       </c>
       <c r="F158" t="n">
-        <v>312359.6</v>
+        <v>256168.9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44354.12499998842</v>
+        <v>44354.14583332176</v>
       </c>
       <c r="B159" t="n">
-        <v>24.253</v>
+        <v>24.063</v>
       </c>
       <c r="C159" t="n">
-        <v>24.313</v>
+        <v>24.069</v>
       </c>
       <c r="D159" t="n">
-        <v>24.024</v>
+        <v>23.85</v>
       </c>
       <c r="E159" t="n">
-        <v>24.062</v>
+        <v>23.908</v>
       </c>
       <c r="F159" t="n">
-        <v>256168.9</v>
+        <v>304513.7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44354.14583332176</v>
+        <v>44354.1666666551</v>
       </c>
       <c r="B160" t="n">
-        <v>24.063</v>
+        <v>23.908</v>
       </c>
       <c r="C160" t="n">
-        <v>24.069</v>
+        <v>24.016</v>
       </c>
       <c r="D160" t="n">
-        <v>23.85</v>
+        <v>23.868</v>
       </c>
       <c r="E160" t="n">
-        <v>23.908</v>
+        <v>23.913</v>
       </c>
       <c r="F160" t="n">
-        <v>304513.7</v>
+        <v>223976.6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44354.1666666551</v>
+        <v>44354.18749998842</v>
       </c>
       <c r="B161" t="n">
-        <v>23.908</v>
+        <v>23.912</v>
       </c>
       <c r="C161" t="n">
-        <v>24.016</v>
+        <v>23.914</v>
       </c>
       <c r="D161" t="n">
-        <v>23.868</v>
+        <v>23.755</v>
       </c>
       <c r="E161" t="n">
-        <v>23.913</v>
+        <v>23.836</v>
       </c>
       <c r="F161" t="n">
-        <v>223976.6</v>
+        <v>170671.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44354.18749998842</v>
+        <v>44354.20833332176</v>
       </c>
       <c r="B162" t="n">
-        <v>23.912</v>
+        <v>23.836</v>
       </c>
       <c r="C162" t="n">
-        <v>23.914</v>
+        <v>23.84</v>
       </c>
       <c r="D162" t="n">
-        <v>23.755</v>
+        <v>23.731</v>
       </c>
       <c r="E162" t="n">
-        <v>23.836</v>
+        <v>23.769</v>
       </c>
       <c r="F162" t="n">
-        <v>170671.8</v>
+        <v>189112.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44354.20833332176</v>
+        <v>44354.2291666551</v>
       </c>
       <c r="B163" t="n">
-        <v>23.836</v>
+        <v>23.768</v>
       </c>
       <c r="C163" t="n">
-        <v>23.84</v>
+        <v>23.974</v>
       </c>
       <c r="D163" t="n">
-        <v>23.731</v>
+        <v>23.671</v>
       </c>
       <c r="E163" t="n">
-        <v>23.769</v>
+        <v>23.88</v>
       </c>
       <c r="F163" t="n">
-        <v>189112.9</v>
+        <v>286414.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44354.2291666551</v>
+        <v>44354.24999998842</v>
       </c>
       <c r="B164" t="n">
-        <v>23.768</v>
+        <v>23.88</v>
       </c>
       <c r="C164" t="n">
-        <v>23.974</v>
+        <v>24.158</v>
       </c>
       <c r="D164" t="n">
-        <v>23.671</v>
+        <v>23.801</v>
       </c>
       <c r="E164" t="n">
-        <v>23.88</v>
+        <v>24.123</v>
       </c>
       <c r="F164" t="n">
-        <v>286414.5</v>
+        <v>176781.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44354.24999998842</v>
+        <v>44354.27083332176</v>
       </c>
       <c r="B165" t="n">
-        <v>23.88</v>
+        <v>24.124</v>
       </c>
       <c r="C165" t="n">
-        <v>24.158</v>
+        <v>24.145</v>
       </c>
       <c r="D165" t="n">
-        <v>23.801</v>
+        <v>24.013</v>
       </c>
       <c r="E165" t="n">
-        <v>24.123</v>
+        <v>24.106</v>
       </c>
       <c r="F165" t="n">
-        <v>176781.3</v>
+        <v>161916.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44354.27083332176</v>
+        <v>44354.2916666551</v>
       </c>
       <c r="B166" t="n">
-        <v>24.124</v>
+        <v>24.106</v>
       </c>
       <c r="C166" t="n">
-        <v>24.145</v>
+        <v>24.214</v>
       </c>
       <c r="D166" t="n">
-        <v>24.013</v>
+        <v>24.064</v>
       </c>
       <c r="E166" t="n">
-        <v>24.106</v>
+        <v>24.199</v>
       </c>
       <c r="F166" t="n">
-        <v>161916.4</v>
+        <v>170983.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44354.2916666551</v>
+        <v>44354.31249998842</v>
       </c>
       <c r="B167" t="n">
-        <v>24.106</v>
+        <v>24.199</v>
       </c>
       <c r="C167" t="n">
-        <v>24.214</v>
+        <v>24.199</v>
       </c>
       <c r="D167" t="n">
-        <v>24.064</v>
+        <v>23.723</v>
       </c>
       <c r="E167" t="n">
-        <v>24.199</v>
+        <v>23.849</v>
       </c>
       <c r="F167" t="n">
-        <v>170983.1</v>
+        <v>329891.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44354.31249998842</v>
+        <v>44354.33333332176</v>
       </c>
       <c r="B168" t="n">
-        <v>24.199</v>
+        <v>23.848</v>
       </c>
       <c r="C168" t="n">
-        <v>24.199</v>
+        <v>23.955</v>
       </c>
       <c r="D168" t="n">
-        <v>23.723</v>
+        <v>23.572</v>
       </c>
       <c r="E168" t="n">
-        <v>23.849</v>
+        <v>23.926</v>
       </c>
       <c r="F168" t="n">
-        <v>329891.9</v>
+        <v>499396.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44354.33333332176</v>
+        <v>44354.3541666551</v>
       </c>
       <c r="B169" t="n">
-        <v>23.848</v>
+        <v>23.926</v>
       </c>
       <c r="C169" t="n">
-        <v>23.955</v>
+        <v>24.052</v>
       </c>
       <c r="D169" t="n">
-        <v>23.572</v>
+        <v>23.845</v>
       </c>
       <c r="E169" t="n">
-        <v>23.926</v>
+        <v>23.969</v>
       </c>
       <c r="F169" t="n">
-        <v>499396.6</v>
+        <v>234948.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44354.3541666551</v>
+        <v>44354.37499998842</v>
       </c>
       <c r="B170" t="n">
-        <v>23.926</v>
+        <v>23.967</v>
       </c>
       <c r="C170" t="n">
-        <v>24.052</v>
+        <v>24.187</v>
       </c>
       <c r="D170" t="n">
-        <v>23.845</v>
+        <v>23.923</v>
       </c>
       <c r="E170" t="n">
-        <v>23.969</v>
+        <v>24.178</v>
       </c>
       <c r="F170" t="n">
-        <v>234948.4</v>
+        <v>239328</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44354.37499998842</v>
+        <v>44354.39583332176</v>
       </c>
       <c r="B171" t="n">
-        <v>23.967</v>
+        <v>24.175</v>
       </c>
       <c r="C171" t="n">
-        <v>24.187</v>
+        <v>24.4</v>
       </c>
       <c r="D171" t="n">
-        <v>23.923</v>
+        <v>23.891</v>
       </c>
       <c r="E171" t="n">
-        <v>24.178</v>
+        <v>24.274</v>
       </c>
       <c r="F171" t="n">
-        <v>239328</v>
+        <v>716480.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44354.39583332176</v>
+        <v>44354.4166666551</v>
       </c>
       <c r="B172" t="n">
-        <v>24.175</v>
+        <v>24.268</v>
       </c>
       <c r="C172" t="n">
-        <v>24.4</v>
+        <v>24.637</v>
       </c>
       <c r="D172" t="n">
-        <v>23.891</v>
+        <v>24.171</v>
       </c>
       <c r="E172" t="n">
-        <v>24.274</v>
+        <v>24.577</v>
       </c>
       <c r="F172" t="n">
-        <v>716480.5</v>
+        <v>526237</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44354.4166666551</v>
+        <v>44354.43749998842</v>
       </c>
       <c r="B173" t="n">
-        <v>24.268</v>
+        <v>24.578</v>
       </c>
       <c r="C173" t="n">
-        <v>24.637</v>
+        <v>24.691</v>
       </c>
       <c r="D173" t="n">
-        <v>24.171</v>
+        <v>24.501</v>
       </c>
       <c r="E173" t="n">
-        <v>24.577</v>
+        <v>24.631</v>
       </c>
       <c r="F173" t="n">
-        <v>526237</v>
+        <v>365308.6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44354.43749998842</v>
+        <v>44354.45833332176</v>
       </c>
       <c r="B174" t="n">
-        <v>24.578</v>
+        <v>24.629</v>
       </c>
       <c r="C174" t="n">
-        <v>24.691</v>
+        <v>25.083</v>
       </c>
       <c r="D174" t="n">
-        <v>24.501</v>
+        <v>24.602</v>
       </c>
       <c r="E174" t="n">
-        <v>24.631</v>
+        <v>25.067</v>
       </c>
       <c r="F174" t="n">
-        <v>365308.6</v>
+        <v>717184.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44354.45833332176</v>
+        <v>44354.4791666551</v>
       </c>
       <c r="B175" t="n">
-        <v>24.629</v>
+        <v>25.067</v>
       </c>
       <c r="C175" t="n">
-        <v>25.083</v>
+        <v>25.238</v>
       </c>
       <c r="D175" t="n">
-        <v>24.602</v>
+        <v>25.041</v>
       </c>
       <c r="E175" t="n">
-        <v>25.067</v>
+        <v>25.076</v>
       </c>
       <c r="F175" t="n">
-        <v>717184.6</v>
+        <v>572336.6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44354.4791666551</v>
+        <v>44354.49999998842</v>
       </c>
       <c r="B176" t="n">
-        <v>25.067</v>
+        <v>25.075</v>
       </c>
       <c r="C176" t="n">
-        <v>25.238</v>
+        <v>25.208</v>
       </c>
       <c r="D176" t="n">
-        <v>25.041</v>
+        <v>25.05</v>
       </c>
       <c r="E176" t="n">
-        <v>25.076</v>
+        <v>25.144</v>
       </c>
       <c r="F176" t="n">
-        <v>572336.6</v>
+        <v>328998.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44354.49999998842</v>
+        <v>44354.52083332176</v>
       </c>
       <c r="B177" t="n">
-        <v>25.075</v>
+        <v>25.144</v>
       </c>
       <c r="C177" t="n">
-        <v>25.208</v>
+        <v>25.198</v>
       </c>
       <c r="D177" t="n">
-        <v>25.05</v>
+        <v>24.783</v>
       </c>
       <c r="E177" t="n">
-        <v>25.144</v>
+        <v>24.921</v>
       </c>
       <c r="F177" t="n">
-        <v>328998.3</v>
+        <v>427533.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44354.52083332176</v>
+        <v>44354.5416666551</v>
       </c>
       <c r="B178" t="n">
-        <v>25.144</v>
+        <v>24.921</v>
       </c>
       <c r="C178" t="n">
-        <v>25.198</v>
+        <v>24.948</v>
       </c>
       <c r="D178" t="n">
-        <v>24.783</v>
+        <v>24.694</v>
       </c>
       <c r="E178" t="n">
-        <v>24.921</v>
+        <v>24.9</v>
       </c>
       <c r="F178" t="n">
-        <v>427533.4</v>
+        <v>494373.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44354.5416666551</v>
+        <v>44354.56249998842</v>
       </c>
       <c r="B179" t="n">
-        <v>24.921</v>
+        <v>24.9</v>
       </c>
       <c r="C179" t="n">
-        <v>24.948</v>
+        <v>25.08</v>
       </c>
       <c r="D179" t="n">
-        <v>24.694</v>
+        <v>24.706</v>
       </c>
       <c r="E179" t="n">
-        <v>24.9</v>
+        <v>24.877</v>
       </c>
       <c r="F179" t="n">
-        <v>494373.6</v>
+        <v>376023</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44354.56249998842</v>
+        <v>44354.58333332176</v>
       </c>
       <c r="B180" t="n">
-        <v>24.9</v>
+        <v>24.88</v>
       </c>
       <c r="C180" t="n">
-        <v>25.08</v>
+        <v>24.923</v>
       </c>
       <c r="D180" t="n">
-        <v>24.706</v>
+        <v>24.744</v>
       </c>
       <c r="E180" t="n">
-        <v>24.877</v>
+        <v>24.811</v>
       </c>
       <c r="F180" t="n">
-        <v>376023</v>
+        <v>195657.2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44354.58333332176</v>
+        <v>44354.6041666551</v>
       </c>
       <c r="B181" t="n">
-        <v>24.88</v>
+        <v>24.807</v>
       </c>
       <c r="C181" t="n">
-        <v>24.923</v>
+        <v>24.885</v>
       </c>
       <c r="D181" t="n">
-        <v>24.744</v>
+        <v>24.753</v>
       </c>
       <c r="E181" t="n">
-        <v>24.811</v>
+        <v>24.794</v>
       </c>
       <c r="F181" t="n">
-        <v>195657.2</v>
+        <v>213973.6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44354.6041666551</v>
+        <v>44354.62499998842</v>
       </c>
       <c r="B182" t="n">
-        <v>24.807</v>
+        <v>24.794</v>
       </c>
       <c r="C182" t="n">
-        <v>24.885</v>
+        <v>24.91</v>
       </c>
       <c r="D182" t="n">
-        <v>24.753</v>
+        <v>24.63</v>
       </c>
       <c r="E182" t="n">
-        <v>24.794</v>
+        <v>24.79</v>
       </c>
       <c r="F182" t="n">
-        <v>213973.6</v>
+        <v>320091.9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44354.62499998842</v>
+        <v>44354.64583332176</v>
       </c>
       <c r="B183" t="n">
-        <v>24.794</v>
+        <v>24.789</v>
       </c>
       <c r="C183" t="n">
-        <v>24.91</v>
+        <v>24.879</v>
       </c>
       <c r="D183" t="n">
-        <v>24.63</v>
+        <v>24.627</v>
       </c>
       <c r="E183" t="n">
-        <v>24.79</v>
+        <v>24.646</v>
       </c>
       <c r="F183" t="n">
-        <v>320091.9</v>
+        <v>409387.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44354.64583332176</v>
+        <v>44354.6666666551</v>
       </c>
       <c r="B184" t="n">
-        <v>24.789</v>
+        <v>24.646</v>
       </c>
       <c r="C184" t="n">
-        <v>24.879</v>
+        <v>24.758</v>
       </c>
       <c r="D184" t="n">
-        <v>24.627</v>
+        <v>24.462</v>
       </c>
       <c r="E184" t="n">
-        <v>24.646</v>
+        <v>24.497</v>
       </c>
       <c r="F184" t="n">
-        <v>409387.9</v>
+        <v>446556</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44354.6666666551</v>
+        <v>44354.68749998842</v>
       </c>
       <c r="B185" t="n">
-        <v>24.646</v>
+        <v>24.499</v>
       </c>
       <c r="C185" t="n">
-        <v>24.758</v>
+        <v>24.595</v>
       </c>
       <c r="D185" t="n">
-        <v>24.462</v>
+        <v>24.349</v>
       </c>
       <c r="E185" t="n">
-        <v>24.497</v>
+        <v>24.5</v>
       </c>
       <c r="F185" t="n">
-        <v>446556</v>
+        <v>464426.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44354.68749998842</v>
+        <v>44354.70833332176</v>
       </c>
       <c r="B186" t="n">
-        <v>24.499</v>
+        <v>24.501</v>
       </c>
       <c r="C186" t="n">
-        <v>24.595</v>
+        <v>24.757</v>
       </c>
       <c r="D186" t="n">
-        <v>24.349</v>
+        <v>24.5</v>
       </c>
       <c r="E186" t="n">
-        <v>24.5</v>
+        <v>24.695</v>
       </c>
       <c r="F186" t="n">
-        <v>464426.4</v>
+        <v>263039.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44354.70833332176</v>
+        <v>44354.7291666551</v>
       </c>
       <c r="B187" t="n">
-        <v>24.501</v>
+        <v>24.694</v>
       </c>
       <c r="C187" t="n">
-        <v>24.757</v>
+        <v>24.842</v>
       </c>
       <c r="D187" t="n">
-        <v>24.5</v>
+        <v>24.436</v>
       </c>
       <c r="E187" t="n">
-        <v>24.695</v>
+        <v>24.492</v>
       </c>
       <c r="F187" t="n">
-        <v>263039.4</v>
+        <v>278200</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44354.7291666551</v>
+        <v>44354.74999998842</v>
       </c>
       <c r="B188" t="n">
-        <v>24.694</v>
+        <v>24.493</v>
       </c>
       <c r="C188" t="n">
-        <v>24.842</v>
+        <v>24.607</v>
       </c>
       <c r="D188" t="n">
-        <v>24.436</v>
+        <v>24.468</v>
       </c>
       <c r="E188" t="n">
-        <v>24.492</v>
+        <v>24.49</v>
       </c>
       <c r="F188" t="n">
-        <v>278200</v>
+        <v>161201.2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44354.74999998842</v>
+        <v>44354.77083332176</v>
       </c>
       <c r="B189" t="n">
         <v>24.493</v>
       </c>
       <c r="C189" t="n">
-        <v>24.607</v>
+        <v>24.758</v>
       </c>
       <c r="D189" t="n">
-        <v>24.468</v>
+        <v>24.38</v>
       </c>
       <c r="E189" t="n">
-        <v>24.49</v>
+        <v>24.75</v>
       </c>
       <c r="F189" t="n">
-        <v>161201.2</v>
+        <v>325947.3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44354.77083332176</v>
+        <v>44354.7916666551</v>
       </c>
       <c r="B190" t="n">
-        <v>24.493</v>
+        <v>24.749</v>
       </c>
       <c r="C190" t="n">
-        <v>24.758</v>
+        <v>24.757</v>
       </c>
       <c r="D190" t="n">
-        <v>24.38</v>
+        <v>24.617</v>
       </c>
       <c r="E190" t="n">
-        <v>24.75</v>
+        <v>24.641</v>
       </c>
       <c r="F190" t="n">
-        <v>325947.3</v>
+        <v>203001.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44354.7916666551</v>
+        <v>44354.81249998842</v>
       </c>
       <c r="B191" t="n">
-        <v>24.749</v>
+        <v>24.634</v>
       </c>
       <c r="C191" t="n">
-        <v>24.757</v>
+        <v>25.08</v>
       </c>
       <c r="D191" t="n">
-        <v>24.617</v>
+        <v>24.634</v>
       </c>
       <c r="E191" t="n">
-        <v>24.641</v>
+        <v>25.054</v>
       </c>
       <c r="F191" t="n">
-        <v>203001.1</v>
+        <v>473076.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44354.81249998842</v>
+        <v>44354.83333332176</v>
       </c>
       <c r="B192" t="n">
-        <v>24.634</v>
+        <v>25.053</v>
       </c>
       <c r="C192" t="n">
-        <v>25.08</v>
+        <v>25.084</v>
       </c>
       <c r="D192" t="n">
-        <v>24.634</v>
+        <v>24.923</v>
       </c>
       <c r="E192" t="n">
-        <v>25.054</v>
+        <v>24.98</v>
       </c>
       <c r="F192" t="n">
-        <v>473076.5</v>
+        <v>267937</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44354.83333332176</v>
+        <v>44354.8541666551</v>
       </c>
       <c r="B193" t="n">
-        <v>25.053</v>
+        <v>24.98</v>
       </c>
       <c r="C193" t="n">
-        <v>25.084</v>
+        <v>25.013</v>
       </c>
       <c r="D193" t="n">
-        <v>24.923</v>
+        <v>24.847</v>
       </c>
       <c r="E193" t="n">
-        <v>24.98</v>
+        <v>24.938</v>
       </c>
       <c r="F193" t="n">
-        <v>267937</v>
+        <v>259146.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44354.8541666551</v>
+        <v>44354.87499998842</v>
       </c>
       <c r="B194" t="n">
-        <v>24.98</v>
+        <v>24.939</v>
       </c>
       <c r="C194" t="n">
-        <v>25.013</v>
+        <v>24.939</v>
       </c>
       <c r="D194" t="n">
-        <v>24.847</v>
+        <v>24.765</v>
       </c>
       <c r="E194" t="n">
-        <v>24.938</v>
+        <v>24.845</v>
       </c>
       <c r="F194" t="n">
-        <v>259146.4</v>
+        <v>234255.7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44354.87499998842</v>
+        <v>44354.89583332176</v>
       </c>
       <c r="B195" t="n">
-        <v>24.939</v>
+        <v>24.844</v>
       </c>
       <c r="C195" t="n">
-        <v>24.939</v>
+        <v>25.186</v>
       </c>
       <c r="D195" t="n">
-        <v>24.765</v>
+        <v>24.798</v>
       </c>
       <c r="E195" t="n">
-        <v>24.845</v>
+        <v>25.144</v>
       </c>
       <c r="F195" t="n">
-        <v>234255.7</v>
+        <v>432686.1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44354.89583332176</v>
+        <v>44354.9166666551</v>
       </c>
       <c r="B196" t="n">
-        <v>24.844</v>
+        <v>25.139</v>
       </c>
       <c r="C196" t="n">
-        <v>25.186</v>
+        <v>25.288</v>
       </c>
       <c r="D196" t="n">
-        <v>24.798</v>
+        <v>25.089</v>
       </c>
       <c r="E196" t="n">
-        <v>25.144</v>
+        <v>25.125</v>
       </c>
       <c r="F196" t="n">
-        <v>432686.1</v>
+        <v>581335.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44354.9166666551</v>
+        <v>44354.93749998842</v>
       </c>
       <c r="B197" t="n">
-        <v>25.139</v>
+        <v>25.126</v>
       </c>
       <c r="C197" t="n">
-        <v>25.288</v>
+        <v>25.206</v>
       </c>
       <c r="D197" t="n">
-        <v>25.089</v>
+        <v>24.95</v>
       </c>
       <c r="E197" t="n">
-        <v>25.125</v>
+        <v>25.022</v>
       </c>
       <c r="F197" t="n">
-        <v>581335.7</v>
+        <v>426133.1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44354.93749998842</v>
+        <v>44354.95833332176</v>
       </c>
       <c r="B198" t="n">
-        <v>25.126</v>
+        <v>25.022</v>
       </c>
       <c r="C198" t="n">
-        <v>25.206</v>
+        <v>25.07</v>
       </c>
       <c r="D198" t="n">
-        <v>24.95</v>
+        <v>24.83</v>
       </c>
       <c r="E198" t="n">
-        <v>25.022</v>
+        <v>24.883</v>
       </c>
       <c r="F198" t="n">
-        <v>426133.1</v>
+        <v>380616.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44354.95833332176</v>
+        <v>44354.9791666551</v>
       </c>
       <c r="B199" t="n">
-        <v>25.022</v>
+        <v>24.885</v>
       </c>
       <c r="C199" t="n">
-        <v>25.07</v>
+        <v>24.888</v>
       </c>
       <c r="D199" t="n">
-        <v>24.83</v>
+        <v>24.606</v>
       </c>
       <c r="E199" t="n">
-        <v>24.883</v>
+        <v>24.778</v>
       </c>
       <c r="F199" t="n">
-        <v>380616.7</v>
+        <v>623866.8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44354.9791666551</v>
+        <v>44354.99999998842</v>
       </c>
       <c r="B200" t="n">
-        <v>24.885</v>
+        <v>24.775</v>
       </c>
       <c r="C200" t="n">
-        <v>24.888</v>
+        <v>24.794</v>
       </c>
       <c r="D200" t="n">
-        <v>24.606</v>
+        <v>24.51</v>
       </c>
       <c r="E200" t="n">
-        <v>24.778</v>
+        <v>24.659</v>
       </c>
       <c r="F200" t="n">
-        <v>623866.8</v>
+        <v>407880.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44354.99999998842</v>
+        <v>44355.02083332176</v>
       </c>
       <c r="B201" t="n">
-        <v>24.775</v>
+        <v>24.66</v>
       </c>
       <c r="C201" t="n">
-        <v>24.785</v>
+        <v>24.66</v>
       </c>
       <c r="D201" t="n">
-        <v>24.775</v>
+        <v>24.651</v>
       </c>
       <c r="E201" t="n">
-        <v>24.785</v>
+        <v>24.651</v>
       </c>
       <c r="F201" t="n">
-        <v>989.4</v>
+        <v>495.4</v>
       </c>
     </row>
   </sheetData>

--- a/fishing_prev_close/DOTUSDT.xlsx
+++ b/fishing_prev_close/DOTUSDT.xlsx
@@ -401,4002 +401,4002 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44350.87499998842</v>
+        <v>44365.31249998842</v>
       </c>
       <c r="B2" t="n">
-        <v>27.564</v>
+        <v>22.22</v>
       </c>
       <c r="C2" t="n">
-        <v>27.8</v>
+        <v>22.243</v>
       </c>
       <c r="D2" t="n">
-        <v>27.325</v>
+        <v>22.071</v>
       </c>
       <c r="E2" t="n">
-        <v>27.37</v>
+        <v>22.212</v>
       </c>
       <c r="F2" t="n">
-        <v>787345</v>
+        <v>216024.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44350.89583332176</v>
+        <v>44365.33333332176</v>
       </c>
       <c r="B3" t="n">
-        <v>27.369</v>
+        <v>22.211</v>
       </c>
       <c r="C3" t="n">
-        <v>27.449</v>
+        <v>22.307</v>
       </c>
       <c r="D3" t="n">
-        <v>26.786</v>
+        <v>22.023</v>
       </c>
       <c r="E3" t="n">
-        <v>27.195</v>
+        <v>22.299</v>
       </c>
       <c r="F3" t="n">
-        <v>1353481.6</v>
+        <v>267642.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44350.9166666551</v>
+        <v>44365.3541666551</v>
       </c>
       <c r="B4" t="n">
-        <v>27.188</v>
+        <v>22.3</v>
       </c>
       <c r="C4" t="n">
-        <v>27.562</v>
+        <v>22.5</v>
       </c>
       <c r="D4" t="n">
-        <v>27.179</v>
+        <v>22.244</v>
       </c>
       <c r="E4" t="n">
-        <v>27.55</v>
+        <v>22.36</v>
       </c>
       <c r="F4" t="n">
-        <v>811311.7</v>
+        <v>452591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44350.93749998842</v>
+        <v>44365.37499998842</v>
       </c>
       <c r="B5" t="n">
-        <v>27.551</v>
+        <v>22.358</v>
       </c>
       <c r="C5" t="n">
-        <v>27.812</v>
+        <v>22.553</v>
       </c>
       <c r="D5" t="n">
-        <v>27.251</v>
+        <v>22.28</v>
       </c>
       <c r="E5" t="n">
-        <v>27.319</v>
+        <v>22.527</v>
       </c>
       <c r="F5" t="n">
-        <v>1035153.3</v>
+        <v>218928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44350.95833332176</v>
+        <v>44365.39583332176</v>
       </c>
       <c r="B6" t="n">
-        <v>27.322</v>
+        <v>22.529</v>
       </c>
       <c r="C6" t="n">
-        <v>27.433</v>
+        <v>22.562</v>
       </c>
       <c r="D6" t="n">
-        <v>26.74</v>
+        <v>22.39</v>
       </c>
       <c r="E6" t="n">
-        <v>26.956</v>
+        <v>22.391</v>
       </c>
       <c r="F6" t="n">
-        <v>1303759.9</v>
+        <v>258626.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44350.9791666551</v>
+        <v>44365.4166666551</v>
       </c>
       <c r="B7" t="n">
-        <v>26.955</v>
+        <v>22.392</v>
       </c>
       <c r="C7" t="n">
-        <v>27.272</v>
+        <v>22.479</v>
       </c>
       <c r="D7" t="n">
-        <v>26.82</v>
+        <v>22.126</v>
       </c>
       <c r="E7" t="n">
-        <v>26.923</v>
+        <v>22.182</v>
       </c>
       <c r="F7" t="n">
-        <v>584081.9</v>
+        <v>266526.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44350.99999998842</v>
+        <v>44365.43749998842</v>
       </c>
       <c r="B8" t="n">
-        <v>26.921</v>
+        <v>22.183</v>
       </c>
       <c r="C8" t="n">
-        <v>27.126</v>
+        <v>22.319</v>
       </c>
       <c r="D8" t="n">
-        <v>26.82</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>27.122</v>
+        <v>22.015</v>
       </c>
       <c r="F8" t="n">
-        <v>429926.4</v>
+        <v>337019.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44351.02083332176</v>
+        <v>44365.45833332176</v>
       </c>
       <c r="B9" t="n">
-        <v>27.119</v>
+        <v>22.015</v>
       </c>
       <c r="C9" t="n">
-        <v>27.27</v>
+        <v>22.135</v>
       </c>
       <c r="D9" t="n">
-        <v>26.879</v>
+        <v>21.88</v>
       </c>
       <c r="E9" t="n">
-        <v>26.998</v>
+        <v>21.998</v>
       </c>
       <c r="F9" t="n">
-        <v>507928.7</v>
+        <v>341545.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44351.0416666551</v>
+        <v>44365.4791666551</v>
       </c>
       <c r="B10" t="n">
-        <v>26.996</v>
+        <v>21.998</v>
       </c>
       <c r="C10" t="n">
-        <v>27.195</v>
+        <v>22.003</v>
       </c>
       <c r="D10" t="n">
-        <v>26.862</v>
+        <v>21.79</v>
       </c>
       <c r="E10" t="n">
-        <v>26.95</v>
+        <v>21.905</v>
       </c>
       <c r="F10" t="n">
-        <v>499449</v>
+        <v>346685.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44351.06249998842</v>
+        <v>44365.49999998842</v>
       </c>
       <c r="B11" t="n">
-        <v>26.951</v>
+        <v>21.904</v>
       </c>
       <c r="C11" t="n">
-        <v>27.682</v>
+        <v>22.276</v>
       </c>
       <c r="D11" t="n">
-        <v>26.82</v>
+        <v>21.872</v>
       </c>
       <c r="E11" t="n">
-        <v>27.507</v>
+        <v>22.192</v>
       </c>
       <c r="F11" t="n">
-        <v>973730.3</v>
+        <v>446707.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44351.08333332176</v>
+        <v>44365.52083332176</v>
       </c>
       <c r="B12" t="n">
-        <v>27.507</v>
+        <v>22.192</v>
       </c>
       <c r="C12" t="n">
-        <v>27.944</v>
+        <v>22.315</v>
       </c>
       <c r="D12" t="n">
-        <v>27.467</v>
+        <v>22.188</v>
       </c>
       <c r="E12" t="n">
-        <v>27.704</v>
+        <v>22.232</v>
       </c>
       <c r="F12" t="n">
-        <v>905580.3</v>
+        <v>178824.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44351.1041666551</v>
+        <v>44365.5416666551</v>
       </c>
       <c r="B13" t="n">
-        <v>27.713</v>
+        <v>22.234</v>
       </c>
       <c r="C13" t="n">
-        <v>27.75</v>
+        <v>22.298</v>
       </c>
       <c r="D13" t="n">
-        <v>27.352</v>
+        <v>22.175</v>
       </c>
       <c r="E13" t="n">
-        <v>27.528</v>
+        <v>22.294</v>
       </c>
       <c r="F13" t="n">
-        <v>567218.6</v>
+        <v>188773.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44351.12499998842</v>
+        <v>44365.56249998842</v>
       </c>
       <c r="B14" t="n">
-        <v>27.528</v>
+        <v>22.294</v>
       </c>
       <c r="C14" t="n">
-        <v>27.528</v>
+        <v>22.3</v>
       </c>
       <c r="D14" t="n">
-        <v>27.156</v>
+        <v>22.165</v>
       </c>
       <c r="E14" t="n">
-        <v>27.303</v>
+        <v>22.275</v>
       </c>
       <c r="F14" t="n">
-        <v>583593.4</v>
+        <v>157754.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44351.14583332176</v>
+        <v>44365.58333332176</v>
       </c>
       <c r="B15" t="n">
-        <v>27.308</v>
+        <v>22.269</v>
       </c>
       <c r="C15" t="n">
-        <v>27.415</v>
+        <v>22.466</v>
       </c>
       <c r="D15" t="n">
-        <v>27.152</v>
+        <v>22.254</v>
       </c>
       <c r="E15" t="n">
-        <v>27.155</v>
+        <v>22.43</v>
       </c>
       <c r="F15" t="n">
-        <v>269712.3</v>
+        <v>220589.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44351.1666666551</v>
+        <v>44365.6041666551</v>
       </c>
       <c r="B16" t="n">
-        <v>27.161</v>
+        <v>22.433</v>
       </c>
       <c r="C16" t="n">
-        <v>27.198</v>
+        <v>22.485</v>
       </c>
       <c r="D16" t="n">
-        <v>27.004</v>
+        <v>22.25</v>
       </c>
       <c r="E16" t="n">
-        <v>27.118</v>
+        <v>22.359</v>
       </c>
       <c r="F16" t="n">
-        <v>379242.9</v>
+        <v>252172.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44351.18749998842</v>
+        <v>44365.62499998842</v>
       </c>
       <c r="B17" t="n">
-        <v>27.111</v>
+        <v>22.359</v>
       </c>
       <c r="C17" t="n">
-        <v>27.242</v>
+        <v>22.438</v>
       </c>
       <c r="D17" t="n">
-        <v>26.926</v>
+        <v>22.091</v>
       </c>
       <c r="E17" t="n">
-        <v>26.966</v>
+        <v>22.193</v>
       </c>
       <c r="F17" t="n">
-        <v>444929.3</v>
+        <v>325175.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44351.20833332176</v>
+        <v>44365.64583332176</v>
       </c>
       <c r="B18" t="n">
-        <v>26.965</v>
+        <v>22.193</v>
       </c>
       <c r="C18" t="n">
-        <v>26.968</v>
+        <v>22.335</v>
       </c>
       <c r="D18" t="n">
-        <v>26.491</v>
+        <v>22.11</v>
       </c>
       <c r="E18" t="n">
-        <v>26.577</v>
+        <v>22.222</v>
       </c>
       <c r="F18" t="n">
-        <v>698590.7</v>
+        <v>290097.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44351.2291666551</v>
+        <v>44365.6666666551</v>
       </c>
       <c r="B19" t="n">
-        <v>26.581</v>
+        <v>22.224</v>
       </c>
       <c r="C19" t="n">
-        <v>26.792</v>
+        <v>22.231</v>
       </c>
       <c r="D19" t="n">
-        <v>26.332</v>
+        <v>22.033</v>
       </c>
       <c r="E19" t="n">
-        <v>26.741</v>
+        <v>22.078</v>
       </c>
       <c r="F19" t="n">
-        <v>682640.9</v>
+        <v>214939.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44351.24999998842</v>
+        <v>44365.68749998842</v>
       </c>
       <c r="B20" t="n">
-        <v>26.736</v>
+        <v>22.08</v>
       </c>
       <c r="C20" t="n">
-        <v>27.064</v>
+        <v>22.272</v>
       </c>
       <c r="D20" t="n">
-        <v>26.521</v>
+        <v>22.075</v>
       </c>
       <c r="E20" t="n">
-        <v>26.963</v>
+        <v>22.211</v>
       </c>
       <c r="F20" t="n">
-        <v>577288</v>
+        <v>257964.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44351.27083332176</v>
+        <v>44365.70833332176</v>
       </c>
       <c r="B21" t="n">
-        <v>26.964</v>
+        <v>22.212</v>
       </c>
       <c r="C21" t="n">
-        <v>27.183</v>
+        <v>22.374</v>
       </c>
       <c r="D21" t="n">
-        <v>26.871</v>
+        <v>22.138</v>
       </c>
       <c r="E21" t="n">
-        <v>26.907</v>
+        <v>22.329</v>
       </c>
       <c r="F21" t="n">
-        <v>441633</v>
+        <v>215231.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44351.2916666551</v>
+        <v>44365.7291666551</v>
       </c>
       <c r="B22" t="n">
-        <v>26.907</v>
+        <v>22.329</v>
       </c>
       <c r="C22" t="n">
-        <v>27.016</v>
+        <v>22.419</v>
       </c>
       <c r="D22" t="n">
-        <v>26.745</v>
+        <v>22.252</v>
       </c>
       <c r="E22" t="n">
-        <v>26.786</v>
+        <v>22.357</v>
       </c>
       <c r="F22" t="n">
-        <v>228360.3</v>
+        <v>231524.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44351.31249998842</v>
+        <v>44365.74999998842</v>
       </c>
       <c r="B23" t="n">
-        <v>26.788</v>
+        <v>22.358</v>
       </c>
       <c r="C23" t="n">
-        <v>27.323</v>
+        <v>22.389</v>
       </c>
       <c r="D23" t="n">
-        <v>26.569</v>
+        <v>22.071</v>
       </c>
       <c r="E23" t="n">
-        <v>27.32</v>
+        <v>22.109</v>
       </c>
       <c r="F23" t="n">
-        <v>708455.2</v>
+        <v>347565.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44351.33333332176</v>
+        <v>44365.77083332176</v>
       </c>
       <c r="B24" t="n">
-        <v>27.314</v>
+        <v>22.106</v>
       </c>
       <c r="C24" t="n">
-        <v>27.366</v>
+        <v>22.124</v>
       </c>
       <c r="D24" t="n">
-        <v>27.101</v>
+        <v>21.708</v>
       </c>
       <c r="E24" t="n">
-        <v>27.214</v>
+        <v>21.793</v>
       </c>
       <c r="F24" t="n">
-        <v>383743.3</v>
+        <v>717224.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44351.3541666551</v>
+        <v>44365.7916666551</v>
       </c>
       <c r="B25" t="n">
-        <v>27.214</v>
+        <v>21.79</v>
       </c>
       <c r="C25" t="n">
-        <v>27.227</v>
+        <v>21.91</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>21.633</v>
       </c>
       <c r="E25" t="n">
-        <v>27.077</v>
+        <v>21.651</v>
       </c>
       <c r="F25" t="n">
-        <v>430274</v>
+        <v>555606.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44351.37499998842</v>
+        <v>44365.81249998842</v>
       </c>
       <c r="B26" t="n">
-        <v>27.075</v>
+        <v>21.652</v>
       </c>
       <c r="C26" t="n">
-        <v>27.206</v>
+        <v>21.843</v>
       </c>
       <c r="D26" t="n">
-        <v>26.922</v>
+        <v>21.436</v>
       </c>
       <c r="E26" t="n">
-        <v>26.987</v>
+        <v>21.787</v>
       </c>
       <c r="F26" t="n">
-        <v>394169.9</v>
+        <v>1033831.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44351.39583332176</v>
+        <v>44365.83333332176</v>
       </c>
       <c r="B27" t="n">
-        <v>26.988</v>
+        <v>21.783</v>
       </c>
       <c r="C27" t="n">
-        <v>27.003</v>
+        <v>22.026</v>
       </c>
       <c r="D27" t="n">
-        <v>26.408</v>
+        <v>21.754</v>
       </c>
       <c r="E27" t="n">
-        <v>26.48</v>
+        <v>21.99</v>
       </c>
       <c r="F27" t="n">
-        <v>672366.5</v>
+        <v>481921.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44351.4166666551</v>
+        <v>44365.8541666551</v>
       </c>
       <c r="B28" t="n">
-        <v>26.483</v>
+        <v>21.992</v>
       </c>
       <c r="C28" t="n">
-        <v>26.49</v>
+        <v>22.14</v>
       </c>
       <c r="D28" t="n">
-        <v>26.07</v>
+        <v>21.86</v>
       </c>
       <c r="E28" t="n">
-        <v>26.241</v>
+        <v>21.86</v>
       </c>
       <c r="F28" t="n">
-        <v>669183.7</v>
+        <v>443368.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44351.43749998842</v>
+        <v>44365.87499998842</v>
       </c>
       <c r="B29" t="n">
-        <v>26.246</v>
+        <v>21.862</v>
       </c>
       <c r="C29" t="n">
-        <v>26.246</v>
+        <v>21.938</v>
       </c>
       <c r="D29" t="n">
-        <v>24.776</v>
+        <v>21.765</v>
       </c>
       <c r="E29" t="n">
-        <v>25.445</v>
+        <v>21.805</v>
       </c>
       <c r="F29" t="n">
-        <v>2581602</v>
+        <v>338201.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44351.45833332176</v>
+        <v>44365.89583332176</v>
       </c>
       <c r="B30" t="n">
-        <v>25.45</v>
+        <v>21.806</v>
       </c>
       <c r="C30" t="n">
-        <v>25.661</v>
+        <v>21.887</v>
       </c>
       <c r="D30" t="n">
-        <v>25.134</v>
+        <v>21.512</v>
       </c>
       <c r="E30" t="n">
-        <v>25.369</v>
+        <v>21.584</v>
       </c>
       <c r="F30" t="n">
-        <v>932444.1</v>
+        <v>515191.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44351.4791666551</v>
+        <v>44365.9166666551</v>
       </c>
       <c r="B31" t="n">
-        <v>25.368</v>
+        <v>21.584</v>
       </c>
       <c r="C31" t="n">
-        <v>25.368</v>
+        <v>21.716</v>
       </c>
       <c r="D31" t="n">
-        <v>24.54</v>
+        <v>21.5</v>
       </c>
       <c r="E31" t="n">
-        <v>24.992</v>
+        <v>21.56</v>
       </c>
       <c r="F31" t="n">
-        <v>1215951.2</v>
+        <v>516042.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44351.49999998842</v>
+        <v>44365.93749998842</v>
       </c>
       <c r="B32" t="n">
-        <v>24.989</v>
+        <v>21.561</v>
       </c>
       <c r="C32" t="n">
-        <v>25.425</v>
+        <v>21.711</v>
       </c>
       <c r="D32" t="n">
-        <v>24.95</v>
+        <v>21.321</v>
       </c>
       <c r="E32" t="n">
-        <v>25.289</v>
+        <v>21.452</v>
       </c>
       <c r="F32" t="n">
-        <v>758938.5</v>
+        <v>672936.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44351.52083332176</v>
+        <v>44365.95833332176</v>
       </c>
       <c r="B33" t="n">
-        <v>25.289</v>
+        <v>21.449</v>
       </c>
       <c r="C33" t="n">
-        <v>25.65</v>
+        <v>21.551</v>
       </c>
       <c r="D33" t="n">
-        <v>25.023</v>
+        <v>21.357</v>
       </c>
       <c r="E33" t="n">
-        <v>25.614</v>
+        <v>21.49</v>
       </c>
       <c r="F33" t="n">
-        <v>720372.2</v>
+        <v>380118.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44351.5416666551</v>
+        <v>44365.9791666551</v>
       </c>
       <c r="B34" t="n">
-        <v>25.624</v>
+        <v>21.489</v>
       </c>
       <c r="C34" t="n">
-        <v>25.898</v>
+        <v>21.603</v>
       </c>
       <c r="D34" t="n">
-        <v>25.5</v>
+        <v>20.985</v>
       </c>
       <c r="E34" t="n">
-        <v>25.761</v>
+        <v>21.283</v>
       </c>
       <c r="F34" t="n">
-        <v>813917.4</v>
+        <v>912870</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44351.56249998842</v>
+        <v>44365.99999998842</v>
       </c>
       <c r="B35" t="n">
-        <v>25.759</v>
+        <v>21.285</v>
       </c>
       <c r="C35" t="n">
-        <v>25.782</v>
+        <v>21.325</v>
       </c>
       <c r="D35" t="n">
-        <v>25.165</v>
+        <v>21.046</v>
       </c>
       <c r="E35" t="n">
-        <v>25.325</v>
+        <v>21.129</v>
       </c>
       <c r="F35" t="n">
-        <v>649661.8</v>
+        <v>459655.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44351.58333332176</v>
+        <v>44366.02083332176</v>
       </c>
       <c r="B36" t="n">
-        <v>25.323</v>
+        <v>21.129</v>
       </c>
       <c r="C36" t="n">
-        <v>25.431</v>
+        <v>21.32</v>
       </c>
       <c r="D36" t="n">
-        <v>24.957</v>
+        <v>20.977</v>
       </c>
       <c r="E36" t="n">
-        <v>25.022</v>
+        <v>21.011</v>
       </c>
       <c r="F36" t="n">
-        <v>706328.2</v>
+        <v>465015.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44351.6041666551</v>
+        <v>44366.0416666551</v>
       </c>
       <c r="B37" t="n">
-        <v>25.019</v>
+        <v>21.015</v>
       </c>
       <c r="C37" t="n">
-        <v>25.299</v>
+        <v>21.12</v>
       </c>
       <c r="D37" t="n">
-        <v>24.683</v>
+        <v>20.73</v>
       </c>
       <c r="E37" t="n">
-        <v>24.987</v>
+        <v>20.805</v>
       </c>
       <c r="F37" t="n">
-        <v>1001725.4</v>
+        <v>741229.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44351.62499998842</v>
+        <v>44366.06249998842</v>
       </c>
       <c r="B38" t="n">
-        <v>24.974</v>
+        <v>20.803</v>
       </c>
       <c r="C38" t="n">
-        <v>25.122</v>
+        <v>21.076</v>
       </c>
       <c r="D38" t="n">
-        <v>24.482</v>
+        <v>20.723</v>
       </c>
       <c r="E38" t="n">
-        <v>24.654</v>
+        <v>21</v>
       </c>
       <c r="F38" t="n">
-        <v>1216488.9</v>
+        <v>919499.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44351.64583332176</v>
+        <v>44366.08333332176</v>
       </c>
       <c r="B39" t="n">
-        <v>24.653</v>
+        <v>21.001</v>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>21.28</v>
       </c>
       <c r="D39" t="n">
-        <v>24.557</v>
+        <v>20.981</v>
       </c>
       <c r="E39" t="n">
-        <v>24.648</v>
+        <v>21.181</v>
       </c>
       <c r="F39" t="n">
-        <v>797032.9</v>
+        <v>691530.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44351.6666666551</v>
+        <v>44366.1041666551</v>
       </c>
       <c r="B40" t="n">
-        <v>24.648</v>
+        <v>21.181</v>
       </c>
       <c r="C40" t="n">
-        <v>24.791</v>
+        <v>21.188</v>
       </c>
       <c r="D40" t="n">
-        <v>24.022</v>
+        <v>20.918</v>
       </c>
       <c r="E40" t="n">
-        <v>24.409</v>
+        <v>20.941</v>
       </c>
       <c r="F40" t="n">
-        <v>1092505.5</v>
+        <v>504574.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44351.68749998842</v>
+        <v>44366.12499998842</v>
       </c>
       <c r="B41" t="n">
-        <v>24.414</v>
+        <v>20.94</v>
       </c>
       <c r="C41" t="n">
-        <v>24.431</v>
+        <v>21.01</v>
       </c>
       <c r="D41" t="n">
-        <v>23.764</v>
+        <v>20.68</v>
       </c>
       <c r="E41" t="n">
-        <v>24.128</v>
+        <v>20.68</v>
       </c>
       <c r="F41" t="n">
-        <v>1239451.3</v>
+        <v>340390.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44351.70833332176</v>
+        <v>44366.14583332176</v>
       </c>
       <c r="B42" t="n">
-        <v>24.128</v>
+        <v>20.682</v>
       </c>
       <c r="C42" t="n">
-        <v>24.69</v>
+        <v>20.899</v>
       </c>
       <c r="D42" t="n">
-        <v>24.071</v>
+        <v>20.4</v>
       </c>
       <c r="E42" t="n">
-        <v>24.389</v>
+        <v>20.418</v>
       </c>
       <c r="F42" t="n">
-        <v>1000451.8</v>
+        <v>750002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44351.7291666551</v>
+        <v>44366.1666666551</v>
       </c>
       <c r="B43" t="n">
-        <v>24.397</v>
+        <v>20.42</v>
       </c>
       <c r="C43" t="n">
-        <v>24.692</v>
+        <v>20.585</v>
       </c>
       <c r="D43" t="n">
-        <v>23.924</v>
+        <v>20.191</v>
       </c>
       <c r="E43" t="n">
-        <v>24.688</v>
+        <v>20.329</v>
       </c>
       <c r="F43" t="n">
-        <v>856355</v>
+        <v>964936.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44351.74999998842</v>
+        <v>44366.18749998842</v>
       </c>
       <c r="B44" t="n">
-        <v>24.684</v>
+        <v>20.329</v>
       </c>
       <c r="C44" t="n">
-        <v>24.786</v>
+        <v>20.58</v>
       </c>
       <c r="D44" t="n">
-        <v>24.347</v>
+        <v>20.24</v>
       </c>
       <c r="E44" t="n">
-        <v>24.388</v>
+        <v>20.488</v>
       </c>
       <c r="F44" t="n">
-        <v>496071.4</v>
+        <v>566106.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44351.77083332176</v>
+        <v>44366.20833332176</v>
       </c>
       <c r="B45" t="n">
-        <v>24.383</v>
+        <v>20.491</v>
       </c>
       <c r="C45" t="n">
-        <v>24.634</v>
+        <v>20.536</v>
       </c>
       <c r="D45" t="n">
-        <v>24.1</v>
+        <v>20.332</v>
       </c>
       <c r="E45" t="n">
-        <v>24.461</v>
+        <v>20.354</v>
       </c>
       <c r="F45" t="n">
-        <v>609351.1</v>
+        <v>356046.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44351.7916666551</v>
+        <v>44366.2291666551</v>
       </c>
       <c r="B46" t="n">
-        <v>24.462</v>
+        <v>20.355</v>
       </c>
       <c r="C46" t="n">
-        <v>24.838</v>
+        <v>20.775</v>
       </c>
       <c r="D46" t="n">
-        <v>24.3</v>
+        <v>20.312</v>
       </c>
       <c r="E46" t="n">
-        <v>24.838</v>
+        <v>20.705</v>
       </c>
       <c r="F46" t="n">
-        <v>744288.8</v>
+        <v>523836.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44351.81249998842</v>
+        <v>44366.24999998842</v>
       </c>
       <c r="B47" t="n">
-        <v>24.832</v>
+        <v>20.713</v>
       </c>
       <c r="C47" t="n">
-        <v>25.085</v>
+        <v>20.731</v>
       </c>
       <c r="D47" t="n">
-        <v>24.537</v>
+        <v>20.511</v>
       </c>
       <c r="E47" t="n">
-        <v>24.573</v>
+        <v>20.687</v>
       </c>
       <c r="F47" t="n">
-        <v>669167</v>
+        <v>260359.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44351.83333332176</v>
+        <v>44366.27083332176</v>
       </c>
       <c r="B48" t="n">
-        <v>24.572</v>
+        <v>20.686</v>
       </c>
       <c r="C48" t="n">
-        <v>24.725</v>
+        <v>20.923</v>
       </c>
       <c r="D48" t="n">
-        <v>24.318</v>
+        <v>20.64</v>
       </c>
       <c r="E48" t="n">
-        <v>24.346</v>
+        <v>20.869</v>
       </c>
       <c r="F48" t="n">
-        <v>644574</v>
+        <v>277471</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44351.8541666551</v>
+        <v>44366.2916666551</v>
       </c>
       <c r="B49" t="n">
-        <v>24.343</v>
+        <v>20.869</v>
       </c>
       <c r="C49" t="n">
-        <v>24.619</v>
+        <v>21.185</v>
       </c>
       <c r="D49" t="n">
-        <v>24.23</v>
+        <v>20.815</v>
       </c>
       <c r="E49" t="n">
-        <v>24.299</v>
+        <v>21.148</v>
       </c>
       <c r="F49" t="n">
-        <v>515315</v>
+        <v>282866.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44351.87499998842</v>
+        <v>44366.31249998842</v>
       </c>
       <c r="B50" t="n">
-        <v>24.299</v>
+        <v>21.149</v>
       </c>
       <c r="C50" t="n">
-        <v>24.299</v>
+        <v>21.151</v>
       </c>
       <c r="D50" t="n">
-        <v>23.985</v>
+        <v>20.974</v>
       </c>
       <c r="E50" t="n">
-        <v>24.274</v>
+        <v>21.129</v>
       </c>
       <c r="F50" t="n">
-        <v>692966.4</v>
+        <v>306810.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44351.89583332176</v>
+        <v>44366.33333332176</v>
       </c>
       <c r="B51" t="n">
-        <v>24.282</v>
+        <v>21.126</v>
       </c>
       <c r="C51" t="n">
-        <v>24.282</v>
+        <v>21.256</v>
       </c>
       <c r="D51" t="n">
-        <v>23.6</v>
+        <v>21.054</v>
       </c>
       <c r="E51" t="n">
-        <v>23.895</v>
+        <v>21.25</v>
       </c>
       <c r="F51" t="n">
-        <v>1206904.8</v>
+        <v>246031.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44351.9166666551</v>
+        <v>44366.3541666551</v>
       </c>
       <c r="B52" t="n">
-        <v>23.896</v>
+        <v>21.249</v>
       </c>
       <c r="C52" t="n">
-        <v>24.896</v>
+        <v>21.434</v>
       </c>
       <c r="D52" t="n">
-        <v>23.883</v>
+        <v>21.174</v>
       </c>
       <c r="E52" t="n">
-        <v>24.7</v>
+        <v>21.403</v>
       </c>
       <c r="F52" t="n">
-        <v>1288211.9</v>
+        <v>288240.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44351.93749998842</v>
+        <v>44366.37499998842</v>
       </c>
       <c r="B53" t="n">
-        <v>24.7</v>
+        <v>21.407</v>
       </c>
       <c r="C53" t="n">
-        <v>24.766</v>
+        <v>21.566</v>
       </c>
       <c r="D53" t="n">
-        <v>24.4</v>
+        <v>21.269</v>
       </c>
       <c r="E53" t="n">
-        <v>24.628</v>
+        <v>21.418</v>
       </c>
       <c r="F53" t="n">
-        <v>534870.4</v>
+        <v>453365.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44351.95833332176</v>
+        <v>44366.39583332176</v>
       </c>
       <c r="B54" t="n">
-        <v>24.624</v>
+        <v>21.418</v>
       </c>
       <c r="C54" t="n">
-        <v>24.735</v>
+        <v>21.606</v>
       </c>
       <c r="D54" t="n">
-        <v>24.323</v>
+        <v>21.315</v>
       </c>
       <c r="E54" t="n">
-        <v>24.379</v>
+        <v>21.534</v>
       </c>
       <c r="F54" t="n">
-        <v>433494.1</v>
+        <v>366456.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44351.9791666551</v>
+        <v>44366.4166666551</v>
       </c>
       <c r="B55" t="n">
-        <v>24.378</v>
+        <v>21.534</v>
       </c>
       <c r="C55" t="n">
-        <v>24.548</v>
+        <v>21.548</v>
       </c>
       <c r="D55" t="n">
-        <v>23.967</v>
+        <v>21.252</v>
       </c>
       <c r="E55" t="n">
-        <v>24.1</v>
+        <v>21.281</v>
       </c>
       <c r="F55" t="n">
-        <v>707461.7</v>
+        <v>321384</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44351.99999998842</v>
+        <v>44366.43749998842</v>
       </c>
       <c r="B56" t="n">
-        <v>24.102</v>
+        <v>21.282</v>
       </c>
       <c r="C56" t="n">
-        <v>24.493</v>
+        <v>21.617</v>
       </c>
       <c r="D56" t="n">
-        <v>23.913</v>
+        <v>21.267</v>
       </c>
       <c r="E56" t="n">
-        <v>24.343</v>
+        <v>21.427</v>
       </c>
       <c r="F56" t="n">
-        <v>815780</v>
+        <v>561249.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44352.02083332176</v>
+        <v>44366.45833332176</v>
       </c>
       <c r="B57" t="n">
-        <v>24.347</v>
+        <v>21.423</v>
       </c>
       <c r="C57" t="n">
-        <v>24.726</v>
+        <v>21.52</v>
       </c>
       <c r="D57" t="n">
-        <v>24.347</v>
+        <v>21.36</v>
       </c>
       <c r="E57" t="n">
-        <v>24.71</v>
+        <v>21.472</v>
       </c>
       <c r="F57" t="n">
-        <v>482660</v>
+        <v>182062.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44352.0416666551</v>
+        <v>44366.4791666551</v>
       </c>
       <c r="B58" t="n">
-        <v>24.711</v>
+        <v>21.473</v>
       </c>
       <c r="C58" t="n">
-        <v>24.836</v>
+        <v>21.536</v>
       </c>
       <c r="D58" t="n">
-        <v>24.54</v>
+        <v>21.243</v>
       </c>
       <c r="E58" t="n">
-        <v>24.721</v>
+        <v>21.264</v>
       </c>
       <c r="F58" t="n">
-        <v>625414</v>
+        <v>272494.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44352.06249998842</v>
+        <v>44366.49999998842</v>
       </c>
       <c r="B59" t="n">
-        <v>24.721</v>
+        <v>21.264</v>
       </c>
       <c r="C59" t="n">
-        <v>25.155</v>
+        <v>21.293</v>
       </c>
       <c r="D59" t="n">
-        <v>24.597</v>
+        <v>20.858</v>
       </c>
       <c r="E59" t="n">
-        <v>24.851</v>
+        <v>20.892</v>
       </c>
       <c r="F59" t="n">
-        <v>983211.4</v>
+        <v>592325.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44352.08333332176</v>
+        <v>44366.52083332176</v>
       </c>
       <c r="B60" t="n">
-        <v>24.85</v>
+        <v>20.893</v>
       </c>
       <c r="C60" t="n">
-        <v>24.869</v>
+        <v>21.006</v>
       </c>
       <c r="D60" t="n">
-        <v>24.503</v>
+        <v>20.622</v>
       </c>
       <c r="E60" t="n">
-        <v>24.718</v>
+        <v>20.673</v>
       </c>
       <c r="F60" t="n">
-        <v>501742.8</v>
+        <v>477289.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44352.1041666551</v>
+        <v>44366.5416666551</v>
       </c>
       <c r="B61" t="n">
-        <v>24.717</v>
+        <v>20.678</v>
       </c>
       <c r="C61" t="n">
-        <v>25.16</v>
+        <v>20.912</v>
       </c>
       <c r="D61" t="n">
-        <v>24.637</v>
+        <v>20.643</v>
       </c>
       <c r="E61" t="n">
-        <v>25.088</v>
+        <v>20.833</v>
       </c>
       <c r="F61" t="n">
-        <v>388973.2</v>
+        <v>604929.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44352.12499998842</v>
+        <v>44366.56249998842</v>
       </c>
       <c r="B62" t="n">
-        <v>25.087</v>
+        <v>20.831</v>
       </c>
       <c r="C62" t="n">
-        <v>25.232</v>
+        <v>20.98</v>
       </c>
       <c r="D62" t="n">
-        <v>25.027</v>
+        <v>20.68</v>
       </c>
       <c r="E62" t="n">
-        <v>25.041</v>
+        <v>20.98</v>
       </c>
       <c r="F62" t="n">
-        <v>365476.7</v>
+        <v>644099.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44352.14583332176</v>
+        <v>44366.58333332176</v>
       </c>
       <c r="B63" t="n">
-        <v>25.042</v>
+        <v>20.977</v>
       </c>
       <c r="C63" t="n">
-        <v>25.255</v>
+        <v>21.011</v>
       </c>
       <c r="D63" t="n">
-        <v>24.945</v>
+        <v>20.751</v>
       </c>
       <c r="E63" t="n">
-        <v>25.164</v>
+        <v>20.895</v>
       </c>
       <c r="F63" t="n">
-        <v>382664.7</v>
+        <v>477553.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44352.1666666551</v>
+        <v>44366.6041666551</v>
       </c>
       <c r="B64" t="n">
-        <v>25.168</v>
+        <v>20.896</v>
       </c>
       <c r="C64" t="n">
-        <v>25.486</v>
+        <v>21.01</v>
       </c>
       <c r="D64" t="n">
-        <v>25.05</v>
+        <v>20.896</v>
       </c>
       <c r="E64" t="n">
-        <v>25.3</v>
+        <v>20.958</v>
       </c>
       <c r="F64" t="n">
-        <v>429445.6</v>
+        <v>392893.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44352.18749998842</v>
+        <v>44366.62499998842</v>
       </c>
       <c r="B65" t="n">
-        <v>25.3</v>
+        <v>20.959</v>
       </c>
       <c r="C65" t="n">
-        <v>25.593</v>
+        <v>21.218</v>
       </c>
       <c r="D65" t="n">
-        <v>25.183</v>
+        <v>20.954</v>
       </c>
       <c r="E65" t="n">
-        <v>25.287</v>
+        <v>21.199</v>
       </c>
       <c r="F65" t="n">
-        <v>656348.9</v>
+        <v>490856.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44352.20833332176</v>
+        <v>44366.64583332176</v>
       </c>
       <c r="B66" t="n">
-        <v>25.292</v>
+        <v>21.204</v>
       </c>
       <c r="C66" t="n">
-        <v>25.354</v>
+        <v>21.38</v>
       </c>
       <c r="D66" t="n">
-        <v>24.77</v>
+        <v>21.172</v>
       </c>
       <c r="E66" t="n">
-        <v>24.993</v>
+        <v>21.241</v>
       </c>
       <c r="F66" t="n">
-        <v>505788.8</v>
+        <v>437177.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44352.2291666551</v>
+        <v>44366.6666666551</v>
       </c>
       <c r="B67" t="n">
-        <v>24.993</v>
+        <v>21.241</v>
       </c>
       <c r="C67" t="n">
-        <v>25.356</v>
+        <v>21.36</v>
       </c>
       <c r="D67" t="n">
-        <v>24.993</v>
+        <v>21.06</v>
       </c>
       <c r="E67" t="n">
-        <v>25.354</v>
+        <v>21.168</v>
       </c>
       <c r="F67" t="n">
-        <v>300556.4</v>
+        <v>585812.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44352.24999998842</v>
+        <v>44366.68749998842</v>
       </c>
       <c r="B68" t="n">
-        <v>25.352</v>
+        <v>21.172</v>
       </c>
       <c r="C68" t="n">
-        <v>25.454</v>
+        <v>21.249</v>
       </c>
       <c r="D68" t="n">
-        <v>25.065</v>
+        <v>20.946</v>
       </c>
       <c r="E68" t="n">
-        <v>25.259</v>
+        <v>20.995</v>
       </c>
       <c r="F68" t="n">
-        <v>323060.9</v>
+        <v>614422</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44352.27083332176</v>
+        <v>44366.70833332176</v>
       </c>
       <c r="B69" t="n">
-        <v>25.26</v>
+        <v>20.995</v>
       </c>
       <c r="C69" t="n">
-        <v>25.506</v>
+        <v>21.306</v>
       </c>
       <c r="D69" t="n">
-        <v>25.259</v>
+        <v>20.974</v>
       </c>
       <c r="E69" t="n">
-        <v>25.414</v>
+        <v>21.3</v>
       </c>
       <c r="F69" t="n">
-        <v>295295</v>
+        <v>326419.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44352.2916666551</v>
+        <v>44366.7291666551</v>
       </c>
       <c r="B70" t="n">
-        <v>25.413</v>
+        <v>21.298</v>
       </c>
       <c r="C70" t="n">
-        <v>25.47</v>
+        <v>21.305</v>
       </c>
       <c r="D70" t="n">
-        <v>25.185</v>
+        <v>21.077</v>
       </c>
       <c r="E70" t="n">
-        <v>25.323</v>
+        <v>21.125</v>
       </c>
       <c r="F70" t="n">
-        <v>303849</v>
+        <v>279573.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44352.31249998842</v>
+        <v>44366.74999998842</v>
       </c>
       <c r="B71" t="n">
-        <v>25.322</v>
+        <v>21.13</v>
       </c>
       <c r="C71" t="n">
-        <v>25.495</v>
+        <v>21.344</v>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>21.128</v>
       </c>
       <c r="E71" t="n">
-        <v>25.07</v>
+        <v>21.298</v>
       </c>
       <c r="F71" t="n">
-        <v>354114.1</v>
+        <v>265410.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44352.33333332176</v>
+        <v>44366.77083332176</v>
       </c>
       <c r="B72" t="n">
-        <v>25.069</v>
+        <v>21.298</v>
       </c>
       <c r="C72" t="n">
-        <v>25.443</v>
+        <v>21.326</v>
       </c>
       <c r="D72" t="n">
-        <v>25.069</v>
+        <v>21.105</v>
       </c>
       <c r="E72" t="n">
-        <v>25.231</v>
+        <v>21.111</v>
       </c>
       <c r="F72" t="n">
-        <v>304575.8</v>
+        <v>234902.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44352.3541666551</v>
+        <v>44366.7916666551</v>
       </c>
       <c r="B73" t="n">
-        <v>25.229</v>
+        <v>21.111</v>
       </c>
       <c r="C73" t="n">
-        <v>25.426</v>
+        <v>21.209</v>
       </c>
       <c r="D73" t="n">
-        <v>24.522</v>
+        <v>20.91</v>
       </c>
       <c r="E73" t="n">
-        <v>24.92</v>
+        <v>20.979</v>
       </c>
       <c r="F73" t="n">
-        <v>772823.6</v>
+        <v>349016.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44352.37499998842</v>
+        <v>44366.81249998842</v>
       </c>
       <c r="B74" t="n">
-        <v>24.92</v>
+        <v>20.98</v>
       </c>
       <c r="C74" t="n">
-        <v>25.279</v>
+        <v>21.048</v>
       </c>
       <c r="D74" t="n">
-        <v>24.838</v>
+        <v>20.882</v>
       </c>
       <c r="E74" t="n">
-        <v>24.967</v>
+        <v>20.967</v>
       </c>
       <c r="F74" t="n">
-        <v>364789.7</v>
+        <v>280146.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44352.39583332176</v>
+        <v>44366.83333332176</v>
       </c>
       <c r="B75" t="n">
-        <v>24.973</v>
+        <v>20.974</v>
       </c>
       <c r="C75" t="n">
-        <v>25.606</v>
+        <v>21.15</v>
       </c>
       <c r="D75" t="n">
-        <v>24.747</v>
+        <v>20.904</v>
       </c>
       <c r="E75" t="n">
-        <v>25.539</v>
+        <v>21.01</v>
       </c>
       <c r="F75" t="n">
-        <v>624359.2</v>
+        <v>269365.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44352.4166666551</v>
+        <v>44366.8541666551</v>
       </c>
       <c r="B76" t="n">
-        <v>25.535</v>
+        <v>21.009</v>
       </c>
       <c r="C76" t="n">
-        <v>25.983</v>
+        <v>21.148</v>
       </c>
       <c r="D76" t="n">
-        <v>25.452</v>
+        <v>21.007</v>
       </c>
       <c r="E76" t="n">
-        <v>25.848</v>
+        <v>21.118</v>
       </c>
       <c r="F76" t="n">
-        <v>585306</v>
+        <v>215163.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44352.43749998842</v>
+        <v>44366.87499998842</v>
       </c>
       <c r="B77" t="n">
-        <v>25.841</v>
+        <v>21.113</v>
       </c>
       <c r="C77" t="n">
-        <v>26.042</v>
+        <v>21.137</v>
       </c>
       <c r="D77" t="n">
-        <v>25.625</v>
+        <v>21.003</v>
       </c>
       <c r="E77" t="n">
-        <v>25.636</v>
+        <v>21.083</v>
       </c>
       <c r="F77" t="n">
-        <v>501393.5</v>
+        <v>352234.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44352.45833332176</v>
+        <v>44366.89583332176</v>
       </c>
       <c r="B78" t="n">
-        <v>25.635</v>
+        <v>21.08</v>
       </c>
       <c r="C78" t="n">
-        <v>26.079</v>
+        <v>21.372</v>
       </c>
       <c r="D78" t="n">
-        <v>25.635</v>
+        <v>20.981</v>
       </c>
       <c r="E78" t="n">
-        <v>25.938</v>
+        <v>21.164</v>
       </c>
       <c r="F78" t="n">
-        <v>557030.9</v>
+        <v>639599.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44352.4791666551</v>
+        <v>44366.9166666551</v>
       </c>
       <c r="B79" t="n">
-        <v>25.936</v>
+        <v>21.167</v>
       </c>
       <c r="C79" t="n">
-        <v>26.074</v>
+        <v>21.201</v>
       </c>
       <c r="D79" t="n">
-        <v>25.731</v>
+        <v>20.917</v>
       </c>
       <c r="E79" t="n">
-        <v>25.745</v>
+        <v>20.983</v>
       </c>
       <c r="F79" t="n">
-        <v>575252.4</v>
+        <v>515591.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44352.49999998842</v>
+        <v>44366.93749998842</v>
       </c>
       <c r="B80" t="n">
-        <v>25.745</v>
+        <v>20.979</v>
       </c>
       <c r="C80" t="n">
-        <v>25.964</v>
+        <v>21.053</v>
       </c>
       <c r="D80" t="n">
-        <v>25.603</v>
+        <v>20.849</v>
       </c>
       <c r="E80" t="n">
-        <v>25.775</v>
+        <v>20.956</v>
       </c>
       <c r="F80" t="n">
-        <v>449281.9</v>
+        <v>344928</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44352.52083332176</v>
+        <v>44366.95833332176</v>
       </c>
       <c r="B81" t="n">
-        <v>25.768</v>
+        <v>20.957</v>
       </c>
       <c r="C81" t="n">
-        <v>26.019</v>
+        <v>21.01</v>
       </c>
       <c r="D81" t="n">
-        <v>25.764</v>
+        <v>20.87</v>
       </c>
       <c r="E81" t="n">
-        <v>25.859</v>
+        <v>20.996</v>
       </c>
       <c r="F81" t="n">
-        <v>265810.1</v>
+        <v>190934.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44352.5416666551</v>
+        <v>44366.9791666551</v>
       </c>
       <c r="B82" t="n">
-        <v>25.859</v>
+        <v>20.993</v>
       </c>
       <c r="C82" t="n">
-        <v>25.94</v>
+        <v>21.166</v>
       </c>
       <c r="D82" t="n">
-        <v>25.525</v>
+        <v>20.97</v>
       </c>
       <c r="E82" t="n">
-        <v>25.575</v>
+        <v>21.117</v>
       </c>
       <c r="F82" t="n">
-        <v>295467.8</v>
+        <v>285335.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44352.56249998842</v>
+        <v>44366.99999998842</v>
       </c>
       <c r="B83" t="n">
-        <v>25.576</v>
+        <v>21.117</v>
       </c>
       <c r="C83" t="n">
-        <v>25.839</v>
+        <v>21.291</v>
       </c>
       <c r="D83" t="n">
-        <v>25.575</v>
+        <v>21.059</v>
       </c>
       <c r="E83" t="n">
-        <v>25.788</v>
+        <v>21.229</v>
       </c>
       <c r="F83" t="n">
-        <v>289133.9</v>
+        <v>431103.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44352.58333332176</v>
+        <v>44367.02083332176</v>
       </c>
       <c r="B84" t="n">
-        <v>25.787</v>
+        <v>21.23</v>
       </c>
       <c r="C84" t="n">
-        <v>25.986</v>
+        <v>21.289</v>
       </c>
       <c r="D84" t="n">
-        <v>25.745</v>
+        <v>21.095</v>
       </c>
       <c r="E84" t="n">
-        <v>25.978</v>
+        <v>21.127</v>
       </c>
       <c r="F84" t="n">
-        <v>334777.9</v>
+        <v>267347.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44352.6041666551</v>
+        <v>44367.0416666551</v>
       </c>
       <c r="B85" t="n">
-        <v>25.97</v>
+        <v>21.125</v>
       </c>
       <c r="C85" t="n">
-        <v>25.987</v>
+        <v>21.25</v>
       </c>
       <c r="D85" t="n">
-        <v>25.712</v>
+        <v>21.018</v>
       </c>
       <c r="E85" t="n">
-        <v>25.766</v>
+        <v>21.219</v>
       </c>
       <c r="F85" t="n">
-        <v>230939.5</v>
+        <v>348406.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44352.62499998842</v>
+        <v>44367.06249998842</v>
       </c>
       <c r="B86" t="n">
-        <v>25.769</v>
+        <v>21.218</v>
       </c>
       <c r="C86" t="n">
-        <v>25.93</v>
+        <v>21.294</v>
       </c>
       <c r="D86" t="n">
-        <v>25.652</v>
+        <v>20.85</v>
       </c>
       <c r="E86" t="n">
-        <v>25.85</v>
+        <v>20.852</v>
       </c>
       <c r="F86" t="n">
-        <v>216271.3</v>
+        <v>471776</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44352.64583332176</v>
+        <v>44367.08333332176</v>
       </c>
       <c r="B87" t="n">
-        <v>25.85</v>
+        <v>20.852</v>
       </c>
       <c r="C87" t="n">
-        <v>26.009</v>
+        <v>20.952</v>
       </c>
       <c r="D87" t="n">
-        <v>25.808</v>
+        <v>20.8</v>
       </c>
       <c r="E87" t="n">
-        <v>25.879</v>
+        <v>20.882</v>
       </c>
       <c r="F87" t="n">
-        <v>303157.5</v>
+        <v>255171.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44352.6666666551</v>
+        <v>44367.1041666551</v>
       </c>
       <c r="B88" t="n">
-        <v>25.879</v>
+        <v>20.882</v>
       </c>
       <c r="C88" t="n">
-        <v>25.97</v>
+        <v>20.938</v>
       </c>
       <c r="D88" t="n">
-        <v>25.74</v>
+        <v>20.708</v>
       </c>
       <c r="E88" t="n">
-        <v>25.913</v>
+        <v>20.753</v>
       </c>
       <c r="F88" t="n">
-        <v>267621.6</v>
+        <v>305516.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44352.68749998842</v>
+        <v>44367.12499998842</v>
       </c>
       <c r="B89" t="n">
-        <v>25.917</v>
+        <v>20.753</v>
       </c>
       <c r="C89" t="n">
-        <v>26.374</v>
+        <v>20.8</v>
       </c>
       <c r="D89" t="n">
-        <v>25.885</v>
+        <v>20.695</v>
       </c>
       <c r="E89" t="n">
-        <v>26.186</v>
+        <v>20.748</v>
       </c>
       <c r="F89" t="n">
-        <v>751564.3</v>
+        <v>193492.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44352.70833332176</v>
+        <v>44367.14583332176</v>
       </c>
       <c r="B90" t="n">
-        <v>26.186</v>
+        <v>20.749</v>
       </c>
       <c r="C90" t="n">
-        <v>26.274</v>
+        <v>20.749</v>
       </c>
       <c r="D90" t="n">
-        <v>25.91</v>
+        <v>20.461</v>
       </c>
       <c r="E90" t="n">
-        <v>25.978</v>
+        <v>20.559</v>
       </c>
       <c r="F90" t="n">
-        <v>446334.6</v>
+        <v>605214.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44352.7291666551</v>
+        <v>44367.1666666551</v>
       </c>
       <c r="B91" t="n">
-        <v>25.973</v>
+        <v>20.558</v>
       </c>
       <c r="C91" t="n">
-        <v>26.18</v>
+        <v>20.756</v>
       </c>
       <c r="D91" t="n">
-        <v>25.799</v>
+        <v>20.431</v>
       </c>
       <c r="E91" t="n">
-        <v>26.098</v>
+        <v>20.706</v>
       </c>
       <c r="F91" t="n">
-        <v>348213.9</v>
+        <v>364266.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44352.74999998842</v>
+        <v>44367.18749998842</v>
       </c>
       <c r="B92" t="n">
-        <v>26.096</v>
+        <v>20.705</v>
       </c>
       <c r="C92" t="n">
-        <v>26.22</v>
+        <v>20.883</v>
       </c>
       <c r="D92" t="n">
-        <v>25.974</v>
+        <v>20.597</v>
       </c>
       <c r="E92" t="n">
-        <v>26.083</v>
+        <v>20.752</v>
       </c>
       <c r="F92" t="n">
-        <v>242271.5</v>
+        <v>347398.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44352.77083332176</v>
+        <v>44367.20833332176</v>
       </c>
       <c r="B93" t="n">
-        <v>26.084</v>
+        <v>20.754</v>
       </c>
       <c r="C93" t="n">
-        <v>26.162</v>
+        <v>20.84</v>
       </c>
       <c r="D93" t="n">
-        <v>25.876</v>
+        <v>20.627</v>
       </c>
       <c r="E93" t="n">
-        <v>25.912</v>
+        <v>20.828</v>
       </c>
       <c r="F93" t="n">
-        <v>286027.5</v>
+        <v>238142.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44352.7916666551</v>
+        <v>44367.2291666551</v>
       </c>
       <c r="B94" t="n">
-        <v>25.914</v>
+        <v>20.833</v>
       </c>
       <c r="C94" t="n">
-        <v>25.94</v>
+        <v>20.836</v>
       </c>
       <c r="D94" t="n">
-        <v>24.078</v>
+        <v>20.644</v>
       </c>
       <c r="E94" t="n">
-        <v>24.708</v>
+        <v>20.745</v>
       </c>
       <c r="F94" t="n">
-        <v>1778497.7</v>
+        <v>228341.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44352.81249998842</v>
+        <v>44367.24999998842</v>
       </c>
       <c r="B95" t="n">
-        <v>24.702</v>
+        <v>20.745</v>
       </c>
       <c r="C95" t="n">
-        <v>25</v>
+        <v>20.875</v>
       </c>
       <c r="D95" t="n">
-        <v>24.408</v>
+        <v>20.688</v>
       </c>
       <c r="E95" t="n">
-        <v>24.85</v>
+        <v>20.822</v>
       </c>
       <c r="F95" t="n">
-        <v>1086862.8</v>
+        <v>171924.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44352.83333332176</v>
+        <v>44367.27083332176</v>
       </c>
       <c r="B96" t="n">
-        <v>24.849</v>
+        <v>20.822</v>
       </c>
       <c r="C96" t="n">
-        <v>24.882</v>
+        <v>20.946</v>
       </c>
       <c r="D96" t="n">
-        <v>24.455</v>
+        <v>20.795</v>
       </c>
       <c r="E96" t="n">
-        <v>24.656</v>
+        <v>20.84</v>
       </c>
       <c r="F96" t="n">
-        <v>545762.7</v>
+        <v>153089.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44352.8541666551</v>
+        <v>44367.2916666551</v>
       </c>
       <c r="B97" t="n">
-        <v>24.657</v>
+        <v>20.84</v>
       </c>
       <c r="C97" t="n">
-        <v>24.732</v>
+        <v>20.977</v>
       </c>
       <c r="D97" t="n">
-        <v>24.06</v>
+        <v>20.782</v>
       </c>
       <c r="E97" t="n">
-        <v>24.112</v>
+        <v>20.799</v>
       </c>
       <c r="F97" t="n">
-        <v>678731.3</v>
+        <v>194052</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44352.87499998842</v>
+        <v>44367.31249998842</v>
       </c>
       <c r="B98" t="n">
-        <v>24.112</v>
+        <v>20.794</v>
       </c>
       <c r="C98" t="n">
-        <v>24.368</v>
+        <v>20.812</v>
       </c>
       <c r="D98" t="n">
-        <v>23.761</v>
+        <v>20.53</v>
       </c>
       <c r="E98" t="n">
-        <v>24.081</v>
+        <v>20.649</v>
       </c>
       <c r="F98" t="n">
-        <v>835679.9</v>
+        <v>229290.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44352.89583332176</v>
+        <v>44367.33333332176</v>
       </c>
       <c r="B99" t="n">
-        <v>24.081</v>
+        <v>20.649</v>
       </c>
       <c r="C99" t="n">
-        <v>24.3</v>
+        <v>20.661</v>
       </c>
       <c r="D99" t="n">
-        <v>23.51</v>
+        <v>20.505</v>
       </c>
       <c r="E99" t="n">
-        <v>24.269</v>
+        <v>20.545</v>
       </c>
       <c r="F99" t="n">
-        <v>1007664.9</v>
+        <v>153617.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44352.9166666551</v>
+        <v>44367.3541666551</v>
       </c>
       <c r="B100" t="n">
-        <v>24.267</v>
+        <v>20.541</v>
       </c>
       <c r="C100" t="n">
-        <v>24.575</v>
+        <v>20.686</v>
       </c>
       <c r="D100" t="n">
-        <v>24.092</v>
+        <v>20.47</v>
       </c>
       <c r="E100" t="n">
-        <v>24.341</v>
+        <v>20.518</v>
       </c>
       <c r="F100" t="n">
-        <v>583319.5</v>
+        <v>287532.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44352.93749998842</v>
+        <v>44367.37499998842</v>
       </c>
       <c r="B101" t="n">
-        <v>24.339</v>
+        <v>20.52</v>
       </c>
       <c r="C101" t="n">
-        <v>24.39</v>
+        <v>20.528</v>
       </c>
       <c r="D101" t="n">
-        <v>24.064</v>
+        <v>20.205</v>
       </c>
       <c r="E101" t="n">
-        <v>24.343</v>
+        <v>20.213</v>
       </c>
       <c r="F101" t="n">
-        <v>436527.7</v>
+        <v>437926.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44352.95833332176</v>
+        <v>44367.39583332176</v>
       </c>
       <c r="B102" t="n">
-        <v>24.345</v>
+        <v>20.214</v>
       </c>
       <c r="C102" t="n">
-        <v>24.346</v>
+        <v>20.319</v>
       </c>
       <c r="D102" t="n">
-        <v>23.923</v>
+        <v>19.961</v>
       </c>
       <c r="E102" t="n">
-        <v>24.006</v>
+        <v>20.016</v>
       </c>
       <c r="F102" t="n">
-        <v>453666.4</v>
+        <v>955439.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44352.9791666551</v>
+        <v>44367.4166666551</v>
       </c>
       <c r="B103" t="n">
-        <v>24.005</v>
+        <v>20.018</v>
       </c>
       <c r="C103" t="n">
-        <v>24.407</v>
+        <v>20.261</v>
       </c>
       <c r="D103" t="n">
-        <v>23.854</v>
+        <v>19.997</v>
       </c>
       <c r="E103" t="n">
-        <v>24.229</v>
+        <v>20.229</v>
       </c>
       <c r="F103" t="n">
-        <v>517899.4</v>
+        <v>292272.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44352.99999998842</v>
+        <v>44367.43749998842</v>
       </c>
       <c r="B104" t="n">
-        <v>24.229</v>
+        <v>20.229</v>
       </c>
       <c r="C104" t="n">
-        <v>24.283</v>
+        <v>20.507</v>
       </c>
       <c r="D104" t="n">
-        <v>23.752</v>
+        <v>20.196</v>
       </c>
       <c r="E104" t="n">
-        <v>23.795</v>
+        <v>20.42</v>
       </c>
       <c r="F104" t="n">
-        <v>534105</v>
+        <v>329629.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44353.02083332176</v>
+        <v>44367.45833332176</v>
       </c>
       <c r="B105" t="n">
-        <v>23.794</v>
+        <v>20.422</v>
       </c>
       <c r="C105" t="n">
-        <v>24.085</v>
+        <v>20.524</v>
       </c>
       <c r="D105" t="n">
-        <v>23.65</v>
+        <v>20.3</v>
       </c>
       <c r="E105" t="n">
-        <v>24.061</v>
+        <v>20.34</v>
       </c>
       <c r="F105" t="n">
-        <v>448453</v>
+        <v>201073.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44353.0416666551</v>
+        <v>44367.4791666551</v>
       </c>
       <c r="B106" t="n">
-        <v>24.064</v>
+        <v>20.341</v>
       </c>
       <c r="C106" t="n">
-        <v>24.369</v>
+        <v>20.342</v>
       </c>
       <c r="D106" t="n">
-        <v>23.933</v>
+        <v>20</v>
       </c>
       <c r="E106" t="n">
-        <v>24.323</v>
+        <v>20.04</v>
       </c>
       <c r="F106" t="n">
-        <v>460220.2</v>
+        <v>274449.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44353.06249998842</v>
+        <v>44367.49999998842</v>
       </c>
       <c r="B107" t="n">
-        <v>24.315</v>
+        <v>20.04</v>
       </c>
       <c r="C107" t="n">
-        <v>24.318</v>
+        <v>20.307</v>
       </c>
       <c r="D107" t="n">
-        <v>24.003</v>
+        <v>20.016</v>
       </c>
       <c r="E107" t="n">
-        <v>24.107</v>
+        <v>20.268</v>
       </c>
       <c r="F107" t="n">
-        <v>390071.9</v>
+        <v>285158.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44353.08333332176</v>
+        <v>44367.52083332176</v>
       </c>
       <c r="B108" t="n">
-        <v>24.109</v>
+        <v>20.269</v>
       </c>
       <c r="C108" t="n">
-        <v>24.253</v>
+        <v>20.308</v>
       </c>
       <c r="D108" t="n">
-        <v>23.981</v>
+        <v>20.073</v>
       </c>
       <c r="E108" t="n">
-        <v>24.041</v>
+        <v>20.283</v>
       </c>
       <c r="F108" t="n">
-        <v>238841.3</v>
+        <v>267909.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44353.1041666551</v>
+        <v>44367.5416666551</v>
       </c>
       <c r="B109" t="n">
-        <v>24.042</v>
+        <v>20.276</v>
       </c>
       <c r="C109" t="n">
-        <v>24.336</v>
+        <v>20.4</v>
       </c>
       <c r="D109" t="n">
-        <v>23.9</v>
+        <v>20.201</v>
       </c>
       <c r="E109" t="n">
-        <v>24.181</v>
+        <v>20.25</v>
       </c>
       <c r="F109" t="n">
-        <v>356896.9</v>
+        <v>213670.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44353.12499998842</v>
+        <v>44367.56249998842</v>
       </c>
       <c r="B110" t="n">
-        <v>24.181</v>
+        <v>20.245</v>
       </c>
       <c r="C110" t="n">
-        <v>24.215</v>
+        <v>20.448</v>
       </c>
       <c r="D110" t="n">
-        <v>23.735</v>
+        <v>20.209</v>
       </c>
       <c r="E110" t="n">
-        <v>23.813</v>
+        <v>20.434</v>
       </c>
       <c r="F110" t="n">
-        <v>330820.3</v>
+        <v>208543.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44353.14583332176</v>
+        <v>44367.58333332176</v>
       </c>
       <c r="B111" t="n">
-        <v>23.815</v>
+        <v>20.434</v>
       </c>
       <c r="C111" t="n">
-        <v>24.087</v>
+        <v>20.504</v>
       </c>
       <c r="D111" t="n">
-        <v>23.747</v>
+        <v>20.361</v>
       </c>
       <c r="E111" t="n">
-        <v>24.054</v>
+        <v>20.409</v>
       </c>
       <c r="F111" t="n">
-        <v>347883.2</v>
+        <v>232207.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44353.1666666551</v>
+        <v>44367.6041666551</v>
       </c>
       <c r="B112" t="n">
-        <v>24.055</v>
+        <v>20.409</v>
       </c>
       <c r="C112" t="n">
-        <v>24.132</v>
+        <v>20.496</v>
       </c>
       <c r="D112" t="n">
-        <v>23.926</v>
+        <v>20.328</v>
       </c>
       <c r="E112" t="n">
-        <v>23.959</v>
+        <v>20.344</v>
       </c>
       <c r="F112" t="n">
-        <v>210517.5</v>
+        <v>215719.4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44353.18749998842</v>
+        <v>44367.62499998842</v>
       </c>
       <c r="B113" t="n">
-        <v>23.961</v>
+        <v>20.341</v>
       </c>
       <c r="C113" t="n">
-        <v>24.127</v>
+        <v>20.461</v>
       </c>
       <c r="D113" t="n">
-        <v>23.853</v>
+        <v>20.308</v>
       </c>
       <c r="E113" t="n">
-        <v>24.076</v>
+        <v>20.338</v>
       </c>
       <c r="F113" t="n">
-        <v>277560.8</v>
+        <v>156412.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44353.20833332176</v>
+        <v>44367.64583332176</v>
       </c>
       <c r="B114" t="n">
-        <v>24.076</v>
+        <v>20.344</v>
       </c>
       <c r="C114" t="n">
-        <v>24.08</v>
+        <v>20.412</v>
       </c>
       <c r="D114" t="n">
-        <v>23.624</v>
+        <v>20.228</v>
       </c>
       <c r="E114" t="n">
-        <v>23.738</v>
+        <v>20.409</v>
       </c>
       <c r="F114" t="n">
-        <v>291179</v>
+        <v>237264.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44353.2291666551</v>
+        <v>44367.6666666551</v>
       </c>
       <c r="B115" t="n">
-        <v>23.737</v>
+        <v>20.408</v>
       </c>
       <c r="C115" t="n">
-        <v>24.119</v>
+        <v>20.507</v>
       </c>
       <c r="D115" t="n">
-        <v>23.655</v>
+        <v>20.357</v>
       </c>
       <c r="E115" t="n">
-        <v>23.929</v>
+        <v>20.388</v>
       </c>
       <c r="F115" t="n">
-        <v>309183</v>
+        <v>252523.9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44353.24999998842</v>
+        <v>44367.68749998842</v>
       </c>
       <c r="B116" t="n">
-        <v>23.925</v>
+        <v>20.391</v>
       </c>
       <c r="C116" t="n">
-        <v>24.144</v>
+        <v>20.448</v>
       </c>
       <c r="D116" t="n">
-        <v>23.738</v>
+        <v>20.227</v>
       </c>
       <c r="E116" t="n">
-        <v>23.951</v>
+        <v>20.271</v>
       </c>
       <c r="F116" t="n">
-        <v>391886.8</v>
+        <v>273742.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44353.27083332176</v>
+        <v>44367.70833332176</v>
       </c>
       <c r="B117" t="n">
-        <v>23.948</v>
+        <v>20.268</v>
       </c>
       <c r="C117" t="n">
-        <v>23.948</v>
+        <v>20.372</v>
       </c>
       <c r="D117" t="n">
-        <v>23.144</v>
+        <v>20.19</v>
       </c>
       <c r="E117" t="n">
-        <v>23.208</v>
+        <v>20.334</v>
       </c>
       <c r="F117" t="n">
-        <v>622261</v>
+        <v>232465.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44353.2916666551</v>
+        <v>44367.7291666551</v>
       </c>
       <c r="B118" t="n">
-        <v>23.208</v>
+        <v>20.337</v>
       </c>
       <c r="C118" t="n">
-        <v>23.397</v>
+        <v>20.446</v>
       </c>
       <c r="D118" t="n">
-        <v>22.9</v>
+        <v>20.254</v>
       </c>
       <c r="E118" t="n">
-        <v>23.135</v>
+        <v>20.302</v>
       </c>
       <c r="F118" t="n">
-        <v>699157.3</v>
+        <v>294225.8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44353.31249998842</v>
+        <v>44367.74999998842</v>
       </c>
       <c r="B119" t="n">
-        <v>23.14</v>
+        <v>20.302</v>
       </c>
       <c r="C119" t="n">
-        <v>23.51</v>
+        <v>20.302</v>
       </c>
       <c r="D119" t="n">
-        <v>23.073</v>
+        <v>20.1</v>
       </c>
       <c r="E119" t="n">
-        <v>23.399</v>
+        <v>20.142</v>
       </c>
       <c r="F119" t="n">
-        <v>403215.2</v>
+        <v>456998.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44353.33333332176</v>
+        <v>44367.77083332176</v>
       </c>
       <c r="B120" t="n">
-        <v>23.398</v>
+        <v>20.138</v>
       </c>
       <c r="C120" t="n">
-        <v>23.542</v>
+        <v>20.208</v>
       </c>
       <c r="D120" t="n">
-        <v>23.218</v>
+        <v>20.022</v>
       </c>
       <c r="E120" t="n">
-        <v>23.363</v>
+        <v>20.181</v>
       </c>
       <c r="F120" t="n">
-        <v>400767</v>
+        <v>381139.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44353.3541666551</v>
+        <v>44367.7916666551</v>
       </c>
       <c r="B121" t="n">
-        <v>23.362</v>
+        <v>20.178</v>
       </c>
       <c r="C121" t="n">
-        <v>23.802</v>
+        <v>20.239</v>
       </c>
       <c r="D121" t="n">
-        <v>23.35</v>
+        <v>19.986</v>
       </c>
       <c r="E121" t="n">
-        <v>23.595</v>
+        <v>20.013</v>
       </c>
       <c r="F121" t="n">
-        <v>370715.2</v>
+        <v>386778.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44353.37499998842</v>
+        <v>44367.81249998842</v>
       </c>
       <c r="B122" t="n">
-        <v>23.594</v>
+        <v>20.01</v>
       </c>
       <c r="C122" t="n">
-        <v>23.858</v>
+        <v>20.037</v>
       </c>
       <c r="D122" t="n">
-        <v>23.501</v>
+        <v>19.165</v>
       </c>
       <c r="E122" t="n">
-        <v>23.746</v>
+        <v>19.484</v>
       </c>
       <c r="F122" t="n">
-        <v>262228.7</v>
+        <v>1942962.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44353.39583332176</v>
+        <v>44367.83333332176</v>
       </c>
       <c r="B123" t="n">
-        <v>23.747</v>
+        <v>19.483</v>
       </c>
       <c r="C123" t="n">
-        <v>23.862</v>
+        <v>19.6</v>
       </c>
       <c r="D123" t="n">
-        <v>23.594</v>
+        <v>19.313</v>
       </c>
       <c r="E123" t="n">
-        <v>23.842</v>
+        <v>19.435</v>
       </c>
       <c r="F123" t="n">
-        <v>332470.6</v>
+        <v>728118.2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44353.4166666551</v>
+        <v>44367.8541666551</v>
       </c>
       <c r="B124" t="n">
-        <v>23.843</v>
+        <v>19.43</v>
       </c>
       <c r="C124" t="n">
-        <v>23.926</v>
+        <v>19.479</v>
       </c>
       <c r="D124" t="n">
-        <v>23.699</v>
+        <v>19.184</v>
       </c>
       <c r="E124" t="n">
-        <v>23.765</v>
+        <v>19.232</v>
       </c>
       <c r="F124" t="n">
-        <v>226630.1</v>
+        <v>557795.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44353.43749998842</v>
+        <v>44367.87499998842</v>
       </c>
       <c r="B125" t="n">
-        <v>23.766</v>
+        <v>19.232</v>
       </c>
       <c r="C125" t="n">
-        <v>24.283</v>
+        <v>19.356</v>
       </c>
       <c r="D125" t="n">
-        <v>23.766</v>
+        <v>18.974</v>
       </c>
       <c r="E125" t="n">
-        <v>24.189</v>
+        <v>19.132</v>
       </c>
       <c r="F125" t="n">
-        <v>319528.6</v>
+        <v>855727.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44353.45833332176</v>
+        <v>44367.89583332176</v>
       </c>
       <c r="B126" t="n">
-        <v>24.187</v>
+        <v>19.128</v>
       </c>
       <c r="C126" t="n">
-        <v>24.336</v>
+        <v>19.249</v>
       </c>
       <c r="D126" t="n">
-        <v>24.1</v>
+        <v>18.854</v>
       </c>
       <c r="E126" t="n">
-        <v>24.294</v>
+        <v>19.03</v>
       </c>
       <c r="F126" t="n">
-        <v>292376.8</v>
+        <v>1141337.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44353.4791666551</v>
+        <v>44367.9166666551</v>
       </c>
       <c r="B127" t="n">
-        <v>24.292</v>
+        <v>19.03</v>
       </c>
       <c r="C127" t="n">
-        <v>24.302</v>
+        <v>19.396</v>
       </c>
       <c r="D127" t="n">
-        <v>24.005</v>
+        <v>19.009</v>
       </c>
       <c r="E127" t="n">
-        <v>24.035</v>
+        <v>19.306</v>
       </c>
       <c r="F127" t="n">
-        <v>289677.7</v>
+        <v>848407.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44353.49999998842</v>
+        <v>44367.93749998842</v>
       </c>
       <c r="B128" t="n">
-        <v>24.04</v>
+        <v>19.308</v>
       </c>
       <c r="C128" t="n">
-        <v>24.166</v>
+        <v>19.548</v>
       </c>
       <c r="D128" t="n">
-        <v>24.024</v>
+        <v>19.187</v>
       </c>
       <c r="E128" t="n">
-        <v>24.031</v>
+        <v>19.238</v>
       </c>
       <c r="F128" t="n">
-        <v>178905.9</v>
+        <v>827724.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44353.52083332176</v>
+        <v>44367.95833332176</v>
       </c>
       <c r="B129" t="n">
-        <v>24.031</v>
+        <v>19.243</v>
       </c>
       <c r="C129" t="n">
-        <v>24.166</v>
+        <v>19.4</v>
       </c>
       <c r="D129" t="n">
-        <v>23.848</v>
+        <v>19.229</v>
       </c>
       <c r="E129" t="n">
-        <v>23.909</v>
+        <v>19.294</v>
       </c>
       <c r="F129" t="n">
-        <v>246189.1</v>
+        <v>383336.9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44353.5416666551</v>
+        <v>44367.9791666551</v>
       </c>
       <c r="B130" t="n">
-        <v>23.907</v>
+        <v>19.293</v>
       </c>
       <c r="C130" t="n">
-        <v>23.97</v>
+        <v>19.467</v>
       </c>
       <c r="D130" t="n">
-        <v>23.762</v>
+        <v>19.18</v>
       </c>
       <c r="E130" t="n">
-        <v>23.924</v>
+        <v>19.373</v>
       </c>
       <c r="F130" t="n">
-        <v>253914.6</v>
+        <v>427359.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44353.56249998842</v>
+        <v>44367.99999998842</v>
       </c>
       <c r="B131" t="n">
-        <v>23.924</v>
+        <v>19.378</v>
       </c>
       <c r="C131" t="n">
-        <v>24.16</v>
+        <v>19.613</v>
       </c>
       <c r="D131" t="n">
-        <v>23.924</v>
+        <v>19.363</v>
       </c>
       <c r="E131" t="n">
-        <v>24.114</v>
+        <v>19.596</v>
       </c>
       <c r="F131" t="n">
-        <v>214821.6</v>
+        <v>433326.9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44353.58333332176</v>
+        <v>44368.02083332176</v>
       </c>
       <c r="B132" t="n">
-        <v>24.116</v>
+        <v>19.607</v>
       </c>
       <c r="C132" t="n">
-        <v>24.28</v>
+        <v>19.782</v>
       </c>
       <c r="D132" t="n">
-        <v>24.116</v>
+        <v>19.517</v>
       </c>
       <c r="E132" t="n">
-        <v>24.146</v>
+        <v>19.752</v>
       </c>
       <c r="F132" t="n">
-        <v>201400.9</v>
+        <v>634799.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44353.6041666551</v>
+        <v>44368.0416666551</v>
       </c>
       <c r="B133" t="n">
-        <v>24.152</v>
+        <v>19.748</v>
       </c>
       <c r="C133" t="n">
-        <v>24.214</v>
+        <v>19.895</v>
       </c>
       <c r="D133" t="n">
-        <v>23.956</v>
+        <v>19.704</v>
       </c>
       <c r="E133" t="n">
-        <v>24.108</v>
+        <v>19.867</v>
       </c>
       <c r="F133" t="n">
-        <v>176400.8</v>
+        <v>518333.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44353.62499998842</v>
+        <v>44368.06249998842</v>
       </c>
       <c r="B134" t="n">
-        <v>24.109</v>
+        <v>19.864</v>
       </c>
       <c r="C134" t="n">
-        <v>24.172</v>
+        <v>19.98</v>
       </c>
       <c r="D134" t="n">
-        <v>24.038</v>
+        <v>19.69</v>
       </c>
       <c r="E134" t="n">
-        <v>24.159</v>
+        <v>19.952</v>
       </c>
       <c r="F134" t="n">
-        <v>208591.7</v>
+        <v>717308.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44353.64583332176</v>
+        <v>44368.08333332176</v>
       </c>
       <c r="B135" t="n">
-        <v>24.159</v>
+        <v>19.958</v>
       </c>
       <c r="C135" t="n">
-        <v>24.321</v>
+        <v>19.97</v>
       </c>
       <c r="D135" t="n">
-        <v>23.786</v>
+        <v>19.731</v>
       </c>
       <c r="E135" t="n">
-        <v>23.858</v>
+        <v>19.794</v>
       </c>
       <c r="F135" t="n">
-        <v>403228.2</v>
+        <v>379895.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44353.6666666551</v>
+        <v>44368.1041666551</v>
       </c>
       <c r="B136" t="n">
-        <v>23.859</v>
+        <v>19.794</v>
       </c>
       <c r="C136" t="n">
-        <v>24.084</v>
+        <v>20.046</v>
       </c>
       <c r="D136" t="n">
-        <v>23.789</v>
+        <v>19.664</v>
       </c>
       <c r="E136" t="n">
-        <v>23.94</v>
+        <v>19.99</v>
       </c>
       <c r="F136" t="n">
-        <v>290277.8</v>
+        <v>529056.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44353.68749998842</v>
+        <v>44368.12499998842</v>
       </c>
       <c r="B137" t="n">
-        <v>23.939</v>
+        <v>19.99</v>
       </c>
       <c r="C137" t="n">
-        <v>24.075</v>
+        <v>20.148</v>
       </c>
       <c r="D137" t="n">
-        <v>23.934</v>
+        <v>19.812</v>
       </c>
       <c r="E137" t="n">
-        <v>24.007</v>
+        <v>19.948</v>
       </c>
       <c r="F137" t="n">
-        <v>189855.7</v>
+        <v>547562.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44353.70833332176</v>
+        <v>44368.14583332176</v>
       </c>
       <c r="B138" t="n">
-        <v>24.004</v>
+        <v>19.948</v>
       </c>
       <c r="C138" t="n">
-        <v>24.238</v>
+        <v>20.038</v>
       </c>
       <c r="D138" t="n">
-        <v>24.004</v>
+        <v>19.85</v>
       </c>
       <c r="E138" t="n">
-        <v>24.177</v>
+        <v>20.005</v>
       </c>
       <c r="F138" t="n">
-        <v>266821.4</v>
+        <v>257609.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44353.7291666551</v>
+        <v>44368.1666666551</v>
       </c>
       <c r="B139" t="n">
-        <v>24.177</v>
+        <v>20.009</v>
       </c>
       <c r="C139" t="n">
-        <v>24.336</v>
+        <v>20.243</v>
       </c>
       <c r="D139" t="n">
-        <v>24.123</v>
+        <v>19.972</v>
       </c>
       <c r="E139" t="n">
-        <v>24.177</v>
+        <v>20.198</v>
       </c>
       <c r="F139" t="n">
-        <v>384448.9</v>
+        <v>255471.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44353.74999998842</v>
+        <v>44368.18749998842</v>
       </c>
       <c r="B140" t="n">
-        <v>24.178</v>
+        <v>20.198</v>
       </c>
       <c r="C140" t="n">
-        <v>24.312</v>
+        <v>20.334</v>
       </c>
       <c r="D140" t="n">
-        <v>24.027</v>
+        <v>20.169</v>
       </c>
       <c r="E140" t="n">
-        <v>24.278</v>
+        <v>20.288</v>
       </c>
       <c r="F140" t="n">
-        <v>250577.4</v>
+        <v>325633.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44353.77083332176</v>
+        <v>44368.20833332176</v>
       </c>
       <c r="B141" t="n">
-        <v>24.278</v>
+        <v>20.288</v>
       </c>
       <c r="C141" t="n">
-        <v>24.45</v>
+        <v>20.668</v>
       </c>
       <c r="D141" t="n">
-        <v>24.17</v>
+        <v>20.211</v>
       </c>
       <c r="E141" t="n">
-        <v>24.3</v>
+        <v>20.661</v>
       </c>
       <c r="F141" t="n">
-        <v>307646</v>
+        <v>829318.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44353.7916666551</v>
+        <v>44368.2291666551</v>
       </c>
       <c r="B142" t="n">
-        <v>24.294</v>
+        <v>20.666</v>
       </c>
       <c r="C142" t="n">
-        <v>24.413</v>
+        <v>20.878</v>
       </c>
       <c r="D142" t="n">
-        <v>24.23</v>
+        <v>20.565</v>
       </c>
       <c r="E142" t="n">
-        <v>24.28</v>
+        <v>20.841</v>
       </c>
       <c r="F142" t="n">
-        <v>203546.7</v>
+        <v>615327.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44353.81249998842</v>
+        <v>44368.24999998842</v>
       </c>
       <c r="B143" t="n">
-        <v>24.281</v>
+        <v>20.849</v>
       </c>
       <c r="C143" t="n">
-        <v>24.348</v>
+        <v>20.977</v>
       </c>
       <c r="D143" t="n">
-        <v>24.071</v>
+        <v>20.692</v>
       </c>
       <c r="E143" t="n">
-        <v>24.1</v>
+        <v>20.93</v>
       </c>
       <c r="F143" t="n">
-        <v>292474.7</v>
+        <v>527821.7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44353.83333332176</v>
+        <v>44368.27083332176</v>
       </c>
       <c r="B144" t="n">
-        <v>24.101</v>
+        <v>20.929</v>
       </c>
       <c r="C144" t="n">
-        <v>24.155</v>
+        <v>20.98</v>
       </c>
       <c r="D144" t="n">
-        <v>23.922</v>
+        <v>20.657</v>
       </c>
       <c r="E144" t="n">
-        <v>24.135</v>
+        <v>20.751</v>
       </c>
       <c r="F144" t="n">
-        <v>257802.9</v>
+        <v>416725.8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44353.8541666551</v>
+        <v>44368.2916666551</v>
       </c>
       <c r="B145" t="n">
-        <v>24.135</v>
+        <v>20.751</v>
       </c>
       <c r="C145" t="n">
-        <v>24.261</v>
+        <v>20.878</v>
       </c>
       <c r="D145" t="n">
-        <v>23.9</v>
+        <v>20.617</v>
       </c>
       <c r="E145" t="n">
-        <v>24.02</v>
+        <v>20.62</v>
       </c>
       <c r="F145" t="n">
-        <v>312176.7</v>
+        <v>271904.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44353.87499998842</v>
+        <v>44368.31249998842</v>
       </c>
       <c r="B146" t="n">
-        <v>24.019</v>
+        <v>20.622</v>
       </c>
       <c r="C146" t="n">
-        <v>24.118</v>
+        <v>20.85</v>
       </c>
       <c r="D146" t="n">
-        <v>23.93</v>
+        <v>20.622</v>
       </c>
       <c r="E146" t="n">
-        <v>23.952</v>
+        <v>20.717</v>
       </c>
       <c r="F146" t="n">
-        <v>171679.1</v>
+        <v>257280</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44353.89583332176</v>
+        <v>44368.33333332176</v>
       </c>
       <c r="B147" t="n">
-        <v>23.952</v>
+        <v>20.719</v>
       </c>
       <c r="C147" t="n">
-        <v>24.177</v>
+        <v>20.899</v>
       </c>
       <c r="D147" t="n">
-        <v>23.902</v>
+        <v>20.718</v>
       </c>
       <c r="E147" t="n">
-        <v>24.145</v>
+        <v>20.843</v>
       </c>
       <c r="F147" t="n">
-        <v>227735.4</v>
+        <v>274182.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44353.9166666551</v>
+        <v>44368.3541666551</v>
       </c>
       <c r="B148" t="n">
-        <v>24.146</v>
+        <v>20.846</v>
       </c>
       <c r="C148" t="n">
-        <v>24.153</v>
+        <v>20.872</v>
       </c>
       <c r="D148" t="n">
-        <v>23.927</v>
+        <v>20.702</v>
       </c>
       <c r="E148" t="n">
-        <v>23.985</v>
+        <v>20.708</v>
       </c>
       <c r="F148" t="n">
-        <v>238673.3</v>
+        <v>222477.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44353.93749998842</v>
+        <v>44368.37499998842</v>
       </c>
       <c r="B149" t="n">
-        <v>23.985</v>
+        <v>20.707</v>
       </c>
       <c r="C149" t="n">
-        <v>24.13</v>
+        <v>20.784</v>
       </c>
       <c r="D149" t="n">
-        <v>23.7</v>
+        <v>20.542</v>
       </c>
       <c r="E149" t="n">
-        <v>23.804</v>
+        <v>20.605</v>
       </c>
       <c r="F149" t="n">
-        <v>404867.9</v>
+        <v>278223.8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44353.95833332176</v>
+        <v>44368.39583332176</v>
       </c>
       <c r="B150" t="n">
-        <v>23.807</v>
+        <v>20.605</v>
       </c>
       <c r="C150" t="n">
-        <v>23.917</v>
+        <v>20.787</v>
       </c>
       <c r="D150" t="n">
-        <v>23.607</v>
+        <v>20.317</v>
       </c>
       <c r="E150" t="n">
-        <v>23.699</v>
+        <v>20.42</v>
       </c>
       <c r="F150" t="n">
-        <v>360338.2</v>
+        <v>561715.1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44353.9791666551</v>
+        <v>44368.4166666551</v>
       </c>
       <c r="B151" t="n">
-        <v>23.706</v>
+        <v>20.42</v>
       </c>
       <c r="C151" t="n">
-        <v>23.84</v>
+        <v>20.529</v>
       </c>
       <c r="D151" t="n">
-        <v>23.539</v>
+        <v>20.377</v>
       </c>
       <c r="E151" t="n">
-        <v>23.832</v>
+        <v>20.514</v>
       </c>
       <c r="F151" t="n">
-        <v>332725.7</v>
+        <v>170671.6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44353.99999998842</v>
+        <v>44368.43749998842</v>
       </c>
       <c r="B152" t="n">
-        <v>23.826</v>
+        <v>20.514</v>
       </c>
       <c r="C152" t="n">
-        <v>24.122</v>
+        <v>20.579</v>
       </c>
       <c r="D152" t="n">
-        <v>23.744</v>
+        <v>20.264</v>
       </c>
       <c r="E152" t="n">
-        <v>24.057</v>
+        <v>20.264</v>
       </c>
       <c r="F152" t="n">
-        <v>375119</v>
+        <v>218934.1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44354.02083332176</v>
+        <v>44368.45833332176</v>
       </c>
       <c r="B153" t="n">
-        <v>24.053</v>
+        <v>20.265</v>
       </c>
       <c r="C153" t="n">
-        <v>24.3</v>
+        <v>20.412</v>
       </c>
       <c r="D153" t="n">
-        <v>23.967</v>
+        <v>20.135</v>
       </c>
       <c r="E153" t="n">
-        <v>24.25</v>
+        <v>20.162</v>
       </c>
       <c r="F153" t="n">
-        <v>465820.2</v>
+        <v>266367.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44354.0416666551</v>
+        <v>44368.4791666551</v>
       </c>
       <c r="B154" t="n">
-        <v>24.251</v>
+        <v>20.161</v>
       </c>
       <c r="C154" t="n">
-        <v>24.28</v>
+        <v>20.348</v>
       </c>
       <c r="D154" t="n">
-        <v>24.078</v>
+        <v>20.111</v>
       </c>
       <c r="E154" t="n">
-        <v>24.182</v>
+        <v>20.123</v>
       </c>
       <c r="F154" t="n">
-        <v>228643.1</v>
+        <v>272412</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44354.06249998842</v>
+        <v>44368.49999998842</v>
       </c>
       <c r="B155" t="n">
-        <v>24.183</v>
+        <v>20.122</v>
       </c>
       <c r="C155" t="n">
-        <v>24.343</v>
+        <v>20.146</v>
       </c>
       <c r="D155" t="n">
-        <v>24.136</v>
+        <v>19.761</v>
       </c>
       <c r="E155" t="n">
-        <v>24.196</v>
+        <v>20.008</v>
       </c>
       <c r="F155" t="n">
-        <v>278729.2</v>
+        <v>695973.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44354.08333332176</v>
+        <v>44368.52083332176</v>
       </c>
       <c r="B156" t="n">
-        <v>24.196</v>
+        <v>20.001</v>
       </c>
       <c r="C156" t="n">
-        <v>24.294</v>
+        <v>20.001</v>
       </c>
       <c r="D156" t="n">
-        <v>24.174</v>
+        <v>19.665</v>
       </c>
       <c r="E156" t="n">
-        <v>24.265</v>
+        <v>19.697</v>
       </c>
       <c r="F156" t="n">
-        <v>132498.6</v>
+        <v>412807.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44354.1041666551</v>
+        <v>44368.5416666551</v>
       </c>
       <c r="B157" t="n">
-        <v>24.262</v>
+        <v>19.701</v>
       </c>
       <c r="C157" t="n">
-        <v>24.4</v>
+        <v>19.767</v>
       </c>
       <c r="D157" t="n">
-        <v>24.2</v>
+        <v>19.406</v>
       </c>
       <c r="E157" t="n">
-        <v>24.255</v>
+        <v>19.423</v>
       </c>
       <c r="F157" t="n">
-        <v>312359.6</v>
+        <v>552712.1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44354.12499998842</v>
+        <v>44368.56249998842</v>
       </c>
       <c r="B158" t="n">
-        <v>24.253</v>
+        <v>19.424</v>
       </c>
       <c r="C158" t="n">
-        <v>24.313</v>
+        <v>19.493</v>
       </c>
       <c r="D158" t="n">
-        <v>24.024</v>
+        <v>19.019</v>
       </c>
       <c r="E158" t="n">
-        <v>24.062</v>
+        <v>19.071</v>
       </c>
       <c r="F158" t="n">
-        <v>256168.9</v>
+        <v>880847.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44354.14583332176</v>
+        <v>44368.58333332176</v>
       </c>
       <c r="B159" t="n">
-        <v>24.063</v>
+        <v>19.07</v>
       </c>
       <c r="C159" t="n">
-        <v>24.069</v>
+        <v>19.379</v>
       </c>
       <c r="D159" t="n">
-        <v>23.85</v>
+        <v>18.87</v>
       </c>
       <c r="E159" t="n">
-        <v>23.908</v>
+        <v>19.368</v>
       </c>
       <c r="F159" t="n">
-        <v>304513.7</v>
+        <v>1020148.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44354.1666666551</v>
+        <v>44368.6041666551</v>
       </c>
       <c r="B160" t="n">
-        <v>23.908</v>
+        <v>19.369</v>
       </c>
       <c r="C160" t="n">
-        <v>24.016</v>
+        <v>19.51</v>
       </c>
       <c r="D160" t="n">
-        <v>23.868</v>
+        <v>19.05</v>
       </c>
       <c r="E160" t="n">
-        <v>23.913</v>
+        <v>19.3</v>
       </c>
       <c r="F160" t="n">
-        <v>223976.6</v>
+        <v>1086491.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44354.18749998842</v>
+        <v>44368.62499998842</v>
       </c>
       <c r="B161" t="n">
-        <v>23.912</v>
+        <v>19.299</v>
       </c>
       <c r="C161" t="n">
-        <v>23.914</v>
+        <v>19.554</v>
       </c>
       <c r="D161" t="n">
-        <v>23.755</v>
+        <v>19.281</v>
       </c>
       <c r="E161" t="n">
-        <v>23.836</v>
+        <v>19.526</v>
       </c>
       <c r="F161" t="n">
-        <v>170671.8</v>
+        <v>538998.6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44354.20833332176</v>
+        <v>44368.64583332176</v>
       </c>
       <c r="B162" t="n">
-        <v>23.836</v>
+        <v>19.526</v>
       </c>
       <c r="C162" t="n">
-        <v>23.84</v>
+        <v>19.64</v>
       </c>
       <c r="D162" t="n">
-        <v>23.731</v>
+        <v>18.725</v>
       </c>
       <c r="E162" t="n">
-        <v>23.769</v>
+        <v>18.879</v>
       </c>
       <c r="F162" t="n">
-        <v>189112.9</v>
+        <v>1033754.3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44354.2291666551</v>
+        <v>44368.6666666551</v>
       </c>
       <c r="B163" t="n">
-        <v>23.768</v>
+        <v>18.885</v>
       </c>
       <c r="C163" t="n">
-        <v>23.974</v>
+        <v>18.891</v>
       </c>
       <c r="D163" t="n">
-        <v>23.671</v>
+        <v>17.913</v>
       </c>
       <c r="E163" t="n">
-        <v>23.88</v>
+        <v>18.217</v>
       </c>
       <c r="F163" t="n">
-        <v>286414.5</v>
+        <v>3243541</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44354.24999998842</v>
+        <v>44368.68749998842</v>
       </c>
       <c r="B164" t="n">
-        <v>23.88</v>
+        <v>18.22</v>
       </c>
       <c r="C164" t="n">
-        <v>24.158</v>
+        <v>18.484</v>
       </c>
       <c r="D164" t="n">
-        <v>23.801</v>
+        <v>18</v>
       </c>
       <c r="E164" t="n">
-        <v>24.123</v>
+        <v>18.169</v>
       </c>
       <c r="F164" t="n">
-        <v>176781.3</v>
+        <v>1429965.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44354.27083332176</v>
+        <v>44368.70833332176</v>
       </c>
       <c r="B165" t="n">
-        <v>24.124</v>
+        <v>18.172</v>
       </c>
       <c r="C165" t="n">
-        <v>24.145</v>
+        <v>18.3</v>
       </c>
       <c r="D165" t="n">
-        <v>24.013</v>
+        <v>17.945</v>
       </c>
       <c r="E165" t="n">
-        <v>24.106</v>
+        <v>18.185</v>
       </c>
       <c r="F165" t="n">
-        <v>161916.4</v>
+        <v>1037961.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44354.2916666551</v>
+        <v>44368.7291666551</v>
       </c>
       <c r="B166" t="n">
-        <v>24.106</v>
+        <v>18.187</v>
       </c>
       <c r="C166" t="n">
-        <v>24.214</v>
+        <v>18.413</v>
       </c>
       <c r="D166" t="n">
-        <v>24.064</v>
+        <v>18.049</v>
       </c>
       <c r="E166" t="n">
-        <v>24.199</v>
+        <v>18.281</v>
       </c>
       <c r="F166" t="n">
-        <v>170983.1</v>
+        <v>695882.8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44354.31249998842</v>
+        <v>44368.74999998842</v>
       </c>
       <c r="B167" t="n">
-        <v>24.199</v>
+        <v>18.277</v>
       </c>
       <c r="C167" t="n">
-        <v>24.199</v>
+        <v>18.277</v>
       </c>
       <c r="D167" t="n">
-        <v>23.723</v>
+        <v>18.032</v>
       </c>
       <c r="E167" t="n">
-        <v>23.849</v>
+        <v>18.112</v>
       </c>
       <c r="F167" t="n">
-        <v>329891.9</v>
+        <v>544100.8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44354.33333332176</v>
+        <v>44368.77083332176</v>
       </c>
       <c r="B168" t="n">
-        <v>23.848</v>
+        <v>18.107</v>
       </c>
       <c r="C168" t="n">
-        <v>23.955</v>
+        <v>18.352</v>
       </c>
       <c r="D168" t="n">
-        <v>23.572</v>
+        <v>17.482</v>
       </c>
       <c r="E168" t="n">
-        <v>23.926</v>
+        <v>17.876</v>
       </c>
       <c r="F168" t="n">
-        <v>499396.6</v>
+        <v>2753991.2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44354.3541666551</v>
+        <v>44368.7916666551</v>
       </c>
       <c r="B169" t="n">
-        <v>23.926</v>
+        <v>17.872</v>
       </c>
       <c r="C169" t="n">
-        <v>24.052</v>
+        <v>18.092</v>
       </c>
       <c r="D169" t="n">
-        <v>23.845</v>
+        <v>17.726</v>
       </c>
       <c r="E169" t="n">
-        <v>23.969</v>
+        <v>17.926</v>
       </c>
       <c r="F169" t="n">
-        <v>234948.4</v>
+        <v>1329906.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44354.37499998842</v>
+        <v>44368.81249998842</v>
       </c>
       <c r="B170" t="n">
-        <v>23.967</v>
+        <v>17.925</v>
       </c>
       <c r="C170" t="n">
-        <v>24.187</v>
+        <v>17.974</v>
       </c>
       <c r="D170" t="n">
-        <v>23.923</v>
+        <v>17.161</v>
       </c>
       <c r="E170" t="n">
-        <v>24.178</v>
+        <v>17.173</v>
       </c>
       <c r="F170" t="n">
-        <v>239328</v>
+        <v>1792274.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44354.39583332176</v>
+        <v>44368.83333332176</v>
       </c>
       <c r="B171" t="n">
-        <v>24.175</v>
+        <v>17.173</v>
       </c>
       <c r="C171" t="n">
-        <v>24.4</v>
+        <v>17.679</v>
       </c>
       <c r="D171" t="n">
-        <v>23.891</v>
+        <v>16.875</v>
       </c>
       <c r="E171" t="n">
-        <v>24.274</v>
+        <v>17.112</v>
       </c>
       <c r="F171" t="n">
-        <v>716480.5</v>
+        <v>2200572.1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44354.4166666551</v>
+        <v>44368.8541666551</v>
       </c>
       <c r="B172" t="n">
-        <v>24.268</v>
+        <v>17.108</v>
       </c>
       <c r="C172" t="n">
-        <v>24.637</v>
+        <v>17.268</v>
       </c>
       <c r="D172" t="n">
-        <v>24.171</v>
+        <v>16.53</v>
       </c>
       <c r="E172" t="n">
-        <v>24.577</v>
+        <v>16.554</v>
       </c>
       <c r="F172" t="n">
-        <v>526237</v>
+        <v>2638718.8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44354.43749998842</v>
+        <v>44368.87499998842</v>
       </c>
       <c r="B173" t="n">
-        <v>24.578</v>
+        <v>16.552</v>
       </c>
       <c r="C173" t="n">
-        <v>24.691</v>
+        <v>17.551</v>
       </c>
       <c r="D173" t="n">
-        <v>24.501</v>
+        <v>16.537</v>
       </c>
       <c r="E173" t="n">
-        <v>24.631</v>
+        <v>17.479</v>
       </c>
       <c r="F173" t="n">
-        <v>365308.6</v>
+        <v>2463668.8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44354.45833332176</v>
+        <v>44368.89583332176</v>
       </c>
       <c r="B174" t="n">
-        <v>24.629</v>
+        <v>17.478</v>
       </c>
       <c r="C174" t="n">
-        <v>25.083</v>
+        <v>17.566</v>
       </c>
       <c r="D174" t="n">
-        <v>24.602</v>
+        <v>17.127</v>
       </c>
       <c r="E174" t="n">
-        <v>25.067</v>
+        <v>17.541</v>
       </c>
       <c r="F174" t="n">
-        <v>717184.6</v>
+        <v>1333869.9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44354.4791666551</v>
+        <v>44368.9166666551</v>
       </c>
       <c r="B175" t="n">
-        <v>25.067</v>
+        <v>17.538</v>
       </c>
       <c r="C175" t="n">
-        <v>25.238</v>
+        <v>17.538</v>
       </c>
       <c r="D175" t="n">
-        <v>25.041</v>
+        <v>17.023</v>
       </c>
       <c r="E175" t="n">
-        <v>25.076</v>
+        <v>17.132</v>
       </c>
       <c r="F175" t="n">
-        <v>572336.6</v>
+        <v>1159327.8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44354.49999998842</v>
+        <v>44368.93749998842</v>
       </c>
       <c r="B176" t="n">
-        <v>25.075</v>
+        <v>17.134</v>
       </c>
       <c r="C176" t="n">
-        <v>25.208</v>
+        <v>17.49</v>
       </c>
       <c r="D176" t="n">
-        <v>25.05</v>
+        <v>16.908</v>
       </c>
       <c r="E176" t="n">
-        <v>25.144</v>
+        <v>17.425</v>
       </c>
       <c r="F176" t="n">
-        <v>328998.3</v>
+        <v>1313406</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44354.52083332176</v>
+        <v>44368.95833332176</v>
       </c>
       <c r="B177" t="n">
-        <v>25.144</v>
+        <v>17.427</v>
       </c>
       <c r="C177" t="n">
-        <v>25.198</v>
+        <v>18.224</v>
       </c>
       <c r="D177" t="n">
-        <v>24.783</v>
+        <v>17.288</v>
       </c>
       <c r="E177" t="n">
-        <v>24.921</v>
+        <v>18.207</v>
       </c>
       <c r="F177" t="n">
-        <v>427533.4</v>
+        <v>1523606.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44354.5416666551</v>
+        <v>44368.9791666551</v>
       </c>
       <c r="B178" t="n">
-        <v>24.921</v>
+        <v>18.214</v>
       </c>
       <c r="C178" t="n">
-        <v>24.948</v>
+        <v>18.223</v>
       </c>
       <c r="D178" t="n">
-        <v>24.694</v>
+        <v>17.503</v>
       </c>
       <c r="E178" t="n">
-        <v>24.9</v>
+        <v>17.706</v>
       </c>
       <c r="F178" t="n">
-        <v>494373.6</v>
+        <v>1326219.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44354.56249998842</v>
+        <v>44368.99999998842</v>
       </c>
       <c r="B179" t="n">
-        <v>24.9</v>
+        <v>17.704</v>
       </c>
       <c r="C179" t="n">
-        <v>25.08</v>
+        <v>18.063</v>
       </c>
       <c r="D179" t="n">
-        <v>24.706</v>
+        <v>17.681</v>
       </c>
       <c r="E179" t="n">
-        <v>24.877</v>
+        <v>17.854</v>
       </c>
       <c r="F179" t="n">
-        <v>376023</v>
+        <v>905368.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44354.58333332176</v>
+        <v>44369.02083332176</v>
       </c>
       <c r="B180" t="n">
-        <v>24.88</v>
+        <v>17.853</v>
       </c>
       <c r="C180" t="n">
-        <v>24.923</v>
+        <v>17.998</v>
       </c>
       <c r="D180" t="n">
-        <v>24.744</v>
+        <v>17.654</v>
       </c>
       <c r="E180" t="n">
-        <v>24.811</v>
+        <v>17.675</v>
       </c>
       <c r="F180" t="n">
-        <v>195657.2</v>
+        <v>814384.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44354.6041666551</v>
+        <v>44369.0416666551</v>
       </c>
       <c r="B181" t="n">
-        <v>24.807</v>
+        <v>17.67</v>
       </c>
       <c r="C181" t="n">
-        <v>24.885</v>
+        <v>17.738</v>
       </c>
       <c r="D181" t="n">
-        <v>24.753</v>
+        <v>17.344</v>
       </c>
       <c r="E181" t="n">
-        <v>24.794</v>
+        <v>17.624</v>
       </c>
       <c r="F181" t="n">
-        <v>213973.6</v>
+        <v>741455</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44354.62499998842</v>
+        <v>44369.06249998842</v>
       </c>
       <c r="B182" t="n">
-        <v>24.794</v>
+        <v>17.619</v>
       </c>
       <c r="C182" t="n">
-        <v>24.91</v>
+        <v>17.98</v>
       </c>
       <c r="D182" t="n">
-        <v>24.63</v>
+        <v>17.401</v>
       </c>
       <c r="E182" t="n">
-        <v>24.79</v>
+        <v>17.411</v>
       </c>
       <c r="F182" t="n">
-        <v>320091.9</v>
+        <v>1158155</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44354.64583332176</v>
+        <v>44369.08333332176</v>
       </c>
       <c r="B183" t="n">
-        <v>24.789</v>
+        <v>17.41</v>
       </c>
       <c r="C183" t="n">
-        <v>24.879</v>
+        <v>17.478</v>
       </c>
       <c r="D183" t="n">
-        <v>24.627</v>
+        <v>16.607</v>
       </c>
       <c r="E183" t="n">
-        <v>24.646</v>
+        <v>16.709</v>
       </c>
       <c r="F183" t="n">
-        <v>409387.9</v>
+        <v>2026593.7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44354.6666666551</v>
+        <v>44369.1041666551</v>
       </c>
       <c r="B184" t="n">
-        <v>24.646</v>
+        <v>16.704</v>
       </c>
       <c r="C184" t="n">
-        <v>24.758</v>
+        <v>17.187</v>
       </c>
       <c r="D184" t="n">
-        <v>24.462</v>
+        <v>16.657</v>
       </c>
       <c r="E184" t="n">
-        <v>24.497</v>
+        <v>16.898</v>
       </c>
       <c r="F184" t="n">
-        <v>446556</v>
+        <v>1145943.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44354.68749998842</v>
+        <v>44369.12499998842</v>
       </c>
       <c r="B185" t="n">
-        <v>24.499</v>
+        <v>16.896</v>
       </c>
       <c r="C185" t="n">
-        <v>24.595</v>
+        <v>17.13</v>
       </c>
       <c r="D185" t="n">
-        <v>24.349</v>
+        <v>16.676</v>
       </c>
       <c r="E185" t="n">
-        <v>24.5</v>
+        <v>16.751</v>
       </c>
       <c r="F185" t="n">
-        <v>464426.4</v>
+        <v>694128</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44354.70833332176</v>
+        <v>44369.14583332176</v>
       </c>
       <c r="B186" t="n">
-        <v>24.501</v>
+        <v>16.75</v>
       </c>
       <c r="C186" t="n">
-        <v>24.757</v>
+        <v>17.08</v>
       </c>
       <c r="D186" t="n">
-        <v>24.5</v>
+        <v>16.714</v>
       </c>
       <c r="E186" t="n">
-        <v>24.695</v>
+        <v>16.917</v>
       </c>
       <c r="F186" t="n">
-        <v>263039.4</v>
+        <v>734193.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44354.7291666551</v>
+        <v>44369.1666666551</v>
       </c>
       <c r="B187" t="n">
-        <v>24.694</v>
+        <v>16.917</v>
       </c>
       <c r="C187" t="n">
-        <v>24.842</v>
+        <v>17.327</v>
       </c>
       <c r="D187" t="n">
-        <v>24.436</v>
+        <v>16.88</v>
       </c>
       <c r="E187" t="n">
-        <v>24.492</v>
+        <v>17.265</v>
       </c>
       <c r="F187" t="n">
-        <v>278200</v>
+        <v>509471.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44354.74999998842</v>
+        <v>44369.18749998842</v>
       </c>
       <c r="B188" t="n">
-        <v>24.493</v>
+        <v>17.264</v>
       </c>
       <c r="C188" t="n">
-        <v>24.607</v>
+        <v>17.319</v>
       </c>
       <c r="D188" t="n">
-        <v>24.468</v>
+        <v>16.827</v>
       </c>
       <c r="E188" t="n">
-        <v>24.49</v>
+        <v>16.833</v>
       </c>
       <c r="F188" t="n">
-        <v>161201.2</v>
+        <v>632359.8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44354.77083332176</v>
+        <v>44369.20833332176</v>
       </c>
       <c r="B189" t="n">
-        <v>24.493</v>
+        <v>16.834</v>
       </c>
       <c r="C189" t="n">
-        <v>24.758</v>
+        <v>17.168</v>
       </c>
       <c r="D189" t="n">
-        <v>24.38</v>
+        <v>16.702</v>
       </c>
       <c r="E189" t="n">
-        <v>24.75</v>
+        <v>17.118</v>
       </c>
       <c r="F189" t="n">
-        <v>325947.3</v>
+        <v>626999.2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44354.7916666551</v>
+        <v>44369.2291666551</v>
       </c>
       <c r="B190" t="n">
-        <v>24.749</v>
+        <v>17.118</v>
       </c>
       <c r="C190" t="n">
-        <v>24.757</v>
+        <v>17.27</v>
       </c>
       <c r="D190" t="n">
-        <v>24.617</v>
+        <v>16.979</v>
       </c>
       <c r="E190" t="n">
-        <v>24.641</v>
+        <v>17.089</v>
       </c>
       <c r="F190" t="n">
-        <v>203001.1</v>
+        <v>530058.9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44354.81249998842</v>
+        <v>44369.24999998842</v>
       </c>
       <c r="B191" t="n">
-        <v>24.634</v>
+        <v>17.087</v>
       </c>
       <c r="C191" t="n">
-        <v>25.08</v>
+        <v>17.294</v>
       </c>
       <c r="D191" t="n">
-        <v>24.634</v>
+        <v>17.015</v>
       </c>
       <c r="E191" t="n">
-        <v>25.054</v>
+        <v>17.036</v>
       </c>
       <c r="F191" t="n">
-        <v>473076.5</v>
+        <v>440645.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44354.83333332176</v>
+        <v>44369.27083332176</v>
       </c>
       <c r="B192" t="n">
-        <v>25.053</v>
+        <v>17.036</v>
       </c>
       <c r="C192" t="n">
-        <v>25.084</v>
+        <v>17.048</v>
       </c>
       <c r="D192" t="n">
-        <v>24.923</v>
+        <v>16.46</v>
       </c>
       <c r="E192" t="n">
-        <v>24.98</v>
+        <v>16.506</v>
       </c>
       <c r="F192" t="n">
-        <v>267937</v>
+        <v>1197770.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44354.8541666551</v>
+        <v>44369.2916666551</v>
       </c>
       <c r="B193" t="n">
-        <v>24.98</v>
+        <v>16.504</v>
       </c>
       <c r="C193" t="n">
-        <v>25.013</v>
+        <v>16.675</v>
       </c>
       <c r="D193" t="n">
-        <v>24.847</v>
+        <v>15.8</v>
       </c>
       <c r="E193" t="n">
-        <v>24.938</v>
+        <v>15.832</v>
       </c>
       <c r="F193" t="n">
-        <v>259146.4</v>
+        <v>2330105.3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44354.87499998842</v>
+        <v>44369.31249998842</v>
       </c>
       <c r="B194" t="n">
-        <v>24.939</v>
+        <v>15.835</v>
       </c>
       <c r="C194" t="n">
-        <v>24.939</v>
+        <v>16.476</v>
       </c>
       <c r="D194" t="n">
-        <v>24.765</v>
+        <v>15.825</v>
       </c>
       <c r="E194" t="n">
-        <v>24.845</v>
+        <v>16.274</v>
       </c>
       <c r="F194" t="n">
-        <v>234255.7</v>
+        <v>1293448.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44354.89583332176</v>
+        <v>44369.33333332176</v>
       </c>
       <c r="B195" t="n">
-        <v>24.844</v>
+        <v>16.271</v>
       </c>
       <c r="C195" t="n">
-        <v>25.186</v>
+        <v>16.281</v>
       </c>
       <c r="D195" t="n">
-        <v>24.798</v>
+        <v>15.34</v>
       </c>
       <c r="E195" t="n">
-        <v>25.144</v>
+        <v>15.359</v>
       </c>
       <c r="F195" t="n">
-        <v>432686.1</v>
+        <v>1917615.4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44354.9166666551</v>
+        <v>44369.3541666551</v>
       </c>
       <c r="B196" t="n">
-        <v>25.139</v>
+        <v>15.359</v>
       </c>
       <c r="C196" t="n">
-        <v>25.288</v>
+        <v>15.988</v>
       </c>
       <c r="D196" t="n">
-        <v>25.089</v>
+        <v>15.358</v>
       </c>
       <c r="E196" t="n">
-        <v>25.125</v>
+        <v>15.878</v>
       </c>
       <c r="F196" t="n">
-        <v>581335.7</v>
+        <v>1565307.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44354.93749998842</v>
+        <v>44369.37499998842</v>
       </c>
       <c r="B197" t="n">
-        <v>25.126</v>
+        <v>15.879</v>
       </c>
       <c r="C197" t="n">
-        <v>25.206</v>
+        <v>16.022</v>
       </c>
       <c r="D197" t="n">
-        <v>24.95</v>
+        <v>15.614</v>
       </c>
       <c r="E197" t="n">
-        <v>25.022</v>
+        <v>15.697</v>
       </c>
       <c r="F197" t="n">
-        <v>426133.1</v>
+        <v>998885</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44354.95833332176</v>
+        <v>44369.39583332176</v>
       </c>
       <c r="B198" t="n">
-        <v>25.022</v>
+        <v>15.699</v>
       </c>
       <c r="C198" t="n">
-        <v>25.07</v>
+        <v>15.821</v>
       </c>
       <c r="D198" t="n">
-        <v>24.83</v>
+        <v>14.984</v>
       </c>
       <c r="E198" t="n">
-        <v>24.883</v>
+        <v>15.13</v>
       </c>
       <c r="F198" t="n">
-        <v>380616.7</v>
+        <v>1839806.1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44354.9791666551</v>
+        <v>44369.4166666551</v>
       </c>
       <c r="B199" t="n">
-        <v>24.885</v>
+        <v>15.132</v>
       </c>
       <c r="C199" t="n">
-        <v>24.888</v>
+        <v>15.659</v>
       </c>
       <c r="D199" t="n">
-        <v>24.606</v>
+        <v>15.09</v>
       </c>
       <c r="E199" t="n">
-        <v>24.778</v>
+        <v>15.609</v>
       </c>
       <c r="F199" t="n">
-        <v>623866.8</v>
+        <v>1029242.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44354.99999998842</v>
+        <v>44369.43749998842</v>
       </c>
       <c r="B200" t="n">
-        <v>24.775</v>
+        <v>15.609</v>
       </c>
       <c r="C200" t="n">
-        <v>24.794</v>
+        <v>16.712</v>
       </c>
       <c r="D200" t="n">
-        <v>24.51</v>
+        <v>15.609</v>
       </c>
       <c r="E200" t="n">
-        <v>24.659</v>
+        <v>16.26</v>
       </c>
       <c r="F200" t="n">
-        <v>407880.2</v>
+        <v>1842235.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44355.02083332176</v>
+        <v>44369.45833332176</v>
       </c>
       <c r="B201" t="n">
-        <v>24.66</v>
+        <v>16.262</v>
       </c>
       <c r="C201" t="n">
-        <v>24.66</v>
+        <v>16.277</v>
       </c>
       <c r="D201" t="n">
-        <v>24.651</v>
+        <v>16.262</v>
       </c>
       <c r="E201" t="n">
-        <v>24.651</v>
+        <v>16.277</v>
       </c>
       <c r="F201" t="n">
-        <v>495.4</v>
+        <v>1446.1</v>
       </c>
     </row>
   </sheetData>

--- a/fishing_prev_close/DOTUSDT.xlsx
+++ b/fishing_prev_close/DOTUSDT.xlsx
@@ -401,4002 +401,4002 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44365.31249998842</v>
+        <v>44377.33333332176</v>
       </c>
       <c r="B2" t="n">
-        <v>22.22</v>
+        <v>16.061</v>
       </c>
       <c r="C2" t="n">
-        <v>22.243</v>
+        <v>16.308</v>
       </c>
       <c r="D2" t="n">
-        <v>22.071</v>
+        <v>16.051</v>
       </c>
       <c r="E2" t="n">
-        <v>22.212</v>
+        <v>16.055</v>
       </c>
       <c r="F2" t="n">
-        <v>216024.2</v>
+        <v>526366.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44365.33333332176</v>
+        <v>44377.3541666551</v>
       </c>
       <c r="B3" t="n">
-        <v>22.211</v>
+        <v>16.053</v>
       </c>
       <c r="C3" t="n">
-        <v>22.307</v>
+        <v>16.256</v>
       </c>
       <c r="D3" t="n">
-        <v>22.023</v>
+        <v>16.04</v>
       </c>
       <c r="E3" t="n">
-        <v>22.299</v>
+        <v>16.2</v>
       </c>
       <c r="F3" t="n">
-        <v>267642.5</v>
+        <v>526184.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44365.3541666551</v>
+        <v>44377.37499998842</v>
       </c>
       <c r="B4" t="n">
-        <v>22.3</v>
+        <v>16.203</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5</v>
+        <v>16.379</v>
       </c>
       <c r="D4" t="n">
-        <v>22.244</v>
+        <v>16.162</v>
       </c>
       <c r="E4" t="n">
-        <v>22.36</v>
+        <v>16.304</v>
       </c>
       <c r="F4" t="n">
-        <v>452591</v>
+        <v>725705.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44365.37499998842</v>
+        <v>44377.39583332176</v>
       </c>
       <c r="B5" t="n">
-        <v>22.358</v>
+        <v>16.304</v>
       </c>
       <c r="C5" t="n">
-        <v>22.553</v>
+        <v>16.45</v>
       </c>
       <c r="D5" t="n">
-        <v>22.28</v>
+        <v>16.002</v>
       </c>
       <c r="E5" t="n">
-        <v>22.527</v>
+        <v>16.436</v>
       </c>
       <c r="F5" t="n">
-        <v>218928</v>
+        <v>733224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44365.39583332176</v>
+        <v>44377.4166666551</v>
       </c>
       <c r="B6" t="n">
-        <v>22.529</v>
+        <v>16.438</v>
       </c>
       <c r="C6" t="n">
-        <v>22.562</v>
+        <v>16.496</v>
       </c>
       <c r="D6" t="n">
-        <v>22.39</v>
+        <v>16.335</v>
       </c>
       <c r="E6" t="n">
-        <v>22.391</v>
+        <v>16.363</v>
       </c>
       <c r="F6" t="n">
-        <v>258626.7</v>
+        <v>535990.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44365.4166666551</v>
+        <v>44377.43749998842</v>
       </c>
       <c r="B7" t="n">
-        <v>22.392</v>
+        <v>16.363</v>
       </c>
       <c r="C7" t="n">
-        <v>22.479</v>
+        <v>16.364</v>
       </c>
       <c r="D7" t="n">
-        <v>22.126</v>
+        <v>16.07</v>
       </c>
       <c r="E7" t="n">
-        <v>22.182</v>
+        <v>16.14</v>
       </c>
       <c r="F7" t="n">
-        <v>266526.9</v>
+        <v>609499.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44365.43749998842</v>
+        <v>44377.45833332176</v>
       </c>
       <c r="B8" t="n">
-        <v>22.183</v>
+        <v>16.143</v>
       </c>
       <c r="C8" t="n">
-        <v>22.319</v>
+        <v>16.418</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>16.101</v>
       </c>
       <c r="E8" t="n">
-        <v>22.015</v>
+        <v>16.418</v>
       </c>
       <c r="F8" t="n">
-        <v>337019.8</v>
+        <v>479264.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44365.45833332176</v>
+        <v>44377.4791666551</v>
       </c>
       <c r="B9" t="n">
-        <v>22.015</v>
+        <v>16.416</v>
       </c>
       <c r="C9" t="n">
-        <v>22.135</v>
+        <v>16.468</v>
       </c>
       <c r="D9" t="n">
-        <v>21.88</v>
+        <v>16.254</v>
       </c>
       <c r="E9" t="n">
-        <v>21.998</v>
+        <v>16.446</v>
       </c>
       <c r="F9" t="n">
-        <v>341545.9</v>
+        <v>395532.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44365.4791666551</v>
+        <v>44377.49999998842</v>
       </c>
       <c r="B10" t="n">
-        <v>21.998</v>
+        <v>16.448</v>
       </c>
       <c r="C10" t="n">
-        <v>22.003</v>
+        <v>16.63</v>
       </c>
       <c r="D10" t="n">
-        <v>21.79</v>
+        <v>16.417</v>
       </c>
       <c r="E10" t="n">
-        <v>21.905</v>
+        <v>16.556</v>
       </c>
       <c r="F10" t="n">
-        <v>346685.6</v>
+        <v>630039.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44365.49999998842</v>
+        <v>44377.52083332176</v>
       </c>
       <c r="B11" t="n">
-        <v>21.904</v>
+        <v>16.557</v>
       </c>
       <c r="C11" t="n">
-        <v>22.276</v>
+        <v>16.56</v>
       </c>
       <c r="D11" t="n">
-        <v>21.872</v>
+        <v>16.086</v>
       </c>
       <c r="E11" t="n">
-        <v>22.192</v>
+        <v>16.161</v>
       </c>
       <c r="F11" t="n">
-        <v>446707.7</v>
+        <v>948638.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44365.52083332176</v>
+        <v>44377.5416666551</v>
       </c>
       <c r="B12" t="n">
-        <v>22.192</v>
+        <v>16.159</v>
       </c>
       <c r="C12" t="n">
-        <v>22.315</v>
+        <v>16.235</v>
       </c>
       <c r="D12" t="n">
-        <v>22.188</v>
+        <v>16.024</v>
       </c>
       <c r="E12" t="n">
-        <v>22.232</v>
+        <v>16.087</v>
       </c>
       <c r="F12" t="n">
-        <v>178824.1</v>
+        <v>517413.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44365.5416666551</v>
+        <v>44377.56249998842</v>
       </c>
       <c r="B13" t="n">
-        <v>22.234</v>
+        <v>16.079</v>
       </c>
       <c r="C13" t="n">
-        <v>22.298</v>
+        <v>16.169</v>
       </c>
       <c r="D13" t="n">
-        <v>22.175</v>
+        <v>15.916</v>
       </c>
       <c r="E13" t="n">
-        <v>22.294</v>
+        <v>16.001</v>
       </c>
       <c r="F13" t="n">
-        <v>188773.7</v>
+        <v>842048.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44365.56249998842</v>
+        <v>44377.58333332176</v>
       </c>
       <c r="B14" t="n">
-        <v>22.294</v>
+        <v>15.998</v>
       </c>
       <c r="C14" t="n">
-        <v>22.3</v>
+        <v>16.074</v>
       </c>
       <c r="D14" t="n">
-        <v>22.165</v>
+        <v>15.605</v>
       </c>
       <c r="E14" t="n">
-        <v>22.275</v>
+        <v>15.667</v>
       </c>
       <c r="F14" t="n">
-        <v>157754.8</v>
+        <v>1177905.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44365.58333332176</v>
+        <v>44377.6041666551</v>
       </c>
       <c r="B15" t="n">
-        <v>22.269</v>
+        <v>15.663</v>
       </c>
       <c r="C15" t="n">
-        <v>22.466</v>
+        <v>15.781</v>
       </c>
       <c r="D15" t="n">
-        <v>22.254</v>
+        <v>15.6</v>
       </c>
       <c r="E15" t="n">
-        <v>22.43</v>
+        <v>15.75</v>
       </c>
       <c r="F15" t="n">
-        <v>220589.3</v>
+        <v>573018.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44365.6041666551</v>
+        <v>44377.62499998842</v>
       </c>
       <c r="B16" t="n">
-        <v>22.433</v>
+        <v>15.75</v>
       </c>
       <c r="C16" t="n">
-        <v>22.485</v>
+        <v>15.796</v>
       </c>
       <c r="D16" t="n">
-        <v>22.25</v>
+        <v>15.652</v>
       </c>
       <c r="E16" t="n">
-        <v>22.359</v>
+        <v>15.703</v>
       </c>
       <c r="F16" t="n">
-        <v>252172.1</v>
+        <v>583176.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44365.62499998842</v>
+        <v>44377.64583332176</v>
       </c>
       <c r="B17" t="n">
-        <v>22.359</v>
+        <v>15.706</v>
       </c>
       <c r="C17" t="n">
-        <v>22.438</v>
+        <v>15.919</v>
       </c>
       <c r="D17" t="n">
-        <v>22.091</v>
+        <v>15.67</v>
       </c>
       <c r="E17" t="n">
-        <v>22.193</v>
+        <v>15.849</v>
       </c>
       <c r="F17" t="n">
-        <v>325175.5</v>
+        <v>591287.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44365.64583332176</v>
+        <v>44377.6666666551</v>
       </c>
       <c r="B18" t="n">
-        <v>22.193</v>
+        <v>15.85</v>
       </c>
       <c r="C18" t="n">
-        <v>22.335</v>
+        <v>15.916</v>
       </c>
       <c r="D18" t="n">
-        <v>22.11</v>
+        <v>15.757</v>
       </c>
       <c r="E18" t="n">
-        <v>22.222</v>
+        <v>15.812</v>
       </c>
       <c r="F18" t="n">
-        <v>290097.7</v>
+        <v>323462.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44365.6666666551</v>
+        <v>44377.68749998842</v>
       </c>
       <c r="B19" t="n">
-        <v>22.224</v>
+        <v>15.812</v>
       </c>
       <c r="C19" t="n">
-        <v>22.231</v>
+        <v>15.835</v>
       </c>
       <c r="D19" t="n">
-        <v>22.033</v>
+        <v>15.585</v>
       </c>
       <c r="E19" t="n">
-        <v>22.078</v>
+        <v>15.728</v>
       </c>
       <c r="F19" t="n">
-        <v>214939.5</v>
+        <v>552372.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44365.68749998842</v>
+        <v>44377.70833332176</v>
       </c>
       <c r="B20" t="n">
-        <v>22.08</v>
+        <v>15.731</v>
       </c>
       <c r="C20" t="n">
-        <v>22.272</v>
+        <v>15.992</v>
       </c>
       <c r="D20" t="n">
-        <v>22.075</v>
+        <v>15.721</v>
       </c>
       <c r="E20" t="n">
-        <v>22.211</v>
+        <v>15.955</v>
       </c>
       <c r="F20" t="n">
-        <v>257964.9</v>
+        <v>498596.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44365.70833332176</v>
+        <v>44377.7291666551</v>
       </c>
       <c r="B21" t="n">
-        <v>22.212</v>
+        <v>15.956</v>
       </c>
       <c r="C21" t="n">
-        <v>22.374</v>
+        <v>15.965</v>
       </c>
       <c r="D21" t="n">
-        <v>22.138</v>
+        <v>15.807</v>
       </c>
       <c r="E21" t="n">
-        <v>22.329</v>
+        <v>15.892</v>
       </c>
       <c r="F21" t="n">
-        <v>215231.2</v>
+        <v>378659.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44365.7291666551</v>
+        <v>44377.74999998842</v>
       </c>
       <c r="B22" t="n">
-        <v>22.329</v>
+        <v>15.884</v>
       </c>
       <c r="C22" t="n">
-        <v>22.419</v>
+        <v>15.961</v>
       </c>
       <c r="D22" t="n">
-        <v>22.252</v>
+        <v>15.542</v>
       </c>
       <c r="E22" t="n">
-        <v>22.357</v>
+        <v>15.589</v>
       </c>
       <c r="F22" t="n">
-        <v>231524.9</v>
+        <v>809772.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44365.74999998842</v>
+        <v>44377.77083332176</v>
       </c>
       <c r="B23" t="n">
-        <v>22.358</v>
+        <v>15.589</v>
       </c>
       <c r="C23" t="n">
-        <v>22.389</v>
+        <v>15.77</v>
       </c>
       <c r="D23" t="n">
-        <v>22.071</v>
+        <v>15.466</v>
       </c>
       <c r="E23" t="n">
-        <v>22.109</v>
+        <v>15.639</v>
       </c>
       <c r="F23" t="n">
-        <v>347565.2</v>
+        <v>693143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44365.77083332176</v>
+        <v>44377.7916666551</v>
       </c>
       <c r="B24" t="n">
-        <v>22.106</v>
+        <v>15.64</v>
       </c>
       <c r="C24" t="n">
-        <v>22.124</v>
+        <v>15.687</v>
       </c>
       <c r="D24" t="n">
-        <v>21.708</v>
+        <v>15.455</v>
       </c>
       <c r="E24" t="n">
-        <v>21.793</v>
+        <v>15.574</v>
       </c>
       <c r="F24" t="n">
-        <v>717224.8</v>
+        <v>523350.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44365.7916666551</v>
+        <v>44377.81249998842</v>
       </c>
       <c r="B25" t="n">
-        <v>21.79</v>
+        <v>15.575</v>
       </c>
       <c r="C25" t="n">
-        <v>21.91</v>
+        <v>15.667</v>
       </c>
       <c r="D25" t="n">
-        <v>21.633</v>
+        <v>15.474</v>
       </c>
       <c r="E25" t="n">
-        <v>21.651</v>
+        <v>15.638</v>
       </c>
       <c r="F25" t="n">
-        <v>555606.6</v>
+        <v>483411.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44365.81249998842</v>
+        <v>44377.83333332176</v>
       </c>
       <c r="B26" t="n">
-        <v>21.652</v>
+        <v>15.639</v>
       </c>
       <c r="C26" t="n">
-        <v>21.843</v>
+        <v>15.654</v>
       </c>
       <c r="D26" t="n">
-        <v>21.436</v>
+        <v>15.57</v>
       </c>
       <c r="E26" t="n">
-        <v>21.787</v>
+        <v>15.601</v>
       </c>
       <c r="F26" t="n">
-        <v>1033831.2</v>
+        <v>283844.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44365.83333332176</v>
+        <v>44377.8541666551</v>
       </c>
       <c r="B27" t="n">
-        <v>21.783</v>
+        <v>15.6</v>
       </c>
       <c r="C27" t="n">
-        <v>22.026</v>
+        <v>15.7</v>
       </c>
       <c r="D27" t="n">
-        <v>21.754</v>
+        <v>15.475</v>
       </c>
       <c r="E27" t="n">
-        <v>21.99</v>
+        <v>15.493</v>
       </c>
       <c r="F27" t="n">
-        <v>481921.9</v>
+        <v>329833.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44365.8541666551</v>
+        <v>44377.87499998842</v>
       </c>
       <c r="B28" t="n">
-        <v>21.992</v>
+        <v>15.488</v>
       </c>
       <c r="C28" t="n">
-        <v>22.14</v>
+        <v>15.668</v>
       </c>
       <c r="D28" t="n">
-        <v>21.86</v>
+        <v>15.432</v>
       </c>
       <c r="E28" t="n">
-        <v>21.86</v>
+        <v>15.566</v>
       </c>
       <c r="F28" t="n">
-        <v>443368.9</v>
+        <v>568903.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44365.87499998842</v>
+        <v>44377.89583332176</v>
       </c>
       <c r="B29" t="n">
-        <v>21.862</v>
+        <v>15.568</v>
       </c>
       <c r="C29" t="n">
-        <v>21.938</v>
+        <v>15.66</v>
       </c>
       <c r="D29" t="n">
-        <v>21.765</v>
+        <v>15.509</v>
       </c>
       <c r="E29" t="n">
-        <v>21.805</v>
+        <v>15.635</v>
       </c>
       <c r="F29" t="n">
-        <v>338201.7</v>
+        <v>320497.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44365.89583332176</v>
+        <v>44377.9166666551</v>
       </c>
       <c r="B30" t="n">
-        <v>21.806</v>
+        <v>15.635</v>
       </c>
       <c r="C30" t="n">
-        <v>21.887</v>
+        <v>15.635</v>
       </c>
       <c r="D30" t="n">
-        <v>21.512</v>
+        <v>15.438</v>
       </c>
       <c r="E30" t="n">
-        <v>21.584</v>
+        <v>15.459</v>
       </c>
       <c r="F30" t="n">
-        <v>515191.2</v>
+        <v>470796.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44365.9166666551</v>
+        <v>44377.93749998842</v>
       </c>
       <c r="B31" t="n">
-        <v>21.584</v>
+        <v>15.462</v>
       </c>
       <c r="C31" t="n">
-        <v>21.716</v>
+        <v>15.511</v>
       </c>
       <c r="D31" t="n">
-        <v>21.5</v>
+        <v>15.201</v>
       </c>
       <c r="E31" t="n">
-        <v>21.56</v>
+        <v>15.24</v>
       </c>
       <c r="F31" t="n">
-        <v>516042.2</v>
+        <v>891849.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44365.93749998842</v>
+        <v>44377.95833332176</v>
       </c>
       <c r="B32" t="n">
-        <v>21.561</v>
+        <v>15.241</v>
       </c>
       <c r="C32" t="n">
-        <v>21.711</v>
+        <v>15.545</v>
       </c>
       <c r="D32" t="n">
-        <v>21.321</v>
+        <v>15.188</v>
       </c>
       <c r="E32" t="n">
-        <v>21.452</v>
+        <v>15.529</v>
       </c>
       <c r="F32" t="n">
-        <v>672936.9</v>
+        <v>579015.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44365.95833332176</v>
+        <v>44377.9791666551</v>
       </c>
       <c r="B33" t="n">
-        <v>21.449</v>
+        <v>15.53</v>
       </c>
       <c r="C33" t="n">
-        <v>21.551</v>
+        <v>15.6</v>
       </c>
       <c r="D33" t="n">
-        <v>21.357</v>
+        <v>15.385</v>
       </c>
       <c r="E33" t="n">
-        <v>21.49</v>
+        <v>15.432</v>
       </c>
       <c r="F33" t="n">
-        <v>380118.3</v>
+        <v>434440.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44365.9791666551</v>
+        <v>44377.99999998842</v>
       </c>
       <c r="B34" t="n">
-        <v>21.489</v>
+        <v>15.43</v>
       </c>
       <c r="C34" t="n">
-        <v>21.603</v>
+        <v>15.517</v>
       </c>
       <c r="D34" t="n">
-        <v>20.985</v>
+        <v>15.311</v>
       </c>
       <c r="E34" t="n">
-        <v>21.283</v>
+        <v>15.358</v>
       </c>
       <c r="F34" t="n">
-        <v>912870</v>
+        <v>495208.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44365.99999998842</v>
+        <v>44378.02083332176</v>
       </c>
       <c r="B35" t="n">
-        <v>21.285</v>
+        <v>15.36</v>
       </c>
       <c r="C35" t="n">
-        <v>21.325</v>
+        <v>15.383</v>
       </c>
       <c r="D35" t="n">
-        <v>21.046</v>
+        <v>15.077</v>
       </c>
       <c r="E35" t="n">
-        <v>21.129</v>
+        <v>15.174</v>
       </c>
       <c r="F35" t="n">
-        <v>459655.1</v>
+        <v>1035858.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44366.02083332176</v>
+        <v>44378.0416666551</v>
       </c>
       <c r="B36" t="n">
-        <v>21.129</v>
+        <v>15.176</v>
       </c>
       <c r="C36" t="n">
-        <v>21.32</v>
+        <v>15.249</v>
       </c>
       <c r="D36" t="n">
-        <v>20.977</v>
+        <v>15.078</v>
       </c>
       <c r="E36" t="n">
-        <v>21.011</v>
+        <v>15.166</v>
       </c>
       <c r="F36" t="n">
-        <v>465015.2</v>
+        <v>670911.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44366.0416666551</v>
+        <v>44378.06249998842</v>
       </c>
       <c r="B37" t="n">
-        <v>21.015</v>
+        <v>15.167</v>
       </c>
       <c r="C37" t="n">
-        <v>21.12</v>
+        <v>15.4</v>
       </c>
       <c r="D37" t="n">
-        <v>20.73</v>
+        <v>15.104</v>
       </c>
       <c r="E37" t="n">
-        <v>20.805</v>
+        <v>15.333</v>
       </c>
       <c r="F37" t="n">
-        <v>741229.1</v>
+        <v>798591.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44366.06249998842</v>
+        <v>44378.08333332176</v>
       </c>
       <c r="B38" t="n">
-        <v>20.803</v>
+        <v>15.333</v>
       </c>
       <c r="C38" t="n">
-        <v>21.076</v>
+        <v>15.383</v>
       </c>
       <c r="D38" t="n">
-        <v>20.723</v>
+        <v>15.209</v>
       </c>
       <c r="E38" t="n">
-        <v>21</v>
+        <v>15.21</v>
       </c>
       <c r="F38" t="n">
-        <v>919499.5</v>
+        <v>389046</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44366.08333332176</v>
+        <v>44378.1041666551</v>
       </c>
       <c r="B39" t="n">
-        <v>21.001</v>
+        <v>15.214</v>
       </c>
       <c r="C39" t="n">
-        <v>21.28</v>
+        <v>15.413</v>
       </c>
       <c r="D39" t="n">
-        <v>20.981</v>
+        <v>15.206</v>
       </c>
       <c r="E39" t="n">
-        <v>21.181</v>
+        <v>15.383</v>
       </c>
       <c r="F39" t="n">
-        <v>691530.3</v>
+        <v>345716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44366.1041666551</v>
+        <v>44378.12499998842</v>
       </c>
       <c r="B40" t="n">
-        <v>21.181</v>
+        <v>15.377</v>
       </c>
       <c r="C40" t="n">
-        <v>21.188</v>
+        <v>15.65</v>
       </c>
       <c r="D40" t="n">
-        <v>20.918</v>
+        <v>15.356</v>
       </c>
       <c r="E40" t="n">
-        <v>20.941</v>
+        <v>15.636</v>
       </c>
       <c r="F40" t="n">
-        <v>504574.5</v>
+        <v>776320.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44366.12499998842</v>
+        <v>44378.14583332176</v>
       </c>
       <c r="B41" t="n">
-        <v>20.94</v>
+        <v>15.632</v>
       </c>
       <c r="C41" t="n">
-        <v>21.01</v>
+        <v>15.698</v>
       </c>
       <c r="D41" t="n">
-        <v>20.68</v>
+        <v>15.538</v>
       </c>
       <c r="E41" t="n">
-        <v>20.68</v>
+        <v>15.632</v>
       </c>
       <c r="F41" t="n">
-        <v>340390.6</v>
+        <v>438883.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44366.14583332176</v>
+        <v>44378.1666666551</v>
       </c>
       <c r="B42" t="n">
-        <v>20.682</v>
+        <v>15.628</v>
       </c>
       <c r="C42" t="n">
-        <v>20.899</v>
+        <v>15.791</v>
       </c>
       <c r="D42" t="n">
-        <v>20.4</v>
+        <v>15.555</v>
       </c>
       <c r="E42" t="n">
-        <v>20.418</v>
+        <v>15.778</v>
       </c>
       <c r="F42" t="n">
-        <v>750002</v>
+        <v>557798.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44366.1666666551</v>
+        <v>44378.18749998842</v>
       </c>
       <c r="B43" t="n">
-        <v>20.42</v>
+        <v>15.778</v>
       </c>
       <c r="C43" t="n">
-        <v>20.585</v>
+        <v>15.824</v>
       </c>
       <c r="D43" t="n">
-        <v>20.191</v>
+        <v>15.714</v>
       </c>
       <c r="E43" t="n">
-        <v>20.329</v>
+        <v>15.811</v>
       </c>
       <c r="F43" t="n">
-        <v>964936.9</v>
+        <v>376404.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44366.18749998842</v>
+        <v>44378.20833332176</v>
       </c>
       <c r="B44" t="n">
-        <v>20.329</v>
+        <v>15.811</v>
       </c>
       <c r="C44" t="n">
-        <v>20.58</v>
+        <v>15.995</v>
       </c>
       <c r="D44" t="n">
-        <v>20.24</v>
+        <v>15.762</v>
       </c>
       <c r="E44" t="n">
-        <v>20.488</v>
+        <v>15.899</v>
       </c>
       <c r="F44" t="n">
-        <v>566106.4</v>
+        <v>804355.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44366.20833332176</v>
+        <v>44378.2291666551</v>
       </c>
       <c r="B45" t="n">
-        <v>20.491</v>
+        <v>15.9</v>
       </c>
       <c r="C45" t="n">
-        <v>20.536</v>
+        <v>16.275</v>
       </c>
       <c r="D45" t="n">
-        <v>20.332</v>
+        <v>15.898</v>
       </c>
       <c r="E45" t="n">
-        <v>20.354</v>
+        <v>16.138</v>
       </c>
       <c r="F45" t="n">
-        <v>356046.9</v>
+        <v>1392507</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44366.2291666551</v>
+        <v>44378.24999998842</v>
       </c>
       <c r="B46" t="n">
-        <v>20.355</v>
+        <v>16.137</v>
       </c>
       <c r="C46" t="n">
-        <v>20.775</v>
+        <v>16.27</v>
       </c>
       <c r="D46" t="n">
-        <v>20.312</v>
+        <v>15.855</v>
       </c>
       <c r="E46" t="n">
-        <v>20.705</v>
+        <v>16.067</v>
       </c>
       <c r="F46" t="n">
-        <v>523836.8</v>
+        <v>1047639.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44366.24999998842</v>
+        <v>44378.27083332176</v>
       </c>
       <c r="B47" t="n">
-        <v>20.713</v>
+        <v>16.066</v>
       </c>
       <c r="C47" t="n">
-        <v>20.731</v>
+        <v>16.215</v>
       </c>
       <c r="D47" t="n">
-        <v>20.511</v>
+        <v>16.064</v>
       </c>
       <c r="E47" t="n">
-        <v>20.687</v>
+        <v>16.129</v>
       </c>
       <c r="F47" t="n">
-        <v>260359.4</v>
+        <v>560854.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44366.27083332176</v>
+        <v>44378.2916666551</v>
       </c>
       <c r="B48" t="n">
-        <v>20.686</v>
+        <v>16.129</v>
       </c>
       <c r="C48" t="n">
-        <v>20.923</v>
+        <v>16.294</v>
       </c>
       <c r="D48" t="n">
-        <v>20.64</v>
+        <v>16.058</v>
       </c>
       <c r="E48" t="n">
-        <v>20.869</v>
+        <v>16.109</v>
       </c>
       <c r="F48" t="n">
-        <v>277471</v>
+        <v>483602.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44366.2916666551</v>
+        <v>44378.31249998842</v>
       </c>
       <c r="B49" t="n">
-        <v>20.869</v>
+        <v>16.108</v>
       </c>
       <c r="C49" t="n">
-        <v>21.185</v>
+        <v>16.158</v>
       </c>
       <c r="D49" t="n">
-        <v>20.815</v>
+        <v>15.964</v>
       </c>
       <c r="E49" t="n">
-        <v>21.148</v>
+        <v>16.131</v>
       </c>
       <c r="F49" t="n">
-        <v>282866.8</v>
+        <v>493830.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44366.31249998842</v>
+        <v>44378.33333332176</v>
       </c>
       <c r="B50" t="n">
-        <v>21.149</v>
+        <v>16.132</v>
       </c>
       <c r="C50" t="n">
-        <v>21.151</v>
+        <v>16.28</v>
       </c>
       <c r="D50" t="n">
-        <v>20.974</v>
+        <v>16.064</v>
       </c>
       <c r="E50" t="n">
-        <v>21.129</v>
+        <v>16.177</v>
       </c>
       <c r="F50" t="n">
-        <v>306810.4</v>
+        <v>416663.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44366.33333332176</v>
+        <v>44378.3541666551</v>
       </c>
       <c r="B51" t="n">
-        <v>21.126</v>
+        <v>16.177</v>
       </c>
       <c r="C51" t="n">
-        <v>21.256</v>
+        <v>16.269</v>
       </c>
       <c r="D51" t="n">
-        <v>21.054</v>
+        <v>16.141</v>
       </c>
       <c r="E51" t="n">
-        <v>21.25</v>
+        <v>16.186</v>
       </c>
       <c r="F51" t="n">
-        <v>246031.8</v>
+        <v>396995.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44366.3541666551</v>
+        <v>44378.37499998842</v>
       </c>
       <c r="B52" t="n">
-        <v>21.249</v>
+        <v>16.186</v>
       </c>
       <c r="C52" t="n">
-        <v>21.434</v>
+        <v>16.431</v>
       </c>
       <c r="D52" t="n">
-        <v>21.174</v>
+        <v>16.156</v>
       </c>
       <c r="E52" t="n">
-        <v>21.403</v>
+        <v>16.388</v>
       </c>
       <c r="F52" t="n">
-        <v>288240.6</v>
+        <v>612079.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44366.37499998842</v>
+        <v>44378.39583332176</v>
       </c>
       <c r="B53" t="n">
-        <v>21.407</v>
+        <v>16.384</v>
       </c>
       <c r="C53" t="n">
-        <v>21.566</v>
+        <v>16.401</v>
       </c>
       <c r="D53" t="n">
-        <v>21.269</v>
+        <v>16.091</v>
       </c>
       <c r="E53" t="n">
-        <v>21.418</v>
+        <v>16.188</v>
       </c>
       <c r="F53" t="n">
-        <v>453365.9</v>
+        <v>631888.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44366.39583332176</v>
+        <v>44378.4166666551</v>
       </c>
       <c r="B54" t="n">
-        <v>21.418</v>
+        <v>16.188</v>
       </c>
       <c r="C54" t="n">
-        <v>21.606</v>
+        <v>16.294</v>
       </c>
       <c r="D54" t="n">
-        <v>21.315</v>
+        <v>16.1</v>
       </c>
       <c r="E54" t="n">
-        <v>21.534</v>
+        <v>16.107</v>
       </c>
       <c r="F54" t="n">
-        <v>366456.6</v>
+        <v>386358.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44366.4166666551</v>
+        <v>44378.43749998842</v>
       </c>
       <c r="B55" t="n">
-        <v>21.534</v>
+        <v>16.105</v>
       </c>
       <c r="C55" t="n">
-        <v>21.548</v>
+        <v>16.277</v>
       </c>
       <c r="D55" t="n">
-        <v>21.252</v>
+        <v>16.1</v>
       </c>
       <c r="E55" t="n">
-        <v>21.281</v>
+        <v>16.231</v>
       </c>
       <c r="F55" t="n">
-        <v>321384</v>
+        <v>352578.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44366.43749998842</v>
+        <v>44378.45833332176</v>
       </c>
       <c r="B56" t="n">
-        <v>21.282</v>
+        <v>16.231</v>
       </c>
       <c r="C56" t="n">
-        <v>21.617</v>
+        <v>16.25</v>
       </c>
       <c r="D56" t="n">
-        <v>21.267</v>
+        <v>16.153</v>
       </c>
       <c r="E56" t="n">
-        <v>21.427</v>
+        <v>16.195</v>
       </c>
       <c r="F56" t="n">
-        <v>561249.2</v>
+        <v>223301.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44366.45833332176</v>
+        <v>44378.4791666551</v>
       </c>
       <c r="B57" t="n">
-        <v>21.423</v>
+        <v>16.195</v>
       </c>
       <c r="C57" t="n">
-        <v>21.52</v>
+        <v>16.221</v>
       </c>
       <c r="D57" t="n">
-        <v>21.36</v>
+        <v>15.801</v>
       </c>
       <c r="E57" t="n">
-        <v>21.472</v>
+        <v>15.828</v>
       </c>
       <c r="F57" t="n">
-        <v>182062.2</v>
+        <v>692227.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44366.4791666551</v>
+        <v>44378.49999998842</v>
       </c>
       <c r="B58" t="n">
-        <v>21.473</v>
+        <v>15.822</v>
       </c>
       <c r="C58" t="n">
-        <v>21.536</v>
+        <v>15.862</v>
       </c>
       <c r="D58" t="n">
-        <v>21.243</v>
+        <v>15.694</v>
       </c>
       <c r="E58" t="n">
-        <v>21.264</v>
+        <v>15.734</v>
       </c>
       <c r="F58" t="n">
-        <v>272494.7</v>
+        <v>593926.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44366.49999998842</v>
+        <v>44378.52083332176</v>
       </c>
       <c r="B59" t="n">
-        <v>21.264</v>
+        <v>15.732</v>
       </c>
       <c r="C59" t="n">
-        <v>21.293</v>
+        <v>15.84</v>
       </c>
       <c r="D59" t="n">
-        <v>20.858</v>
+        <v>15.682</v>
       </c>
       <c r="E59" t="n">
-        <v>20.892</v>
+        <v>15.693</v>
       </c>
       <c r="F59" t="n">
-        <v>592325.8</v>
+        <v>275376.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44366.52083332176</v>
+        <v>44378.5416666551</v>
       </c>
       <c r="B60" t="n">
-        <v>20.893</v>
+        <v>15.694</v>
       </c>
       <c r="C60" t="n">
-        <v>21.006</v>
+        <v>15.745</v>
       </c>
       <c r="D60" t="n">
-        <v>20.622</v>
+        <v>15.509</v>
       </c>
       <c r="E60" t="n">
-        <v>20.673</v>
+        <v>15.538</v>
       </c>
       <c r="F60" t="n">
-        <v>477289.1</v>
+        <v>459196.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44366.5416666551</v>
+        <v>44378.56249998842</v>
       </c>
       <c r="B61" t="n">
-        <v>20.678</v>
+        <v>15.537</v>
       </c>
       <c r="C61" t="n">
-        <v>20.912</v>
+        <v>15.676</v>
       </c>
       <c r="D61" t="n">
-        <v>20.643</v>
+        <v>15.51</v>
       </c>
       <c r="E61" t="n">
-        <v>20.833</v>
+        <v>15.584</v>
       </c>
       <c r="F61" t="n">
-        <v>604929.4</v>
+        <v>431320.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44366.56249998842</v>
+        <v>44378.58333332176</v>
       </c>
       <c r="B62" t="n">
-        <v>20.831</v>
+        <v>15.584</v>
       </c>
       <c r="C62" t="n">
-        <v>20.98</v>
+        <v>15.767</v>
       </c>
       <c r="D62" t="n">
-        <v>20.68</v>
+        <v>15.522</v>
       </c>
       <c r="E62" t="n">
-        <v>20.98</v>
+        <v>15.743</v>
       </c>
       <c r="F62" t="n">
-        <v>644099.2</v>
+        <v>256826.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44366.58333332176</v>
+        <v>44378.6041666551</v>
       </c>
       <c r="B63" t="n">
-        <v>20.977</v>
+        <v>15.747</v>
       </c>
       <c r="C63" t="n">
-        <v>21.011</v>
+        <v>15.759</v>
       </c>
       <c r="D63" t="n">
-        <v>20.751</v>
+        <v>15.558</v>
       </c>
       <c r="E63" t="n">
-        <v>20.895</v>
+        <v>15.608</v>
       </c>
       <c r="F63" t="n">
-        <v>477553.1</v>
+        <v>276893.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44366.6041666551</v>
+        <v>44378.62499998842</v>
       </c>
       <c r="B64" t="n">
-        <v>20.896</v>
+        <v>15.608</v>
       </c>
       <c r="C64" t="n">
-        <v>21.01</v>
+        <v>15.8</v>
       </c>
       <c r="D64" t="n">
-        <v>20.896</v>
+        <v>15.588</v>
       </c>
       <c r="E64" t="n">
-        <v>20.958</v>
+        <v>15.714</v>
       </c>
       <c r="F64" t="n">
-        <v>392893.5</v>
+        <v>286726.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44366.62499998842</v>
+        <v>44378.64583332176</v>
       </c>
       <c r="B65" t="n">
-        <v>20.959</v>
+        <v>15.715</v>
       </c>
       <c r="C65" t="n">
-        <v>21.218</v>
+        <v>15.85</v>
       </c>
       <c r="D65" t="n">
-        <v>20.954</v>
+        <v>15.595</v>
       </c>
       <c r="E65" t="n">
-        <v>21.199</v>
+        <v>15.647</v>
       </c>
       <c r="F65" t="n">
-        <v>490856.2</v>
+        <v>600313.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44366.64583332176</v>
+        <v>44378.6666666551</v>
       </c>
       <c r="B66" t="n">
-        <v>21.204</v>
+        <v>15.646</v>
       </c>
       <c r="C66" t="n">
-        <v>21.38</v>
+        <v>15.739</v>
       </c>
       <c r="D66" t="n">
-        <v>21.172</v>
+        <v>15.23</v>
       </c>
       <c r="E66" t="n">
-        <v>21.241</v>
+        <v>15.269</v>
       </c>
       <c r="F66" t="n">
-        <v>437177.1</v>
+        <v>1133202.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44366.6666666551</v>
+        <v>44378.68749998842</v>
       </c>
       <c r="B67" t="n">
-        <v>21.241</v>
+        <v>15.27</v>
       </c>
       <c r="C67" t="n">
-        <v>21.36</v>
+        <v>15.41</v>
       </c>
       <c r="D67" t="n">
-        <v>21.06</v>
+        <v>15.176</v>
       </c>
       <c r="E67" t="n">
-        <v>21.168</v>
+        <v>15.375</v>
       </c>
       <c r="F67" t="n">
-        <v>585812.4</v>
+        <v>802772.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44366.68749998842</v>
+        <v>44378.70833332176</v>
       </c>
       <c r="B68" t="n">
-        <v>21.172</v>
+        <v>15.376</v>
       </c>
       <c r="C68" t="n">
-        <v>21.249</v>
+        <v>15.43</v>
       </c>
       <c r="D68" t="n">
-        <v>20.946</v>
+        <v>15.2</v>
       </c>
       <c r="E68" t="n">
-        <v>20.995</v>
+        <v>15.208</v>
       </c>
       <c r="F68" t="n">
-        <v>614422</v>
+        <v>635540.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44366.70833332176</v>
+        <v>44378.7291666551</v>
       </c>
       <c r="B69" t="n">
-        <v>20.995</v>
+        <v>15.208</v>
       </c>
       <c r="C69" t="n">
-        <v>21.306</v>
+        <v>15.35</v>
       </c>
       <c r="D69" t="n">
-        <v>20.974</v>
+        <v>15.16</v>
       </c>
       <c r="E69" t="n">
-        <v>21.3</v>
+        <v>15.314</v>
       </c>
       <c r="F69" t="n">
-        <v>326419.3</v>
+        <v>676926</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44366.7291666551</v>
+        <v>44378.74999998842</v>
       </c>
       <c r="B70" t="n">
-        <v>21.298</v>
+        <v>15.317</v>
       </c>
       <c r="C70" t="n">
-        <v>21.305</v>
+        <v>15.372</v>
       </c>
       <c r="D70" t="n">
-        <v>21.077</v>
+        <v>15.21</v>
       </c>
       <c r="E70" t="n">
-        <v>21.125</v>
+        <v>15.363</v>
       </c>
       <c r="F70" t="n">
-        <v>279573.4</v>
+        <v>455269.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44366.74999998842</v>
+        <v>44378.77083332176</v>
       </c>
       <c r="B71" t="n">
-        <v>21.13</v>
+        <v>15.361</v>
       </c>
       <c r="C71" t="n">
-        <v>21.344</v>
+        <v>15.389</v>
       </c>
       <c r="D71" t="n">
-        <v>21.128</v>
+        <v>15.217</v>
       </c>
       <c r="E71" t="n">
-        <v>21.298</v>
+        <v>15.335</v>
       </c>
       <c r="F71" t="n">
-        <v>265410.4</v>
+        <v>353998.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44366.77083332176</v>
+        <v>44378.7916666551</v>
       </c>
       <c r="B72" t="n">
-        <v>21.298</v>
+        <v>15.341</v>
       </c>
       <c r="C72" t="n">
-        <v>21.326</v>
+        <v>15.38</v>
       </c>
       <c r="D72" t="n">
-        <v>21.105</v>
+        <v>15.14</v>
       </c>
       <c r="E72" t="n">
-        <v>21.111</v>
+        <v>15.27</v>
       </c>
       <c r="F72" t="n">
-        <v>234902.7</v>
+        <v>428007.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44366.7916666551</v>
+        <v>44378.81249998842</v>
       </c>
       <c r="B73" t="n">
-        <v>21.111</v>
+        <v>15.274</v>
       </c>
       <c r="C73" t="n">
-        <v>21.209</v>
+        <v>15.378</v>
       </c>
       <c r="D73" t="n">
-        <v>20.91</v>
+        <v>15.155</v>
       </c>
       <c r="E73" t="n">
-        <v>20.979</v>
+        <v>15.248</v>
       </c>
       <c r="F73" t="n">
-        <v>349016.5</v>
+        <v>383160.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44366.81249998842</v>
+        <v>44378.83333332176</v>
       </c>
       <c r="B74" t="n">
-        <v>20.98</v>
+        <v>15.248</v>
       </c>
       <c r="C74" t="n">
-        <v>21.048</v>
+        <v>15.35</v>
       </c>
       <c r="D74" t="n">
-        <v>20.882</v>
+        <v>15.211</v>
       </c>
       <c r="E74" t="n">
-        <v>20.967</v>
+        <v>15.26</v>
       </c>
       <c r="F74" t="n">
-        <v>280146.1</v>
+        <v>274617.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44366.83333332176</v>
+        <v>44378.8541666551</v>
       </c>
       <c r="B75" t="n">
-        <v>20.974</v>
+        <v>15.261</v>
       </c>
       <c r="C75" t="n">
-        <v>21.15</v>
+        <v>15.526</v>
       </c>
       <c r="D75" t="n">
-        <v>20.904</v>
+        <v>15.25</v>
       </c>
       <c r="E75" t="n">
-        <v>21.01</v>
+        <v>15.497</v>
       </c>
       <c r="F75" t="n">
-        <v>269365.7</v>
+        <v>565090.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44366.8541666551</v>
+        <v>44378.87499998842</v>
       </c>
       <c r="B76" t="n">
-        <v>21.009</v>
+        <v>15.496</v>
       </c>
       <c r="C76" t="n">
-        <v>21.148</v>
+        <v>15.625</v>
       </c>
       <c r="D76" t="n">
-        <v>21.007</v>
+        <v>15.451</v>
       </c>
       <c r="E76" t="n">
-        <v>21.118</v>
+        <v>15.581</v>
       </c>
       <c r="F76" t="n">
-        <v>215163.3</v>
+        <v>506325.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44366.87499998842</v>
+        <v>44378.89583332176</v>
       </c>
       <c r="B77" t="n">
-        <v>21.113</v>
+        <v>15.588</v>
       </c>
       <c r="C77" t="n">
-        <v>21.137</v>
+        <v>15.59</v>
       </c>
       <c r="D77" t="n">
-        <v>21.003</v>
+        <v>15.39</v>
       </c>
       <c r="E77" t="n">
-        <v>21.083</v>
+        <v>15.481</v>
       </c>
       <c r="F77" t="n">
-        <v>352234.5</v>
+        <v>478924.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44366.89583332176</v>
+        <v>44378.9166666551</v>
       </c>
       <c r="B78" t="n">
-        <v>21.08</v>
+        <v>15.481</v>
       </c>
       <c r="C78" t="n">
-        <v>21.372</v>
+        <v>15.63</v>
       </c>
       <c r="D78" t="n">
-        <v>20.981</v>
+        <v>15.467</v>
       </c>
       <c r="E78" t="n">
-        <v>21.164</v>
+        <v>15.561</v>
       </c>
       <c r="F78" t="n">
-        <v>639599.6</v>
+        <v>448904.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44366.9166666551</v>
+        <v>44378.93749998842</v>
       </c>
       <c r="B79" t="n">
-        <v>21.167</v>
+        <v>15.565</v>
       </c>
       <c r="C79" t="n">
-        <v>21.201</v>
+        <v>15.6</v>
       </c>
       <c r="D79" t="n">
-        <v>20.917</v>
+        <v>15.501</v>
       </c>
       <c r="E79" t="n">
-        <v>20.983</v>
+        <v>15.503</v>
       </c>
       <c r="F79" t="n">
-        <v>515591.9</v>
+        <v>318183.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44366.93749998842</v>
+        <v>44378.95833332176</v>
       </c>
       <c r="B80" t="n">
-        <v>20.979</v>
+        <v>15.504</v>
       </c>
       <c r="C80" t="n">
-        <v>21.053</v>
+        <v>15.541</v>
       </c>
       <c r="D80" t="n">
-        <v>20.849</v>
+        <v>15.28</v>
       </c>
       <c r="E80" t="n">
-        <v>20.956</v>
+        <v>15.28</v>
       </c>
       <c r="F80" t="n">
-        <v>344928</v>
+        <v>597964</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44366.95833332176</v>
+        <v>44378.9791666551</v>
       </c>
       <c r="B81" t="n">
-        <v>20.957</v>
+        <v>15.281</v>
       </c>
       <c r="C81" t="n">
-        <v>21.01</v>
+        <v>15.447</v>
       </c>
       <c r="D81" t="n">
-        <v>20.87</v>
+        <v>15.2</v>
       </c>
       <c r="E81" t="n">
-        <v>20.996</v>
+        <v>15.233</v>
       </c>
       <c r="F81" t="n">
-        <v>190934.4</v>
+        <v>512787.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44366.9791666551</v>
+        <v>44378.99999998842</v>
       </c>
       <c r="B82" t="n">
-        <v>20.993</v>
+        <v>15.233</v>
       </c>
       <c r="C82" t="n">
-        <v>21.166</v>
+        <v>15.292</v>
       </c>
       <c r="D82" t="n">
-        <v>20.97</v>
+        <v>15.162</v>
       </c>
       <c r="E82" t="n">
-        <v>21.117</v>
+        <v>15.248</v>
       </c>
       <c r="F82" t="n">
-        <v>285335.6</v>
+        <v>466989.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44366.99999998842</v>
+        <v>44379.02083332176</v>
       </c>
       <c r="B83" t="n">
-        <v>21.117</v>
+        <v>15.252</v>
       </c>
       <c r="C83" t="n">
-        <v>21.291</v>
+        <v>15.508</v>
       </c>
       <c r="D83" t="n">
-        <v>21.059</v>
+        <v>15.216</v>
       </c>
       <c r="E83" t="n">
-        <v>21.229</v>
+        <v>15.414</v>
       </c>
       <c r="F83" t="n">
-        <v>431103.6</v>
+        <v>523073.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44367.02083332176</v>
+        <v>44379.0416666551</v>
       </c>
       <c r="B84" t="n">
-        <v>21.23</v>
+        <v>15.41</v>
       </c>
       <c r="C84" t="n">
-        <v>21.289</v>
+        <v>15.415</v>
       </c>
       <c r="D84" t="n">
-        <v>21.095</v>
+        <v>15.284</v>
       </c>
       <c r="E84" t="n">
-        <v>21.127</v>
+        <v>15.351</v>
       </c>
       <c r="F84" t="n">
-        <v>267347.9</v>
+        <v>269432.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44367.0416666551</v>
+        <v>44379.06249998842</v>
       </c>
       <c r="B85" t="n">
-        <v>21.125</v>
+        <v>15.351</v>
       </c>
       <c r="C85" t="n">
-        <v>21.25</v>
+        <v>15.409</v>
       </c>
       <c r="D85" t="n">
-        <v>21.018</v>
+        <v>15.203</v>
       </c>
       <c r="E85" t="n">
-        <v>21.219</v>
+        <v>15.278</v>
       </c>
       <c r="F85" t="n">
-        <v>348406.7</v>
+        <v>533034</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44367.06249998842</v>
+        <v>44379.08333332176</v>
       </c>
       <c r="B86" t="n">
-        <v>21.218</v>
+        <v>15.278</v>
       </c>
       <c r="C86" t="n">
-        <v>21.294</v>
+        <v>15.372</v>
       </c>
       <c r="D86" t="n">
-        <v>20.85</v>
+        <v>15.122</v>
       </c>
       <c r="E86" t="n">
-        <v>20.852</v>
+        <v>15.148</v>
       </c>
       <c r="F86" t="n">
-        <v>471776</v>
+        <v>431659.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44367.08333332176</v>
+        <v>44379.1041666551</v>
       </c>
       <c r="B87" t="n">
-        <v>20.852</v>
+        <v>15.147</v>
       </c>
       <c r="C87" t="n">
-        <v>20.952</v>
+        <v>15.377</v>
       </c>
       <c r="D87" t="n">
-        <v>20.8</v>
+        <v>15.103</v>
       </c>
       <c r="E87" t="n">
-        <v>20.882</v>
+        <v>15.233</v>
       </c>
       <c r="F87" t="n">
-        <v>255171.3</v>
+        <v>523408.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44367.1041666551</v>
+        <v>44379.12499998842</v>
       </c>
       <c r="B88" t="n">
-        <v>20.882</v>
+        <v>15.236</v>
       </c>
       <c r="C88" t="n">
-        <v>20.938</v>
+        <v>15.404</v>
       </c>
       <c r="D88" t="n">
-        <v>20.708</v>
+        <v>15.209</v>
       </c>
       <c r="E88" t="n">
-        <v>20.753</v>
+        <v>15.373</v>
       </c>
       <c r="F88" t="n">
-        <v>305516.7</v>
+        <v>416738</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44367.12499998842</v>
+        <v>44379.14583332176</v>
       </c>
       <c r="B89" t="n">
-        <v>20.753</v>
+        <v>15.375</v>
       </c>
       <c r="C89" t="n">
-        <v>20.8</v>
+        <v>15.453</v>
       </c>
       <c r="D89" t="n">
-        <v>20.695</v>
+        <v>15.344</v>
       </c>
       <c r="E89" t="n">
-        <v>20.748</v>
+        <v>15.426</v>
       </c>
       <c r="F89" t="n">
-        <v>193492.1</v>
+        <v>340502</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44367.14583332176</v>
+        <v>44379.1666666551</v>
       </c>
       <c r="B90" t="n">
-        <v>20.749</v>
+        <v>15.425</v>
       </c>
       <c r="C90" t="n">
-        <v>20.749</v>
+        <v>15.526</v>
       </c>
       <c r="D90" t="n">
-        <v>20.461</v>
+        <v>15.313</v>
       </c>
       <c r="E90" t="n">
-        <v>20.559</v>
+        <v>15.367</v>
       </c>
       <c r="F90" t="n">
-        <v>605214.8</v>
+        <v>310329</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44367.1666666551</v>
+        <v>44379.18749998842</v>
       </c>
       <c r="B91" t="n">
-        <v>20.558</v>
+        <v>15.364</v>
       </c>
       <c r="C91" t="n">
-        <v>20.756</v>
+        <v>15.4</v>
       </c>
       <c r="D91" t="n">
-        <v>20.431</v>
+        <v>14.918</v>
       </c>
       <c r="E91" t="n">
-        <v>20.706</v>
+        <v>15.028</v>
       </c>
       <c r="F91" t="n">
-        <v>364266.2</v>
+        <v>734628.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44367.18749998842</v>
+        <v>44379.20833332176</v>
       </c>
       <c r="B92" t="n">
-        <v>20.705</v>
+        <v>15.028</v>
       </c>
       <c r="C92" t="n">
-        <v>20.883</v>
+        <v>15.09</v>
       </c>
       <c r="D92" t="n">
-        <v>20.597</v>
+        <v>14.834</v>
       </c>
       <c r="E92" t="n">
-        <v>20.752</v>
+        <v>14.981</v>
       </c>
       <c r="F92" t="n">
-        <v>347398.9</v>
+        <v>921819.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44367.20833332176</v>
+        <v>44379.2291666551</v>
       </c>
       <c r="B93" t="n">
-        <v>20.754</v>
+        <v>14.982</v>
       </c>
       <c r="C93" t="n">
-        <v>20.84</v>
+        <v>15.143</v>
       </c>
       <c r="D93" t="n">
-        <v>20.627</v>
+        <v>14.896</v>
       </c>
       <c r="E93" t="n">
-        <v>20.828</v>
+        <v>15.003</v>
       </c>
       <c r="F93" t="n">
-        <v>238142.6</v>
+        <v>745781.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44367.2291666551</v>
+        <v>44379.24999998842</v>
       </c>
       <c r="B94" t="n">
-        <v>20.833</v>
+        <v>15.004</v>
       </c>
       <c r="C94" t="n">
-        <v>20.836</v>
+        <v>15.13</v>
       </c>
       <c r="D94" t="n">
-        <v>20.644</v>
+        <v>14.989</v>
       </c>
       <c r="E94" t="n">
-        <v>20.745</v>
+        <v>15.049</v>
       </c>
       <c r="F94" t="n">
-        <v>228341.4</v>
+        <v>477781.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44367.24999998842</v>
+        <v>44379.27083332176</v>
       </c>
       <c r="B95" t="n">
-        <v>20.745</v>
+        <v>15.043</v>
       </c>
       <c r="C95" t="n">
-        <v>20.875</v>
+        <v>15.249</v>
       </c>
       <c r="D95" t="n">
-        <v>20.688</v>
+        <v>15.007</v>
       </c>
       <c r="E95" t="n">
-        <v>20.822</v>
+        <v>15.184</v>
       </c>
       <c r="F95" t="n">
-        <v>171924.2</v>
+        <v>397096.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44367.27083332176</v>
+        <v>44379.2916666551</v>
       </c>
       <c r="B96" t="n">
-        <v>20.822</v>
+        <v>15.184</v>
       </c>
       <c r="C96" t="n">
-        <v>20.946</v>
+        <v>15.298</v>
       </c>
       <c r="D96" t="n">
-        <v>20.795</v>
+        <v>15.122</v>
       </c>
       <c r="E96" t="n">
-        <v>20.84</v>
+        <v>15.277</v>
       </c>
       <c r="F96" t="n">
-        <v>153089.9</v>
+        <v>187549.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44367.2916666551</v>
+        <v>44379.31249998842</v>
       </c>
       <c r="B97" t="n">
-        <v>20.84</v>
+        <v>15.271</v>
       </c>
       <c r="C97" t="n">
-        <v>20.977</v>
+        <v>15.35</v>
       </c>
       <c r="D97" t="n">
-        <v>20.782</v>
+        <v>15.228</v>
       </c>
       <c r="E97" t="n">
-        <v>20.799</v>
+        <v>15.323</v>
       </c>
       <c r="F97" t="n">
-        <v>194052</v>
+        <v>323940.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44367.31249998842</v>
+        <v>44379.33333332176</v>
       </c>
       <c r="B98" t="n">
-        <v>20.794</v>
+        <v>15.323</v>
       </c>
       <c r="C98" t="n">
-        <v>20.812</v>
+        <v>15.35</v>
       </c>
       <c r="D98" t="n">
-        <v>20.53</v>
+        <v>15.27</v>
       </c>
       <c r="E98" t="n">
-        <v>20.649</v>
+        <v>15.299</v>
       </c>
       <c r="F98" t="n">
-        <v>229290.9</v>
+        <v>150508.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44367.33333332176</v>
+        <v>44379.3541666551</v>
       </c>
       <c r="B99" t="n">
-        <v>20.649</v>
+        <v>15.298</v>
       </c>
       <c r="C99" t="n">
-        <v>20.661</v>
+        <v>15.332</v>
       </c>
       <c r="D99" t="n">
-        <v>20.505</v>
+        <v>15.12</v>
       </c>
       <c r="E99" t="n">
-        <v>20.545</v>
+        <v>15.237</v>
       </c>
       <c r="F99" t="n">
-        <v>153617.7</v>
+        <v>311190.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44367.3541666551</v>
+        <v>44379.37499998842</v>
       </c>
       <c r="B100" t="n">
-        <v>20.541</v>
+        <v>15.237</v>
       </c>
       <c r="C100" t="n">
-        <v>20.686</v>
+        <v>15.297</v>
       </c>
       <c r="D100" t="n">
-        <v>20.47</v>
+        <v>15.15</v>
       </c>
       <c r="E100" t="n">
-        <v>20.518</v>
+        <v>15.162</v>
       </c>
       <c r="F100" t="n">
-        <v>287532.4</v>
+        <v>237044.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44367.37499998842</v>
+        <v>44379.39583332176</v>
       </c>
       <c r="B101" t="n">
-        <v>20.52</v>
+        <v>15.162</v>
       </c>
       <c r="C101" t="n">
-        <v>20.528</v>
+        <v>15.441</v>
       </c>
       <c r="D101" t="n">
-        <v>20.205</v>
+        <v>15.138</v>
       </c>
       <c r="E101" t="n">
-        <v>20.213</v>
+        <v>15.33</v>
       </c>
       <c r="F101" t="n">
-        <v>437926.2</v>
+        <v>546223.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44367.39583332176</v>
+        <v>44379.4166666551</v>
       </c>
       <c r="B102" t="n">
-        <v>20.214</v>
+        <v>15.33</v>
       </c>
       <c r="C102" t="n">
-        <v>20.319</v>
+        <v>15.445</v>
       </c>
       <c r="D102" t="n">
-        <v>19.961</v>
+        <v>15.321</v>
       </c>
       <c r="E102" t="n">
-        <v>20.016</v>
+        <v>15.435</v>
       </c>
       <c r="F102" t="n">
-        <v>955439.1</v>
+        <v>135551.7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44367.4166666551</v>
+        <v>44379.43749998842</v>
       </c>
       <c r="B103" t="n">
-        <v>20.018</v>
+        <v>15.436</v>
       </c>
       <c r="C103" t="n">
-        <v>20.261</v>
+        <v>15.448</v>
       </c>
       <c r="D103" t="n">
-        <v>19.997</v>
+        <v>15.159</v>
       </c>
       <c r="E103" t="n">
-        <v>20.229</v>
+        <v>15.219</v>
       </c>
       <c r="F103" t="n">
-        <v>292272.7</v>
+        <v>242657.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44367.43749998842</v>
+        <v>44379.45833332176</v>
       </c>
       <c r="B104" t="n">
-        <v>20.229</v>
+        <v>15.215</v>
       </c>
       <c r="C104" t="n">
-        <v>20.507</v>
+        <v>15.231</v>
       </c>
       <c r="D104" t="n">
-        <v>20.196</v>
+        <v>15.003</v>
       </c>
       <c r="E104" t="n">
-        <v>20.42</v>
+        <v>15.031</v>
       </c>
       <c r="F104" t="n">
-        <v>329629.5</v>
+        <v>286454.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44367.45833332176</v>
+        <v>44379.4791666551</v>
       </c>
       <c r="B105" t="n">
-        <v>20.422</v>
+        <v>15.032</v>
       </c>
       <c r="C105" t="n">
-        <v>20.524</v>
+        <v>15.148</v>
       </c>
       <c r="D105" t="n">
-        <v>20.3</v>
+        <v>15</v>
       </c>
       <c r="E105" t="n">
-        <v>20.34</v>
+        <v>15.099</v>
       </c>
       <c r="F105" t="n">
-        <v>201073.2</v>
+        <v>352603.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44367.4791666551</v>
+        <v>44379.49999998842</v>
       </c>
       <c r="B106" t="n">
-        <v>20.341</v>
+        <v>15.097</v>
       </c>
       <c r="C106" t="n">
-        <v>20.342</v>
+        <v>15.161</v>
       </c>
       <c r="D106" t="n">
-        <v>20</v>
+        <v>15.02</v>
       </c>
       <c r="E106" t="n">
-        <v>20.04</v>
+        <v>15.078</v>
       </c>
       <c r="F106" t="n">
-        <v>274449.9</v>
+        <v>279697.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44367.49999998842</v>
+        <v>44379.52083332176</v>
       </c>
       <c r="B107" t="n">
-        <v>20.04</v>
+        <v>15.076</v>
       </c>
       <c r="C107" t="n">
-        <v>20.307</v>
+        <v>15.082</v>
       </c>
       <c r="D107" t="n">
-        <v>20.016</v>
+        <v>14.83</v>
       </c>
       <c r="E107" t="n">
-        <v>20.268</v>
+        <v>14.921</v>
       </c>
       <c r="F107" t="n">
-        <v>285158.6</v>
+        <v>488638.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44367.52083332176</v>
+        <v>44379.5416666551</v>
       </c>
       <c r="B108" t="n">
-        <v>20.269</v>
+        <v>14.912</v>
       </c>
       <c r="C108" t="n">
-        <v>20.308</v>
+        <v>14.929</v>
       </c>
       <c r="D108" t="n">
-        <v>20.073</v>
+        <v>14.675</v>
       </c>
       <c r="E108" t="n">
-        <v>20.283</v>
+        <v>14.745</v>
       </c>
       <c r="F108" t="n">
-        <v>267909.5</v>
+        <v>689388</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44367.5416666551</v>
+        <v>44379.56249998842</v>
       </c>
       <c r="B109" t="n">
-        <v>20.276</v>
+        <v>14.741</v>
       </c>
       <c r="C109" t="n">
-        <v>20.4</v>
+        <v>14.939</v>
       </c>
       <c r="D109" t="n">
-        <v>20.201</v>
+        <v>14.71</v>
       </c>
       <c r="E109" t="n">
-        <v>20.25</v>
+        <v>14.776</v>
       </c>
       <c r="F109" t="n">
-        <v>213670.1</v>
+        <v>334785.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44367.56249998842</v>
+        <v>44379.58333332176</v>
       </c>
       <c r="B110" t="n">
-        <v>20.245</v>
+        <v>14.776</v>
       </c>
       <c r="C110" t="n">
-        <v>20.448</v>
+        <v>14.877</v>
       </c>
       <c r="D110" t="n">
-        <v>20.209</v>
+        <v>14.744</v>
       </c>
       <c r="E110" t="n">
-        <v>20.434</v>
+        <v>14.868</v>
       </c>
       <c r="F110" t="n">
-        <v>208543.8</v>
+        <v>222685.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44367.58333332176</v>
+        <v>44379.6041666551</v>
       </c>
       <c r="B111" t="n">
-        <v>20.434</v>
+        <v>14.867</v>
       </c>
       <c r="C111" t="n">
-        <v>20.504</v>
+        <v>14.896</v>
       </c>
       <c r="D111" t="n">
-        <v>20.361</v>
+        <v>14.763</v>
       </c>
       <c r="E111" t="n">
-        <v>20.409</v>
+        <v>14.841</v>
       </c>
       <c r="F111" t="n">
-        <v>232207.3</v>
+        <v>223645.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44367.6041666551</v>
+        <v>44379.62499998842</v>
       </c>
       <c r="B112" t="n">
-        <v>20.409</v>
+        <v>14.838</v>
       </c>
       <c r="C112" t="n">
-        <v>20.496</v>
+        <v>14.878</v>
       </c>
       <c r="D112" t="n">
-        <v>20.328</v>
+        <v>14.629</v>
       </c>
       <c r="E112" t="n">
-        <v>20.344</v>
+        <v>14.73</v>
       </c>
       <c r="F112" t="n">
-        <v>215719.4</v>
+        <v>464258.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44367.62499998842</v>
+        <v>44379.64583332176</v>
       </c>
       <c r="B113" t="n">
-        <v>20.341</v>
+        <v>14.73</v>
       </c>
       <c r="C113" t="n">
-        <v>20.461</v>
+        <v>14.782</v>
       </c>
       <c r="D113" t="n">
-        <v>20.308</v>
+        <v>14.61</v>
       </c>
       <c r="E113" t="n">
-        <v>20.338</v>
+        <v>14.733</v>
       </c>
       <c r="F113" t="n">
-        <v>156412.4</v>
+        <v>463953.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44367.64583332176</v>
+        <v>44379.6666666551</v>
       </c>
       <c r="B114" t="n">
-        <v>20.344</v>
+        <v>14.733</v>
       </c>
       <c r="C114" t="n">
-        <v>20.412</v>
+        <v>14.799</v>
       </c>
       <c r="D114" t="n">
-        <v>20.228</v>
+        <v>14.602</v>
       </c>
       <c r="E114" t="n">
-        <v>20.409</v>
+        <v>14.748</v>
       </c>
       <c r="F114" t="n">
-        <v>237264.5</v>
+        <v>427725.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44367.6666666551</v>
+        <v>44379.68749998842</v>
       </c>
       <c r="B115" t="n">
-        <v>20.408</v>
+        <v>14.742</v>
       </c>
       <c r="C115" t="n">
-        <v>20.507</v>
+        <v>14.838</v>
       </c>
       <c r="D115" t="n">
-        <v>20.357</v>
+        <v>14.679</v>
       </c>
       <c r="E115" t="n">
-        <v>20.388</v>
+        <v>14.828</v>
       </c>
       <c r="F115" t="n">
-        <v>252523.9</v>
+        <v>244925</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44367.68749998842</v>
+        <v>44379.70833332176</v>
       </c>
       <c r="B116" t="n">
-        <v>20.391</v>
+        <v>14.828</v>
       </c>
       <c r="C116" t="n">
-        <v>20.448</v>
+        <v>14.991</v>
       </c>
       <c r="D116" t="n">
-        <v>20.227</v>
+        <v>14.812</v>
       </c>
       <c r="E116" t="n">
-        <v>20.271</v>
+        <v>14.952</v>
       </c>
       <c r="F116" t="n">
-        <v>273742.7</v>
+        <v>380293.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44367.70833332176</v>
+        <v>44379.7291666551</v>
       </c>
       <c r="B117" t="n">
-        <v>20.268</v>
+        <v>14.953</v>
       </c>
       <c r="C117" t="n">
-        <v>20.372</v>
+        <v>15.063</v>
       </c>
       <c r="D117" t="n">
-        <v>20.19</v>
+        <v>14.883</v>
       </c>
       <c r="E117" t="n">
-        <v>20.334</v>
+        <v>14.981</v>
       </c>
       <c r="F117" t="n">
-        <v>232465.5</v>
+        <v>502720.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44367.7291666551</v>
+        <v>44379.74999998842</v>
       </c>
       <c r="B118" t="n">
-        <v>20.337</v>
+        <v>14.981</v>
       </c>
       <c r="C118" t="n">
-        <v>20.446</v>
+        <v>14.996</v>
       </c>
       <c r="D118" t="n">
-        <v>20.254</v>
+        <v>14.881</v>
       </c>
       <c r="E118" t="n">
-        <v>20.302</v>
+        <v>14.92</v>
       </c>
       <c r="F118" t="n">
-        <v>294225.8</v>
+        <v>288532.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44367.74999998842</v>
+        <v>44379.77083332176</v>
       </c>
       <c r="B119" t="n">
-        <v>20.302</v>
+        <v>14.922</v>
       </c>
       <c r="C119" t="n">
-        <v>20.302</v>
+        <v>14.928</v>
       </c>
       <c r="D119" t="n">
-        <v>20.1</v>
+        <v>14.67</v>
       </c>
       <c r="E119" t="n">
-        <v>20.142</v>
+        <v>14.702</v>
       </c>
       <c r="F119" t="n">
-        <v>456998.3</v>
+        <v>473684.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44367.77083332176</v>
+        <v>44379.7916666551</v>
       </c>
       <c r="B120" t="n">
-        <v>20.138</v>
+        <v>14.702</v>
       </c>
       <c r="C120" t="n">
-        <v>20.208</v>
+        <v>14.816</v>
       </c>
       <c r="D120" t="n">
-        <v>20.022</v>
+        <v>14.661</v>
       </c>
       <c r="E120" t="n">
-        <v>20.181</v>
+        <v>14.722</v>
       </c>
       <c r="F120" t="n">
-        <v>381139.3</v>
+        <v>389586.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44367.7916666551</v>
+        <v>44379.81249998842</v>
       </c>
       <c r="B121" t="n">
-        <v>20.178</v>
+        <v>14.721</v>
       </c>
       <c r="C121" t="n">
-        <v>20.239</v>
+        <v>14.766</v>
       </c>
       <c r="D121" t="n">
-        <v>19.986</v>
+        <v>14.65</v>
       </c>
       <c r="E121" t="n">
-        <v>20.013</v>
+        <v>14.759</v>
       </c>
       <c r="F121" t="n">
-        <v>386778.9</v>
+        <v>374139.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44367.81249998842</v>
+        <v>44379.83333332176</v>
       </c>
       <c r="B122" t="n">
-        <v>20.01</v>
+        <v>14.759</v>
       </c>
       <c r="C122" t="n">
-        <v>20.037</v>
+        <v>14.838</v>
       </c>
       <c r="D122" t="n">
-        <v>19.165</v>
+        <v>14.677</v>
       </c>
       <c r="E122" t="n">
-        <v>19.484</v>
+        <v>14.764</v>
       </c>
       <c r="F122" t="n">
-        <v>1942962.7</v>
+        <v>395532.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44367.83333332176</v>
+        <v>44379.8541666551</v>
       </c>
       <c r="B123" t="n">
-        <v>19.483</v>
+        <v>14.763</v>
       </c>
       <c r="C123" t="n">
-        <v>19.6</v>
+        <v>14.89</v>
       </c>
       <c r="D123" t="n">
-        <v>19.313</v>
+        <v>14.712</v>
       </c>
       <c r="E123" t="n">
-        <v>19.435</v>
+        <v>14.8</v>
       </c>
       <c r="F123" t="n">
-        <v>728118.2</v>
+        <v>378037.6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44367.8541666551</v>
+        <v>44379.87499998842</v>
       </c>
       <c r="B124" t="n">
-        <v>19.43</v>
+        <v>14.8</v>
       </c>
       <c r="C124" t="n">
-        <v>19.479</v>
+        <v>14.844</v>
       </c>
       <c r="D124" t="n">
-        <v>19.184</v>
+        <v>14.684</v>
       </c>
       <c r="E124" t="n">
-        <v>19.232</v>
+        <v>14.784</v>
       </c>
       <c r="F124" t="n">
-        <v>557795.1</v>
+        <v>411111.7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44367.87499998842</v>
+        <v>44379.89583332176</v>
       </c>
       <c r="B125" t="n">
-        <v>19.232</v>
+        <v>14.783</v>
       </c>
       <c r="C125" t="n">
-        <v>19.356</v>
+        <v>14.832</v>
       </c>
       <c r="D125" t="n">
-        <v>18.974</v>
+        <v>14.721</v>
       </c>
       <c r="E125" t="n">
-        <v>19.132</v>
+        <v>14.758</v>
       </c>
       <c r="F125" t="n">
-        <v>855727.8</v>
+        <v>298889.7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44367.89583332176</v>
+        <v>44379.9166666551</v>
       </c>
       <c r="B126" t="n">
-        <v>19.128</v>
+        <v>14.759</v>
       </c>
       <c r="C126" t="n">
-        <v>19.249</v>
+        <v>14.926</v>
       </c>
       <c r="D126" t="n">
-        <v>18.854</v>
+        <v>14.724</v>
       </c>
       <c r="E126" t="n">
-        <v>19.03</v>
+        <v>14.911</v>
       </c>
       <c r="F126" t="n">
-        <v>1141337.9</v>
+        <v>520662.8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44367.9166666551</v>
+        <v>44379.93749998842</v>
       </c>
       <c r="B127" t="n">
-        <v>19.03</v>
+        <v>14.908</v>
       </c>
       <c r="C127" t="n">
-        <v>19.396</v>
+        <v>15.128</v>
       </c>
       <c r="D127" t="n">
-        <v>19.009</v>
+        <v>14.845</v>
       </c>
       <c r="E127" t="n">
-        <v>19.306</v>
+        <v>14.974</v>
       </c>
       <c r="F127" t="n">
-        <v>848407.4</v>
+        <v>763694.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44367.93749998842</v>
+        <v>44379.95833332176</v>
       </c>
       <c r="B128" t="n">
-        <v>19.308</v>
+        <v>14.977</v>
       </c>
       <c r="C128" t="n">
-        <v>19.548</v>
+        <v>15.12</v>
       </c>
       <c r="D128" t="n">
-        <v>19.187</v>
+        <v>14.899</v>
       </c>
       <c r="E128" t="n">
-        <v>19.238</v>
+        <v>15.077</v>
       </c>
       <c r="F128" t="n">
-        <v>827724.7</v>
+        <v>623059.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44367.95833332176</v>
+        <v>44379.9791666551</v>
       </c>
       <c r="B129" t="n">
-        <v>19.243</v>
+        <v>15.077</v>
       </c>
       <c r="C129" t="n">
-        <v>19.4</v>
+        <v>15.133</v>
       </c>
       <c r="D129" t="n">
-        <v>19.229</v>
+        <v>14.973</v>
       </c>
       <c r="E129" t="n">
-        <v>19.294</v>
+        <v>15.11</v>
       </c>
       <c r="F129" t="n">
-        <v>383336.9</v>
+        <v>393734.2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44367.9791666551</v>
+        <v>44379.99999998842</v>
       </c>
       <c r="B130" t="n">
-        <v>19.293</v>
+        <v>15.108</v>
       </c>
       <c r="C130" t="n">
-        <v>19.467</v>
+        <v>15.297</v>
       </c>
       <c r="D130" t="n">
-        <v>19.18</v>
+        <v>15.105</v>
       </c>
       <c r="E130" t="n">
-        <v>19.373</v>
+        <v>15.27</v>
       </c>
       <c r="F130" t="n">
-        <v>427359.2</v>
+        <v>885524.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44367.99999998842</v>
+        <v>44380.02083332176</v>
       </c>
       <c r="B131" t="n">
-        <v>19.378</v>
+        <v>15.271</v>
       </c>
       <c r="C131" t="n">
-        <v>19.613</v>
+        <v>15.317</v>
       </c>
       <c r="D131" t="n">
-        <v>19.363</v>
+        <v>15.105</v>
       </c>
       <c r="E131" t="n">
-        <v>19.596</v>
+        <v>15.131</v>
       </c>
       <c r="F131" t="n">
-        <v>433326.9</v>
+        <v>518450.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44368.02083332176</v>
+        <v>44380.0416666551</v>
       </c>
       <c r="B132" t="n">
-        <v>19.607</v>
+        <v>15.133</v>
       </c>
       <c r="C132" t="n">
-        <v>19.782</v>
+        <v>15.26</v>
       </c>
       <c r="D132" t="n">
-        <v>19.517</v>
+        <v>15.121</v>
       </c>
       <c r="E132" t="n">
-        <v>19.752</v>
+        <v>15.26</v>
       </c>
       <c r="F132" t="n">
-        <v>634799.5</v>
+        <v>298610</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44368.0416666551</v>
+        <v>44380.06249998842</v>
       </c>
       <c r="B133" t="n">
-        <v>19.748</v>
+        <v>15.259</v>
       </c>
       <c r="C133" t="n">
-        <v>19.895</v>
+        <v>15.26</v>
       </c>
       <c r="D133" t="n">
-        <v>19.704</v>
+        <v>15.153</v>
       </c>
       <c r="E133" t="n">
-        <v>19.867</v>
+        <v>15.196</v>
       </c>
       <c r="F133" t="n">
-        <v>518333.1</v>
+        <v>358453.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44368.06249998842</v>
+        <v>44380.08333332176</v>
       </c>
       <c r="B134" t="n">
-        <v>19.864</v>
+        <v>15.195</v>
       </c>
       <c r="C134" t="n">
-        <v>19.98</v>
+        <v>15.212</v>
       </c>
       <c r="D134" t="n">
-        <v>19.69</v>
+        <v>15.111</v>
       </c>
       <c r="E134" t="n">
-        <v>19.952</v>
+        <v>15.19</v>
       </c>
       <c r="F134" t="n">
-        <v>717308.8</v>
+        <v>295388.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44368.08333332176</v>
+        <v>44380.1041666551</v>
       </c>
       <c r="B135" t="n">
-        <v>19.958</v>
+        <v>15.19</v>
       </c>
       <c r="C135" t="n">
-        <v>19.97</v>
+        <v>15.218</v>
       </c>
       <c r="D135" t="n">
-        <v>19.731</v>
+        <v>15.131</v>
       </c>
       <c r="E135" t="n">
-        <v>19.794</v>
+        <v>15.141</v>
       </c>
       <c r="F135" t="n">
-        <v>379895.2</v>
+        <v>212459.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44368.1041666551</v>
+        <v>44380.12499998842</v>
       </c>
       <c r="B136" t="n">
-        <v>19.794</v>
+        <v>15.14</v>
       </c>
       <c r="C136" t="n">
-        <v>20.046</v>
+        <v>15.186</v>
       </c>
       <c r="D136" t="n">
-        <v>19.664</v>
+        <v>15.049</v>
       </c>
       <c r="E136" t="n">
-        <v>19.99</v>
+        <v>15.122</v>
       </c>
       <c r="F136" t="n">
-        <v>529056.7</v>
+        <v>258593.9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44368.12499998842</v>
+        <v>44380.14583332176</v>
       </c>
       <c r="B137" t="n">
-        <v>19.99</v>
+        <v>15.118</v>
       </c>
       <c r="C137" t="n">
-        <v>20.148</v>
+        <v>15.128</v>
       </c>
       <c r="D137" t="n">
-        <v>19.812</v>
+        <v>14.931</v>
       </c>
       <c r="E137" t="n">
-        <v>19.948</v>
+        <v>14.978</v>
       </c>
       <c r="F137" t="n">
-        <v>547562.9</v>
+        <v>429730.4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44368.14583332176</v>
+        <v>44380.1666666551</v>
       </c>
       <c r="B138" t="n">
-        <v>19.948</v>
+        <v>14.978</v>
       </c>
       <c r="C138" t="n">
-        <v>20.038</v>
+        <v>15.117</v>
       </c>
       <c r="D138" t="n">
-        <v>19.85</v>
+        <v>14.953</v>
       </c>
       <c r="E138" t="n">
-        <v>20.005</v>
+        <v>15.011</v>
       </c>
       <c r="F138" t="n">
-        <v>257609.7</v>
+        <v>320173.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44368.1666666551</v>
+        <v>44380.18749998842</v>
       </c>
       <c r="B139" t="n">
-        <v>20.009</v>
+        <v>15.016</v>
       </c>
       <c r="C139" t="n">
-        <v>20.243</v>
+        <v>15.1</v>
       </c>
       <c r="D139" t="n">
-        <v>19.972</v>
+        <v>14.99</v>
       </c>
       <c r="E139" t="n">
-        <v>20.198</v>
+        <v>15.017</v>
       </c>
       <c r="F139" t="n">
-        <v>255471.3</v>
+        <v>376430.1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44368.18749998842</v>
+        <v>44380.20833332176</v>
       </c>
       <c r="B140" t="n">
-        <v>20.198</v>
+        <v>15.017</v>
       </c>
       <c r="C140" t="n">
-        <v>20.334</v>
+        <v>15.116</v>
       </c>
       <c r="D140" t="n">
-        <v>20.169</v>
+        <v>14.993</v>
       </c>
       <c r="E140" t="n">
-        <v>20.288</v>
+        <v>15.094</v>
       </c>
       <c r="F140" t="n">
-        <v>325633.5</v>
+        <v>129428.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44368.20833332176</v>
+        <v>44380.2291666551</v>
       </c>
       <c r="B141" t="n">
-        <v>20.288</v>
+        <v>15.099</v>
       </c>
       <c r="C141" t="n">
-        <v>20.668</v>
+        <v>15.113</v>
       </c>
       <c r="D141" t="n">
-        <v>20.211</v>
+        <v>14.931</v>
       </c>
       <c r="E141" t="n">
-        <v>20.661</v>
+        <v>14.983</v>
       </c>
       <c r="F141" t="n">
-        <v>829318.6</v>
+        <v>329197.4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44368.2291666551</v>
+        <v>44380.24999998842</v>
       </c>
       <c r="B142" t="n">
-        <v>20.666</v>
+        <v>14.982</v>
       </c>
       <c r="C142" t="n">
-        <v>20.878</v>
+        <v>15.005</v>
       </c>
       <c r="D142" t="n">
-        <v>20.565</v>
+        <v>14.859</v>
       </c>
       <c r="E142" t="n">
-        <v>20.841</v>
+        <v>14.927</v>
       </c>
       <c r="F142" t="n">
-        <v>615327.8</v>
+        <v>229758.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44368.24999998842</v>
+        <v>44380.27083332176</v>
       </c>
       <c r="B143" t="n">
-        <v>20.849</v>
+        <v>14.928</v>
       </c>
       <c r="C143" t="n">
-        <v>20.977</v>
+        <v>15.038</v>
       </c>
       <c r="D143" t="n">
-        <v>20.692</v>
+        <v>14.913</v>
       </c>
       <c r="E143" t="n">
-        <v>20.93</v>
+        <v>15.029</v>
       </c>
       <c r="F143" t="n">
-        <v>527821.7</v>
+        <v>139479.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44368.27083332176</v>
+        <v>44380.2916666551</v>
       </c>
       <c r="B144" t="n">
-        <v>20.929</v>
+        <v>15.027</v>
       </c>
       <c r="C144" t="n">
-        <v>20.98</v>
+        <v>15.19</v>
       </c>
       <c r="D144" t="n">
-        <v>20.657</v>
+        <v>15.02</v>
       </c>
       <c r="E144" t="n">
-        <v>20.751</v>
+        <v>15.147</v>
       </c>
       <c r="F144" t="n">
-        <v>416725.8</v>
+        <v>198259.7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44368.2916666551</v>
+        <v>44380.31249998842</v>
       </c>
       <c r="B145" t="n">
-        <v>20.751</v>
+        <v>15.147</v>
       </c>
       <c r="C145" t="n">
-        <v>20.878</v>
+        <v>15.211</v>
       </c>
       <c r="D145" t="n">
-        <v>20.617</v>
+        <v>15.129</v>
       </c>
       <c r="E145" t="n">
-        <v>20.62</v>
+        <v>15.181</v>
       </c>
       <c r="F145" t="n">
-        <v>271904.9</v>
+        <v>157813.4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44368.31249998842</v>
+        <v>44380.33333332176</v>
       </c>
       <c r="B146" t="n">
-        <v>20.622</v>
+        <v>15.181</v>
       </c>
       <c r="C146" t="n">
-        <v>20.85</v>
+        <v>15.291</v>
       </c>
       <c r="D146" t="n">
-        <v>20.622</v>
+        <v>15.17</v>
       </c>
       <c r="E146" t="n">
-        <v>20.717</v>
+        <v>15.288</v>
       </c>
       <c r="F146" t="n">
-        <v>257280</v>
+        <v>297697.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44368.33333332176</v>
+        <v>44380.3541666551</v>
       </c>
       <c r="B147" t="n">
-        <v>20.719</v>
+        <v>15.289</v>
       </c>
       <c r="C147" t="n">
-        <v>20.899</v>
+        <v>15.311</v>
       </c>
       <c r="D147" t="n">
-        <v>20.718</v>
+        <v>15.197</v>
       </c>
       <c r="E147" t="n">
-        <v>20.843</v>
+        <v>15.248</v>
       </c>
       <c r="F147" t="n">
-        <v>274182.7</v>
+        <v>289430.9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44368.3541666551</v>
+        <v>44380.37499998842</v>
       </c>
       <c r="B148" t="n">
-        <v>20.846</v>
+        <v>15.254</v>
       </c>
       <c r="C148" t="n">
-        <v>20.872</v>
+        <v>15.318</v>
       </c>
       <c r="D148" t="n">
-        <v>20.702</v>
+        <v>15.23</v>
       </c>
       <c r="E148" t="n">
-        <v>20.708</v>
+        <v>15.275</v>
       </c>
       <c r="F148" t="n">
-        <v>222477.6</v>
+        <v>252942.8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44368.37499998842</v>
+        <v>44380.39583332176</v>
       </c>
       <c r="B149" t="n">
-        <v>20.707</v>
+        <v>15.275</v>
       </c>
       <c r="C149" t="n">
-        <v>20.784</v>
+        <v>15.333</v>
       </c>
       <c r="D149" t="n">
-        <v>20.542</v>
+        <v>15.153</v>
       </c>
       <c r="E149" t="n">
-        <v>20.605</v>
+        <v>15.187</v>
       </c>
       <c r="F149" t="n">
-        <v>278223.8</v>
+        <v>272863.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44368.39583332176</v>
+        <v>44380.4166666551</v>
       </c>
       <c r="B150" t="n">
-        <v>20.605</v>
+        <v>15.187</v>
       </c>
       <c r="C150" t="n">
-        <v>20.787</v>
+        <v>15.217</v>
       </c>
       <c r="D150" t="n">
-        <v>20.317</v>
+        <v>15.066</v>
       </c>
       <c r="E150" t="n">
-        <v>20.42</v>
+        <v>15.117</v>
       </c>
       <c r="F150" t="n">
-        <v>561715.1</v>
+        <v>243214.1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44368.4166666551</v>
+        <v>44380.43749998842</v>
       </c>
       <c r="B151" t="n">
-        <v>20.42</v>
+        <v>15.118</v>
       </c>
       <c r="C151" t="n">
-        <v>20.529</v>
+        <v>15.15</v>
       </c>
       <c r="D151" t="n">
-        <v>20.377</v>
+        <v>15.059</v>
       </c>
       <c r="E151" t="n">
-        <v>20.514</v>
+        <v>15.101</v>
       </c>
       <c r="F151" t="n">
-        <v>170671.6</v>
+        <v>150826.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44368.43749998842</v>
+        <v>44380.45833332176</v>
       </c>
       <c r="B152" t="n">
-        <v>20.514</v>
+        <v>15.102</v>
       </c>
       <c r="C152" t="n">
-        <v>20.579</v>
+        <v>15.2</v>
       </c>
       <c r="D152" t="n">
-        <v>20.264</v>
+        <v>15.07</v>
       </c>
       <c r="E152" t="n">
-        <v>20.264</v>
+        <v>15.154</v>
       </c>
       <c r="F152" t="n">
-        <v>218934.1</v>
+        <v>194384.6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44368.45833332176</v>
+        <v>44380.4791666551</v>
       </c>
       <c r="B153" t="n">
-        <v>20.265</v>
+        <v>15.152</v>
       </c>
       <c r="C153" t="n">
-        <v>20.412</v>
+        <v>15.21</v>
       </c>
       <c r="D153" t="n">
-        <v>20.135</v>
+        <v>15.104</v>
       </c>
       <c r="E153" t="n">
-        <v>20.162</v>
+        <v>15.203</v>
       </c>
       <c r="F153" t="n">
-        <v>266367.4</v>
+        <v>140149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44368.4791666551</v>
+        <v>44380.49999998842</v>
       </c>
       <c r="B154" t="n">
-        <v>20.161</v>
+        <v>15.197</v>
       </c>
       <c r="C154" t="n">
-        <v>20.348</v>
+        <v>15.237</v>
       </c>
       <c r="D154" t="n">
-        <v>20.111</v>
+        <v>15.141</v>
       </c>
       <c r="E154" t="n">
-        <v>20.123</v>
+        <v>15.155</v>
       </c>
       <c r="F154" t="n">
-        <v>272412</v>
+        <v>148691.7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44368.49999998842</v>
+        <v>44380.52083332176</v>
       </c>
       <c r="B155" t="n">
-        <v>20.122</v>
+        <v>15.155</v>
       </c>
       <c r="C155" t="n">
-        <v>20.146</v>
+        <v>15.155</v>
       </c>
       <c r="D155" t="n">
-        <v>19.761</v>
+        <v>15.1</v>
       </c>
       <c r="E155" t="n">
-        <v>20.008</v>
+        <v>15.126</v>
       </c>
       <c r="F155" t="n">
-        <v>695973.7</v>
+        <v>165556.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44368.52083332176</v>
+        <v>44380.5416666551</v>
       </c>
       <c r="B156" t="n">
-        <v>20.001</v>
+        <v>15.126</v>
       </c>
       <c r="C156" t="n">
-        <v>20.001</v>
+        <v>15.19</v>
       </c>
       <c r="D156" t="n">
-        <v>19.665</v>
+        <v>15.039</v>
       </c>
       <c r="E156" t="n">
-        <v>19.697</v>
+        <v>15.139</v>
       </c>
       <c r="F156" t="n">
-        <v>412807.6</v>
+        <v>222000.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44368.5416666551</v>
+        <v>44380.56249998842</v>
       </c>
       <c r="B157" t="n">
-        <v>19.701</v>
+        <v>15.139</v>
       </c>
       <c r="C157" t="n">
-        <v>19.767</v>
+        <v>15.152</v>
       </c>
       <c r="D157" t="n">
-        <v>19.406</v>
+        <v>15.016</v>
       </c>
       <c r="E157" t="n">
-        <v>19.423</v>
+        <v>15.043</v>
       </c>
       <c r="F157" t="n">
-        <v>552712.1</v>
+        <v>266252</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44368.56249998842</v>
+        <v>44380.58333332176</v>
       </c>
       <c r="B158" t="n">
-        <v>19.424</v>
+        <v>15.036</v>
       </c>
       <c r="C158" t="n">
-        <v>19.493</v>
+        <v>15.091</v>
       </c>
       <c r="D158" t="n">
-        <v>19.019</v>
+        <v>15.008</v>
       </c>
       <c r="E158" t="n">
-        <v>19.071</v>
+        <v>15.09</v>
       </c>
       <c r="F158" t="n">
-        <v>880847.6</v>
+        <v>169401</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44368.58333332176</v>
+        <v>44380.6041666551</v>
       </c>
       <c r="B159" t="n">
-        <v>19.07</v>
+        <v>15.088</v>
       </c>
       <c r="C159" t="n">
-        <v>19.379</v>
+        <v>15.092</v>
       </c>
       <c r="D159" t="n">
-        <v>18.87</v>
+        <v>15.026</v>
       </c>
       <c r="E159" t="n">
-        <v>19.368</v>
+        <v>15.06</v>
       </c>
       <c r="F159" t="n">
-        <v>1020148.5</v>
+        <v>101152.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44368.6041666551</v>
+        <v>44380.62499998842</v>
       </c>
       <c r="B160" t="n">
-        <v>19.369</v>
+        <v>15.059</v>
       </c>
       <c r="C160" t="n">
-        <v>19.51</v>
+        <v>15.148</v>
       </c>
       <c r="D160" t="n">
-        <v>19.05</v>
+        <v>15.057</v>
       </c>
       <c r="E160" t="n">
-        <v>19.3</v>
+        <v>15.14</v>
       </c>
       <c r="F160" t="n">
-        <v>1086491.1</v>
+        <v>214171.8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44368.62499998842</v>
+        <v>44380.64583332176</v>
       </c>
       <c r="B161" t="n">
-        <v>19.299</v>
+        <v>15.141</v>
       </c>
       <c r="C161" t="n">
-        <v>19.554</v>
+        <v>15.153</v>
       </c>
       <c r="D161" t="n">
-        <v>19.281</v>
+        <v>15.105</v>
       </c>
       <c r="E161" t="n">
-        <v>19.526</v>
+        <v>15.134</v>
       </c>
       <c r="F161" t="n">
-        <v>538998.6</v>
+        <v>187006.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44368.64583332176</v>
+        <v>44380.6666666551</v>
       </c>
       <c r="B162" t="n">
-        <v>19.526</v>
+        <v>15.136</v>
       </c>
       <c r="C162" t="n">
-        <v>19.64</v>
+        <v>15.148</v>
       </c>
       <c r="D162" t="n">
-        <v>18.725</v>
+        <v>15.081</v>
       </c>
       <c r="E162" t="n">
-        <v>18.879</v>
+        <v>15.11</v>
       </c>
       <c r="F162" t="n">
-        <v>1033754.3</v>
+        <v>175364.3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44368.6666666551</v>
+        <v>44380.68749998842</v>
       </c>
       <c r="B163" t="n">
-        <v>18.885</v>
+        <v>15.109</v>
       </c>
       <c r="C163" t="n">
-        <v>18.891</v>
+        <v>15.155</v>
       </c>
       <c r="D163" t="n">
-        <v>17.913</v>
+        <v>15.053</v>
       </c>
       <c r="E163" t="n">
-        <v>18.217</v>
+        <v>15.138</v>
       </c>
       <c r="F163" t="n">
-        <v>3243541</v>
+        <v>239159.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44368.68749998842</v>
+        <v>44380.70833332176</v>
       </c>
       <c r="B164" t="n">
-        <v>18.22</v>
+        <v>15.14</v>
       </c>
       <c r="C164" t="n">
-        <v>18.484</v>
+        <v>15.54</v>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>15.138</v>
       </c>
       <c r="E164" t="n">
-        <v>18.169</v>
+        <v>15.431</v>
       </c>
       <c r="F164" t="n">
-        <v>1429965.3</v>
+        <v>1134010.6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44368.70833332176</v>
+        <v>44380.7291666551</v>
       </c>
       <c r="B165" t="n">
-        <v>18.172</v>
+        <v>15.435</v>
       </c>
       <c r="C165" t="n">
-        <v>18.3</v>
+        <v>15.48</v>
       </c>
       <c r="D165" t="n">
-        <v>17.945</v>
+        <v>15.33</v>
       </c>
       <c r="E165" t="n">
-        <v>18.185</v>
+        <v>15.397</v>
       </c>
       <c r="F165" t="n">
-        <v>1037961.4</v>
+        <v>693242.2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44368.7291666551</v>
+        <v>44380.74999998842</v>
       </c>
       <c r="B166" t="n">
-        <v>18.187</v>
+        <v>15.391</v>
       </c>
       <c r="C166" t="n">
-        <v>18.413</v>
+        <v>15.549</v>
       </c>
       <c r="D166" t="n">
-        <v>18.049</v>
+        <v>15.38</v>
       </c>
       <c r="E166" t="n">
-        <v>18.281</v>
+        <v>15.513</v>
       </c>
       <c r="F166" t="n">
-        <v>695882.8</v>
+        <v>514687.7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44368.74999998842</v>
+        <v>44380.77083332176</v>
       </c>
       <c r="B167" t="n">
-        <v>18.277</v>
+        <v>15.512</v>
       </c>
       <c r="C167" t="n">
-        <v>18.277</v>
+        <v>15.557</v>
       </c>
       <c r="D167" t="n">
-        <v>18.032</v>
+        <v>15.501</v>
       </c>
       <c r="E167" t="n">
-        <v>18.112</v>
+        <v>15.522</v>
       </c>
       <c r="F167" t="n">
-        <v>544100.8</v>
+        <v>440345.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44368.77083332176</v>
+        <v>44380.7916666551</v>
       </c>
       <c r="B168" t="n">
-        <v>18.107</v>
+        <v>15.52</v>
       </c>
       <c r="C168" t="n">
-        <v>18.352</v>
+        <v>15.6</v>
       </c>
       <c r="D168" t="n">
-        <v>17.482</v>
+        <v>15.455</v>
       </c>
       <c r="E168" t="n">
-        <v>17.876</v>
+        <v>15.573</v>
       </c>
       <c r="F168" t="n">
-        <v>2753991.2</v>
+        <v>393545.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44368.7916666551</v>
+        <v>44380.81249998842</v>
       </c>
       <c r="B169" t="n">
-        <v>17.872</v>
+        <v>15.577</v>
       </c>
       <c r="C169" t="n">
-        <v>18.092</v>
+        <v>15.643</v>
       </c>
       <c r="D169" t="n">
-        <v>17.726</v>
+        <v>15.522</v>
       </c>
       <c r="E169" t="n">
-        <v>17.926</v>
+        <v>15.559</v>
       </c>
       <c r="F169" t="n">
-        <v>1329906.3</v>
+        <v>560512.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44368.81249998842</v>
+        <v>44380.83333332176</v>
       </c>
       <c r="B170" t="n">
-        <v>17.925</v>
+        <v>15.558</v>
       </c>
       <c r="C170" t="n">
-        <v>17.974</v>
+        <v>15.6</v>
       </c>
       <c r="D170" t="n">
-        <v>17.161</v>
+        <v>15.535</v>
       </c>
       <c r="E170" t="n">
-        <v>17.173</v>
+        <v>15.575</v>
       </c>
       <c r="F170" t="n">
-        <v>1792274.1</v>
+        <v>185253.6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44368.83333332176</v>
+        <v>44380.8541666551</v>
       </c>
       <c r="B171" t="n">
-        <v>17.173</v>
+        <v>15.576</v>
       </c>
       <c r="C171" t="n">
-        <v>17.679</v>
+        <v>15.592</v>
       </c>
       <c r="D171" t="n">
-        <v>16.875</v>
+        <v>15.44</v>
       </c>
       <c r="E171" t="n">
-        <v>17.112</v>
+        <v>15.47</v>
       </c>
       <c r="F171" t="n">
-        <v>2200572.1</v>
+        <v>277836.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44368.8541666551</v>
+        <v>44380.87499998842</v>
       </c>
       <c r="B172" t="n">
-        <v>17.108</v>
+        <v>15.469</v>
       </c>
       <c r="C172" t="n">
-        <v>17.268</v>
+        <v>15.553</v>
       </c>
       <c r="D172" t="n">
-        <v>16.53</v>
+        <v>15.44</v>
       </c>
       <c r="E172" t="n">
-        <v>16.554</v>
+        <v>15.545</v>
       </c>
       <c r="F172" t="n">
-        <v>2638718.8</v>
+        <v>230527.1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44368.87499998842</v>
+        <v>44380.89583332176</v>
       </c>
       <c r="B173" t="n">
-        <v>16.552</v>
+        <v>15.548</v>
       </c>
       <c r="C173" t="n">
-        <v>17.551</v>
+        <v>15.64</v>
       </c>
       <c r="D173" t="n">
-        <v>16.537</v>
+        <v>15.512</v>
       </c>
       <c r="E173" t="n">
-        <v>17.479</v>
+        <v>15.631</v>
       </c>
       <c r="F173" t="n">
-        <v>2463668.8</v>
+        <v>289348.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44368.89583332176</v>
+        <v>44380.9166666551</v>
       </c>
       <c r="B174" t="n">
-        <v>17.478</v>
+        <v>15.629</v>
       </c>
       <c r="C174" t="n">
-        <v>17.566</v>
+        <v>15.629</v>
       </c>
       <c r="D174" t="n">
-        <v>17.127</v>
+        <v>15.49</v>
       </c>
       <c r="E174" t="n">
-        <v>17.541</v>
+        <v>15.518</v>
       </c>
       <c r="F174" t="n">
-        <v>1333869.9</v>
+        <v>264532.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44368.9166666551</v>
+        <v>44380.93749998842</v>
       </c>
       <c r="B175" t="n">
-        <v>17.538</v>
+        <v>15.519</v>
       </c>
       <c r="C175" t="n">
-        <v>17.538</v>
+        <v>15.529</v>
       </c>
       <c r="D175" t="n">
-        <v>17.023</v>
+        <v>15.474</v>
       </c>
       <c r="E175" t="n">
-        <v>17.132</v>
+        <v>15.516</v>
       </c>
       <c r="F175" t="n">
-        <v>1159327.8</v>
+        <v>203360.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44368.93749998842</v>
+        <v>44380.95833332176</v>
       </c>
       <c r="B176" t="n">
-        <v>17.134</v>
+        <v>15.516</v>
       </c>
       <c r="C176" t="n">
-        <v>17.49</v>
+        <v>15.61</v>
       </c>
       <c r="D176" t="n">
-        <v>16.908</v>
+        <v>15.466</v>
       </c>
       <c r="E176" t="n">
-        <v>17.425</v>
+        <v>15.604</v>
       </c>
       <c r="F176" t="n">
-        <v>1313406</v>
+        <v>398462.2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44368.95833332176</v>
+        <v>44380.9791666551</v>
       </c>
       <c r="B177" t="n">
-        <v>17.427</v>
+        <v>15.599</v>
       </c>
       <c r="C177" t="n">
-        <v>18.224</v>
+        <v>15.636</v>
       </c>
       <c r="D177" t="n">
-        <v>17.288</v>
+        <v>15.486</v>
       </c>
       <c r="E177" t="n">
-        <v>18.207</v>
+        <v>15.558</v>
       </c>
       <c r="F177" t="n">
-        <v>1523606.9</v>
+        <v>398576.2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44368.9791666551</v>
+        <v>44380.99999998842</v>
       </c>
       <c r="B178" t="n">
-        <v>18.214</v>
+        <v>15.559</v>
       </c>
       <c r="C178" t="n">
-        <v>18.223</v>
+        <v>15.642</v>
       </c>
       <c r="D178" t="n">
-        <v>17.503</v>
+        <v>15.53</v>
       </c>
       <c r="E178" t="n">
-        <v>17.706</v>
+        <v>15.622</v>
       </c>
       <c r="F178" t="n">
-        <v>1326219.6</v>
+        <v>213656.2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44368.99999998842</v>
+        <v>44381.02083332176</v>
       </c>
       <c r="B179" t="n">
-        <v>17.704</v>
+        <v>15.623</v>
       </c>
       <c r="C179" t="n">
-        <v>18.063</v>
+        <v>15.746</v>
       </c>
       <c r="D179" t="n">
-        <v>17.681</v>
+        <v>15.597</v>
       </c>
       <c r="E179" t="n">
-        <v>17.854</v>
+        <v>15.663</v>
       </c>
       <c r="F179" t="n">
-        <v>905368.3</v>
+        <v>404139.8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44369.02083332176</v>
+        <v>44381.0416666551</v>
       </c>
       <c r="B180" t="n">
-        <v>17.853</v>
+        <v>15.663</v>
       </c>
       <c r="C180" t="n">
-        <v>17.998</v>
+        <v>15.667</v>
       </c>
       <c r="D180" t="n">
-        <v>17.654</v>
+        <v>15.553</v>
       </c>
       <c r="E180" t="n">
-        <v>17.675</v>
+        <v>15.645</v>
       </c>
       <c r="F180" t="n">
-        <v>814384.3</v>
+        <v>221259.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44369.0416666551</v>
+        <v>44381.06249998842</v>
       </c>
       <c r="B181" t="n">
-        <v>17.67</v>
+        <v>15.645</v>
       </c>
       <c r="C181" t="n">
-        <v>17.738</v>
+        <v>15.669</v>
       </c>
       <c r="D181" t="n">
-        <v>17.344</v>
+        <v>15.563</v>
       </c>
       <c r="E181" t="n">
-        <v>17.624</v>
+        <v>15.581</v>
       </c>
       <c r="F181" t="n">
-        <v>741455</v>
+        <v>283422.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44369.06249998842</v>
+        <v>44381.08333332176</v>
       </c>
       <c r="B182" t="n">
-        <v>17.619</v>
+        <v>15.58</v>
       </c>
       <c r="C182" t="n">
-        <v>17.98</v>
+        <v>15.614</v>
       </c>
       <c r="D182" t="n">
-        <v>17.401</v>
+        <v>15.561</v>
       </c>
       <c r="E182" t="n">
-        <v>17.411</v>
+        <v>15.567</v>
       </c>
       <c r="F182" t="n">
-        <v>1158155</v>
+        <v>130997.7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44369.08333332176</v>
+        <v>44381.1041666551</v>
       </c>
       <c r="B183" t="n">
-        <v>17.41</v>
+        <v>15.566</v>
       </c>
       <c r="C183" t="n">
-        <v>17.478</v>
+        <v>15.65</v>
       </c>
       <c r="D183" t="n">
-        <v>16.607</v>
+        <v>15.561</v>
       </c>
       <c r="E183" t="n">
-        <v>16.709</v>
+        <v>15.643</v>
       </c>
       <c r="F183" t="n">
-        <v>2026593.7</v>
+        <v>162898</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44369.1041666551</v>
+        <v>44381.12499998842</v>
       </c>
       <c r="B184" t="n">
-        <v>16.704</v>
+        <v>15.643</v>
       </c>
       <c r="C184" t="n">
-        <v>17.187</v>
+        <v>15.718</v>
       </c>
       <c r="D184" t="n">
-        <v>16.657</v>
+        <v>15.619</v>
       </c>
       <c r="E184" t="n">
-        <v>16.898</v>
+        <v>15.66</v>
       </c>
       <c r="F184" t="n">
-        <v>1145943.6</v>
+        <v>284355.1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44369.12499998842</v>
+        <v>44381.14583332176</v>
       </c>
       <c r="B185" t="n">
-        <v>16.896</v>
+        <v>15.66</v>
       </c>
       <c r="C185" t="n">
-        <v>17.13</v>
+        <v>15.685</v>
       </c>
       <c r="D185" t="n">
-        <v>16.676</v>
+        <v>15.495</v>
       </c>
       <c r="E185" t="n">
-        <v>16.751</v>
+        <v>15.515</v>
       </c>
       <c r="F185" t="n">
-        <v>694128</v>
+        <v>316895</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44369.14583332176</v>
+        <v>44381.1666666551</v>
       </c>
       <c r="B186" t="n">
-        <v>16.75</v>
+        <v>15.52</v>
       </c>
       <c r="C186" t="n">
-        <v>17.08</v>
+        <v>15.587</v>
       </c>
       <c r="D186" t="n">
-        <v>16.714</v>
+        <v>15.515</v>
       </c>
       <c r="E186" t="n">
-        <v>16.917</v>
+        <v>15.524</v>
       </c>
       <c r="F186" t="n">
-        <v>734193.4</v>
+        <v>131124.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44369.1666666551</v>
+        <v>44381.18749998842</v>
       </c>
       <c r="B187" t="n">
-        <v>16.917</v>
+        <v>15.525</v>
       </c>
       <c r="C187" t="n">
-        <v>17.327</v>
+        <v>15.563</v>
       </c>
       <c r="D187" t="n">
-        <v>16.88</v>
+        <v>15.506</v>
       </c>
       <c r="E187" t="n">
-        <v>17.265</v>
+        <v>15.523</v>
       </c>
       <c r="F187" t="n">
-        <v>509471.6</v>
+        <v>102835.3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44369.18749998842</v>
+        <v>44381.20833332176</v>
       </c>
       <c r="B188" t="n">
-        <v>17.264</v>
+        <v>15.523</v>
       </c>
       <c r="C188" t="n">
-        <v>17.319</v>
+        <v>15.639</v>
       </c>
       <c r="D188" t="n">
-        <v>16.827</v>
+        <v>15.52</v>
       </c>
       <c r="E188" t="n">
-        <v>16.833</v>
+        <v>15.586</v>
       </c>
       <c r="F188" t="n">
-        <v>632359.8</v>
+        <v>162447.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44369.20833332176</v>
+        <v>44381.2291666551</v>
       </c>
       <c r="B189" t="n">
-        <v>16.834</v>
+        <v>15.587</v>
       </c>
       <c r="C189" t="n">
-        <v>17.168</v>
+        <v>15.609</v>
       </c>
       <c r="D189" t="n">
-        <v>16.702</v>
+        <v>15.543</v>
       </c>
       <c r="E189" t="n">
-        <v>17.118</v>
+        <v>15.595</v>
       </c>
       <c r="F189" t="n">
-        <v>626999.2</v>
+        <v>151037.2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44369.2291666551</v>
+        <v>44381.24999998842</v>
       </c>
       <c r="B190" t="n">
-        <v>17.118</v>
+        <v>15.593</v>
       </c>
       <c r="C190" t="n">
-        <v>17.27</v>
+        <v>15.597</v>
       </c>
       <c r="D190" t="n">
-        <v>16.979</v>
+        <v>15.511</v>
       </c>
       <c r="E190" t="n">
-        <v>17.089</v>
+        <v>15.588</v>
       </c>
       <c r="F190" t="n">
-        <v>530058.9</v>
+        <v>121691.8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44369.24999998842</v>
+        <v>44381.27083332176</v>
       </c>
       <c r="B191" t="n">
-        <v>17.087</v>
+        <v>15.589</v>
       </c>
       <c r="C191" t="n">
-        <v>17.294</v>
+        <v>15.604</v>
       </c>
       <c r="D191" t="n">
-        <v>17.015</v>
+        <v>15.547</v>
       </c>
       <c r="E191" t="n">
-        <v>17.036</v>
+        <v>15.575</v>
       </c>
       <c r="F191" t="n">
-        <v>440645.7</v>
+        <v>101481.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44369.27083332176</v>
+        <v>44381.2916666551</v>
       </c>
       <c r="B192" t="n">
-        <v>17.036</v>
+        <v>15.575</v>
       </c>
       <c r="C192" t="n">
-        <v>17.048</v>
+        <v>15.685</v>
       </c>
       <c r="D192" t="n">
-        <v>16.46</v>
+        <v>15.474</v>
       </c>
       <c r="E192" t="n">
-        <v>16.506</v>
+        <v>15.49</v>
       </c>
       <c r="F192" t="n">
-        <v>1197770.1</v>
+        <v>291038.2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44369.2916666551</v>
+        <v>44381.31249998842</v>
       </c>
       <c r="B193" t="n">
-        <v>16.504</v>
+        <v>15.49</v>
       </c>
       <c r="C193" t="n">
-        <v>16.675</v>
+        <v>15.514</v>
       </c>
       <c r="D193" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E193" t="n">
-        <v>15.832</v>
+        <v>15.339</v>
       </c>
       <c r="F193" t="n">
-        <v>2330105.3</v>
+        <v>431541.9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44369.31249998842</v>
+        <v>44381.33333332176</v>
       </c>
       <c r="B194" t="n">
-        <v>15.835</v>
+        <v>15.339</v>
       </c>
       <c r="C194" t="n">
-        <v>16.476</v>
+        <v>15.445</v>
       </c>
       <c r="D194" t="n">
-        <v>15.825</v>
+        <v>15.3</v>
       </c>
       <c r="E194" t="n">
-        <v>16.274</v>
+        <v>15.428</v>
       </c>
       <c r="F194" t="n">
-        <v>1293448.6</v>
+        <v>211709.9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44369.33333332176</v>
+        <v>44381.3541666551</v>
       </c>
       <c r="B195" t="n">
-        <v>16.271</v>
+        <v>15.432</v>
       </c>
       <c r="C195" t="n">
-        <v>16.281</v>
+        <v>15.432</v>
       </c>
       <c r="D195" t="n">
-        <v>15.34</v>
+        <v>15.248</v>
       </c>
       <c r="E195" t="n">
-        <v>15.359</v>
+        <v>15.301</v>
       </c>
       <c r="F195" t="n">
-        <v>1917615.4</v>
+        <v>235360.8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44369.3541666551</v>
+        <v>44381.37499998842</v>
       </c>
       <c r="B196" t="n">
-        <v>15.359</v>
+        <v>15.307</v>
       </c>
       <c r="C196" t="n">
-        <v>15.988</v>
+        <v>15.527</v>
       </c>
       <c r="D196" t="n">
-        <v>15.358</v>
+        <v>15.289</v>
       </c>
       <c r="E196" t="n">
-        <v>15.878</v>
+        <v>15.519</v>
       </c>
       <c r="F196" t="n">
-        <v>1565307.5</v>
+        <v>212452.8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44369.37499998842</v>
+        <v>44381.39583332176</v>
       </c>
       <c r="B197" t="n">
-        <v>15.879</v>
+        <v>15.519</v>
       </c>
       <c r="C197" t="n">
-        <v>16.022</v>
+        <v>15.529</v>
       </c>
       <c r="D197" t="n">
-        <v>15.614</v>
+        <v>15.391</v>
       </c>
       <c r="E197" t="n">
-        <v>15.697</v>
+        <v>15.464</v>
       </c>
       <c r="F197" t="n">
-        <v>998885</v>
+        <v>223985.1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44369.39583332176</v>
+        <v>44381.4166666551</v>
       </c>
       <c r="B198" t="n">
-        <v>15.699</v>
+        <v>15.464</v>
       </c>
       <c r="C198" t="n">
-        <v>15.821</v>
+        <v>15.491</v>
       </c>
       <c r="D198" t="n">
-        <v>14.984</v>
+        <v>15.321</v>
       </c>
       <c r="E198" t="n">
-        <v>15.13</v>
+        <v>15.336</v>
       </c>
       <c r="F198" t="n">
-        <v>1839806.1</v>
+        <v>126791.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44369.4166666551</v>
+        <v>44381.43749998842</v>
       </c>
       <c r="B199" t="n">
-        <v>15.132</v>
+        <v>15.335</v>
       </c>
       <c r="C199" t="n">
-        <v>15.659</v>
+        <v>15.368</v>
       </c>
       <c r="D199" t="n">
-        <v>15.09</v>
+        <v>15.166</v>
       </c>
       <c r="E199" t="n">
-        <v>15.609</v>
+        <v>15.23</v>
       </c>
       <c r="F199" t="n">
-        <v>1029242.5</v>
+        <v>343445.6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44369.43749998842</v>
+        <v>44381.45833332176</v>
       </c>
       <c r="B200" t="n">
-        <v>15.609</v>
+        <v>15.23</v>
       </c>
       <c r="C200" t="n">
-        <v>16.712</v>
+        <v>15.261</v>
       </c>
       <c r="D200" t="n">
-        <v>15.609</v>
+        <v>15.174</v>
       </c>
       <c r="E200" t="n">
-        <v>16.26</v>
+        <v>15.202</v>
       </c>
       <c r="F200" t="n">
-        <v>1842235.2</v>
+        <v>186002.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44369.45833332176</v>
+        <v>44381.4791666551</v>
       </c>
       <c r="B201" t="n">
-        <v>16.262</v>
+        <v>15.203</v>
       </c>
       <c r="C201" t="n">
-        <v>16.277</v>
+        <v>15.205</v>
       </c>
       <c r="D201" t="n">
-        <v>16.262</v>
+        <v>15.188</v>
       </c>
       <c r="E201" t="n">
-        <v>16.277</v>
+        <v>15.188</v>
       </c>
       <c r="F201" t="n">
-        <v>1446.1</v>
+        <v>1280.6</v>
       </c>
     </row>
   </sheetData>
